--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -567,94 +567,94 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.04755282581475768</v>
+        <v>0.006778944051263337</v>
       </c>
       <c r="C3">
-        <v>0.09510499279818385</v>
+        <v>0.01355787635137548</v>
       </c>
       <c r="D3">
-        <v>0.1426558421280749</v>
+        <v>0.0203367851492056</v>
       </c>
       <c r="E3">
-        <v>0.190204715000483</v>
+        <v>0.02711565869366363</v>
       </c>
       <c r="F3">
-        <v>0.2377509526388436</v>
+        <v>0.03389448523372059</v>
       </c>
       <c r="G3">
-        <v>0.2852938963031024</v>
+        <v>0.04067325301842899</v>
       </c>
       <c r="H3">
-        <v>0.3328328872988425</v>
+        <v>0.04745195029694319</v>
       </c>
       <c r="I3">
-        <v>0.38036726698641</v>
+        <v>0.0542305653185398</v>
       </c>
       <c r="J3">
-        <v>0.4278963767900396</v>
+        <v>0.06100908633263796</v>
       </c>
       <c r="K3">
-        <v>0.4754195582069782</v>
+        <v>0.0677875015888198</v>
       </c>
       <c r="L3">
-        <v>0.5229361528166094</v>
+        <v>0.07456579933685079</v>
       </c>
       <c r="M3">
-        <v>0.5704455022895751</v>
+        <v>0.08134396782670009</v>
       </c>
       <c r="N3">
-        <v>0.6179469483968967</v>
+        <v>0.08812199530856094</v>
       </c>
       <c r="O3">
-        <v>0.6654398330190943</v>
+        <v>0.09489987003287098</v>
       </c>
       <c r="P3">
-        <v>0.7129234981553051</v>
+        <v>0.1016775802503327</v>
       </c>
       <c r="Q3">
-        <v>0.7603972859323996</v>
+        <v>0.1084551142119337</v>
       </c>
       <c r="R3">
-        <v>0.8078605386140972</v>
+        <v>0.1152324601689671</v>
       </c>
       <c r="S3">
-        <v>0.8553125986100768</v>
+        <v>0.1220096063730521</v>
       </c>
       <c r="T3">
-        <v>0.9027528084850898</v>
+        <v>0.128786541076154</v>
       </c>
       <c r="U3">
-        <v>0.9501805109680678</v>
+        <v>0.1355632525306047</v>
       </c>
       <c r="V3">
-        <v>0.9975950489612283</v>
+        <v>0.1423397289891232</v>
       </c>
       <c r="W3">
-        <v>1.04499576554918</v>
+        <v>0.1491159587048358</v>
       </c>
       <c r="X3">
-        <v>1.092382004008021</v>
+        <v>0.1558919299312966</v>
       </c>
       <c r="Y3">
-        <v>1.139753107814445</v>
+        <v>0.1626676309225077</v>
       </c>
       <c r="Z3">
-        <v>1.187108420654827</v>
+        <v>0.1694430499329396</v>
       </c>
       <c r="AA3">
-        <v>1.234447286434324</v>
+        <v>0.1762181752175518</v>
       </c>
       <c r="AB3">
-        <v>1.281769049285962</v>
+        <v>0.1829929950318128</v>
       </c>
       <c r="AC3">
-        <v>1.329073053579724</v>
+        <v>0.1897674976317208</v>
       </c>
       <c r="AD3">
-        <v>1.376358643931632</v>
+        <v>0.1965416712738237</v>
       </c>
       <c r="AE3">
-        <v>1.423625165212827</v>
+        <v>0.2033155042152396</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -662,94 +662,94 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.02938926261462365</v>
+        <v>0.0123857470912899</v>
       </c>
       <c r="C4">
-        <v>0.05877811804909157</v>
+        <v>0.02477147271215821</v>
       </c>
       <c r="D4">
-        <v>0.08816615912888939</v>
+        <v>0.03715715539222057</v>
       </c>
       <c r="E4">
-        <v>0.1175529786907854</v>
+        <v>0.04954277366116704</v>
       </c>
       <c r="F4">
-        <v>0.1469381695884719</v>
+        <v>0.06192830604879933</v>
       </c>
       <c r="G4">
-        <v>0.1763213246982053</v>
+        <v>0.07431373108506806</v>
       </c>
       <c r="H4">
-        <v>0.2057020369244479</v>
+        <v>0.08669902730010989</v>
       </c>
       <c r="I4">
-        <v>0.2350798992055072</v>
+        <v>0.09908417322428484</v>
       </c>
       <c r="J4">
-        <v>0.264454504519176</v>
+        <v>0.1114691473882134</v>
       </c>
       <c r="K4">
-        <v>0.2938254458883713</v>
+        <v>0.1238539283228138</v>
       </c>
       <c r="L4">
-        <v>0.3231923163867734</v>
+        <v>0.1362384945593395</v>
       </c>
       <c r="M4">
-        <v>0.3525547091444632</v>
+        <v>0.1486228246294156</v>
       </c>
       <c r="N4">
-        <v>0.3819122173535592</v>
+        <v>0.1610068970650771</v>
       </c>
       <c r="O4">
-        <v>0.4112644342738546</v>
+        <v>0.1733906903988053</v>
       </c>
       <c r="P4">
-        <v>0.4406109532384513</v>
+        <v>0.1857741831635653</v>
       </c>
       <c r="Q4">
-        <v>0.4699513676593953</v>
+        <v>0.1981573538928434</v>
       </c>
       <c r="R4">
-        <v>0.4992852710333089</v>
+        <v>0.2105401811206843</v>
       </c>
       <c r="S4">
-        <v>0.5286122569470235</v>
+        <v>0.2229226433817276</v>
       </c>
       <c r="T4">
-        <v>0.55793191908321</v>
+        <v>0.235304719211246</v>
       </c>
       <c r="U4">
-        <v>0.5872438512260085</v>
+        <v>0.2476863871451821</v>
       </c>
       <c r="V4">
-        <v>0.6165476472666553</v>
+        <v>0.2600676257201853</v>
       </c>
       <c r="W4">
-        <v>0.6458429012091107</v>
+        <v>0.2724484134736494</v>
       </c>
       <c r="X4">
-        <v>0.6751292071756833</v>
+        <v>0.2848287289437499</v>
       </c>
       <c r="Y4">
-        <v>0.7044061594126531</v>
+        <v>0.2972085506694806</v>
       </c>
       <c r="Z4">
-        <v>0.7336733522958939</v>
+        <v>0.3095878571906915</v>
       </c>
       <c r="AA4">
-        <v>0.7629303803364927</v>
+        <v>0.3219666270481256</v>
       </c>
       <c r="AB4">
-        <v>0.7921768381863674</v>
+        <v>0.334344838783456</v>
       </c>
       <c r="AC4">
-        <v>0.8214123206438833</v>
+        <v>0.3467224709393238</v>
       </c>
       <c r="AD4">
-        <v>0.8506364226594662</v>
+        <v>0.3590995020593742</v>
       </c>
       <c r="AE4">
-        <v>0.8798487393412149</v>
+        <v>0.3714759106882949</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -757,94 +757,94 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>-0.02938926261462368</v>
+        <v>0.01585094193825256</v>
       </c>
       <c r="C5">
-        <v>-0.05877811804909162</v>
+        <v>0.03170185639924408</v>
       </c>
       <c r="D5">
-        <v>-0.08816615912888948</v>
+        <v>0.04755271590576116</v>
       </c>
       <c r="E5">
-        <v>-0.1175529786907856</v>
+        <v>0.06340349298068564</v>
       </c>
       <c r="F5">
-        <v>-0.146938169588472</v>
+        <v>0.0792541601470423</v>
       </c>
       <c r="G5">
-        <v>-0.1763213246982054</v>
+        <v>0.09510468992804635</v>
       </c>
       <c r="H5">
-        <v>-0.205702036924448</v>
+        <v>0.1109550548471513</v>
       </c>
       <c r="I5">
-        <v>-0.2350798992055073</v>
+        <v>0.1268052274280963</v>
       </c>
       <c r="J5">
-        <v>-0.2644545045191761</v>
+        <v>0.1426551801949541</v>
       </c>
       <c r="K5">
-        <v>-0.2938254458883717</v>
+        <v>0.1585048856721782</v>
       </c>
       <c r="L5">
-        <v>-0.3231923163867739</v>
+        <v>0.174354316384651</v>
       </c>
       <c r="M5">
-        <v>-0.3525547091444636</v>
+        <v>0.1902034448577311</v>
       </c>
       <c r="N5">
-        <v>-0.3819122173535596</v>
+        <v>0.2060522436173012</v>
       </c>
       <c r="O5">
-        <v>-0.411264434273855</v>
+        <v>0.2219006851898153</v>
       </c>
       <c r="P5">
-        <v>-0.4406109532384517</v>
+        <v>0.2377487421023467</v>
       </c>
       <c r="Q5">
-        <v>-0.4699513676593956</v>
+        <v>0.2535963868826355</v>
       </c>
       <c r="R5">
-        <v>-0.4992852710333093</v>
+        <v>0.269443592059136</v>
       </c>
       <c r="S5">
-        <v>-0.528612256947024</v>
+        <v>0.2852903301610649</v>
       </c>
       <c r="T5">
-        <v>-0.5579319190832107</v>
+        <v>0.3011365737184485</v>
       </c>
       <c r="U5">
-        <v>-0.587243851226009</v>
+        <v>0.3169822952621703</v>
       </c>
       <c r="V5">
-        <v>-0.6165476472666558</v>
+        <v>0.3328274673240186</v>
       </c>
       <c r="W5">
-        <v>-0.6458429012091111</v>
+        <v>0.3486720624367344</v>
       </c>
       <c r="X5">
-        <v>-0.6751292071756837</v>
+        <v>0.3645160531340588</v>
       </c>
       <c r="Y5">
-        <v>-0.7044061594126539</v>
+        <v>0.3803594119507807</v>
       </c>
       <c r="Z5">
-        <v>-0.733673352295895</v>
+        <v>0.396202111422784</v>
       </c>
       <c r="AA5">
-        <v>-0.7629303803364941</v>
+        <v>0.412044124087096</v>
       </c>
       <c r="AB5">
-        <v>-0.792176838186369</v>
+        <v>0.427885422481934</v>
       </c>
       <c r="AC5">
-        <v>-0.821412320643885</v>
+        <v>0.443725979146754</v>
       </c>
       <c r="AD5">
-        <v>-0.8506364226594681</v>
+        <v>0.4595657666222978</v>
       </c>
       <c r="AE5">
-        <v>-0.8798487393412175</v>
+        <v>0.4754047574506401</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -852,94 +852,94 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>-0.04755282581475768</v>
+        <v>0.01657536492280455</v>
       </c>
       <c r="C6">
-        <v>-0.09510499279818385</v>
+        <v>0.03315070111257668</v>
       </c>
       <c r="D6">
-        <v>-0.1426558421280749</v>
+        <v>0.04972597983633376</v>
       </c>
       <c r="E6">
-        <v>-0.190204715000483</v>
+        <v>0.06630117236119278</v>
       </c>
       <c r="F6">
-        <v>-0.2377509526388436</v>
+        <v>0.08287624995442017</v>
       </c>
       <c r="G6">
-        <v>-0.2852938963031024</v>
+        <v>0.09945118388348154</v>
       </c>
       <c r="H6">
-        <v>-0.3328328872988425</v>
+        <v>0.1160259454160916</v>
       </c>
       <c r="I6">
-        <v>-0.38036726698641</v>
+        <v>0.1326005058202638</v>
       </c>
       <c r="J6">
-        <v>-0.4278963767900396</v>
+        <v>0.1491748363643605</v>
       </c>
       <c r="K6">
-        <v>-0.4754195582069782</v>
+        <v>0.1657489083171421</v>
       </c>
       <c r="L6">
-        <v>-0.5229361528166094</v>
+        <v>0.1823226929478177</v>
       </c>
       <c r="M6">
-        <v>-0.5704455022895751</v>
+        <v>0.1988961615260942</v>
       </c>
       <c r="N6">
-        <v>-0.6179469483968967</v>
+        <v>0.2154692853222265</v>
       </c>
       <c r="O6">
-        <v>-0.6654398330190943</v>
+        <v>0.2320420356070671</v>
       </c>
       <c r="P6">
-        <v>-0.7129234981553051</v>
+        <v>0.2486143836521159</v>
       </c>
       <c r="Q6">
-        <v>-0.7603972859323996</v>
+        <v>0.2651863007295703</v>
       </c>
       <c r="R6">
-        <v>-0.8078605386140972</v>
+        <v>0.2817577581123744</v>
       </c>
       <c r="S6">
-        <v>-0.8553125986100768</v>
+        <v>0.2983287270742695</v>
       </c>
       <c r="T6">
-        <v>-0.9027528084850898</v>
+        <v>0.3148991788898435</v>
       </c>
       <c r="U6">
-        <v>-0.9501805109680678</v>
+        <v>0.3314690848345808</v>
       </c>
       <c r="V6">
-        <v>-0.9975950489612283</v>
+        <v>0.3480384161849119</v>
       </c>
       <c r="W6">
-        <v>-1.04499576554918</v>
+        <v>0.3646071442182635</v>
       </c>
       <c r="X6">
-        <v>-1.092382004008021</v>
+        <v>0.3811752402131079</v>
       </c>
       <c r="Y6">
-        <v>-1.139753107814445</v>
+        <v>0.3977426754490134</v>
       </c>
       <c r="Z6">
-        <v>-1.187108420654827</v>
+        <v>0.4143094212066933</v>
       </c>
       <c r="AA6">
-        <v>-1.234447286434324</v>
+        <v>0.4308754487680564</v>
       </c>
       <c r="AB6">
-        <v>-1.281769049285962</v>
+        <v>0.4474407294162565</v>
       </c>
       <c r="AC6">
-        <v>-1.329073053579724</v>
+        <v>0.4640052344357419</v>
       </c>
       <c r="AD6">
-        <v>-1.376358643931632</v>
+        <v>0.4805689351123058</v>
       </c>
       <c r="AE6">
-        <v>-1.423625165212827</v>
+        <v>0.4971318027331351</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -947,94 +947,94 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.01443375672974065</v>
       </c>
       <c r="C7">
-        <v>2.086950049354949e-22</v>
+        <v>0.0288674884388798</v>
       </c>
       <c r="D7">
-        <v>6.956458319609908e-22</v>
+        <v>0.04330117010685935</v>
       </c>
       <c r="E7">
-        <v>1.739102723929512e-21</v>
+        <v>0.05773477671320793</v>
       </c>
       <c r="F7">
-        <v>5.008604798235299e-21</v>
+        <v>0.0721682832375843</v>
       </c>
       <c r="G7">
-        <v>1.161712652524342e-20</v>
+        <v>0.08660166465982067</v>
       </c>
       <c r="H7">
-        <v>2.267757542548202e-20</v>
+        <v>0.1010348959599662</v>
       </c>
       <c r="I7">
-        <v>3.930276975501565e-20</v>
+        <v>0.1154679521183301</v>
       </c>
       <c r="J7">
-        <v>6.260541619260844e-20</v>
+        <v>0.1299008081155254</v>
       </c>
       <c r="K7">
-        <v>9.14720074764791e-20</v>
+        <v>0.1443334389325122</v>
       </c>
       <c r="L7">
-        <v>1.259019648099208e-19</v>
+        <v>0.1587658195506404</v>
       </c>
       <c r="M7">
-        <v>1.670076378729068e-19</v>
+        <v>0.1731979249516942</v>
       </c>
       <c r="N7">
-        <v>2.147882024660027e-19</v>
+        <v>0.1876297301179345</v>
       </c>
       <c r="O7">
-        <v>2.692427005532161e-19</v>
+        <v>0.202061210032143</v>
       </c>
       <c r="P7">
-        <v>3.303700402812052e-19</v>
+        <v>0.2164923396776649</v>
       </c>
       <c r="Q7">
-        <v>3.98168996001171e-19</v>
+        <v>0.2309230940384526</v>
       </c>
       <c r="R7">
-        <v>4.77090368398724e-19</v>
+        <v>0.2453534480991094</v>
       </c>
       <c r="S7">
-        <v>5.693586550940708e-19</v>
+        <v>0.2597833768449322</v>
       </c>
       <c r="T7">
-        <v>6.816502461971127e-19</v>
+        <v>0.274212855261955</v>
       </c>
       <c r="U7">
-        <v>8.184150502829022e-19</v>
+        <v>0.288641858336993</v>
       </c>
       <c r="V7">
-        <v>9.841024852203007e-19</v>
+        <v>0.303070361057685</v>
       </c>
       <c r="W7">
-        <v>1.187613549063118e-18</v>
+        <v>0.3174983384125372</v>
       </c>
       <c r="X7">
-        <v>1.444526721631101e-18</v>
+        <v>0.3319257653909664</v>
       </c>
       <c r="Y7">
-        <v>1.772645492044494e-18</v>
+        <v>0.3463526169833435</v>
       </c>
       <c r="Z7">
-        <v>2.18977192169814e-18</v>
+        <v>0.3607788681810372</v>
       </c>
       <c r="AA7">
-        <v>2.713706287316865e-18</v>
+        <v>0.3752044939764566</v>
       </c>
       <c r="AB7">
-        <v>3.362246724046636e-18</v>
+        <v>0.389629469363095</v>
       </c>
       <c r="AC7">
-        <v>4.144284548378083e-18</v>
+        <v>0.4040537693355731</v>
       </c>
       <c r="AD7">
-        <v>5.073160560184835e-18</v>
+        <v>0.4184773688896827</v>
       </c>
       <c r="AE7">
-        <v>6.162212615125238e-18</v>
+        <v>0.4329002430224294</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1042,94 +1042,94 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.0475528258147577</v>
+        <v>0.009796420871541218</v>
       </c>
       <c r="C8">
-        <v>0.09510499279818388</v>
+        <v>0.01959282476120119</v>
       </c>
       <c r="D8">
-        <v>0.142655842128075</v>
+        <v>0.02938919468712813</v>
       </c>
       <c r="E8">
-        <v>0.1902047150004832</v>
+        <v>0.0391855136675291</v>
       </c>
       <c r="F8">
-        <v>0.2377509526388439</v>
+        <v>0.04898176472069949</v>
       </c>
       <c r="G8">
-        <v>0.2852938963031029</v>
+        <v>0.05877793086505242</v>
       </c>
       <c r="H8">
-        <v>0.3328328872988431</v>
+        <v>0.06857399511914825</v>
       </c>
       <c r="I8">
-        <v>0.3803672669864107</v>
+        <v>0.0783699405017239</v>
       </c>
       <c r="J8">
-        <v>0.4278963767900401</v>
+        <v>0.08816575003172242</v>
       </c>
       <c r="K8">
-        <v>0.4754195582069788</v>
+        <v>0.09796140672832226</v>
       </c>
       <c r="L8">
-        <v>0.5229361528166101</v>
+        <v>0.1077568936109669</v>
       </c>
       <c r="M8">
-        <v>0.5704455022895758</v>
+        <v>0.1175521936993941</v>
       </c>
       <c r="N8">
-        <v>0.6179469483968973</v>
+        <v>0.1273472900136655</v>
       </c>
       <c r="O8">
-        <v>0.6654398330190949</v>
+        <v>0.137142165574196</v>
       </c>
       <c r="P8">
-        <v>0.7129234981553058</v>
+        <v>0.1469368034017831</v>
       </c>
       <c r="Q8">
-        <v>0.7603972859324007</v>
+        <v>0.1567311865176363</v>
       </c>
       <c r="R8">
-        <v>0.8078605386140986</v>
+        <v>0.166525297943407</v>
       </c>
       <c r="S8">
-        <v>0.8553125986100788</v>
+        <v>0.1763191207012172</v>
       </c>
       <c r="T8">
-        <v>0.9027528084850922</v>
+        <v>0.1861126378136895</v>
       </c>
       <c r="U8">
-        <v>0.9501805109680707</v>
+        <v>0.1959058323039761</v>
       </c>
       <c r="V8">
-        <v>0.9975950489612321</v>
+        <v>0.2056986871957888</v>
       </c>
       <c r="W8">
-        <v>1.044995765549185</v>
+        <v>0.2154911855134277</v>
       </c>
       <c r="X8">
-        <v>1.092382004008028</v>
+        <v>0.2252833102818115</v>
       </c>
       <c r="Y8">
-        <v>1.139753107814454</v>
+        <v>0.235075044526506</v>
       </c>
       <c r="Z8">
-        <v>1.187108420654837</v>
+        <v>0.2448663712737542</v>
       </c>
       <c r="AA8">
-        <v>1.234447286434336</v>
+        <v>0.2546572735505052</v>
       </c>
       <c r="AB8">
-        <v>1.281769049285976</v>
+        <v>0.2644477343844442</v>
       </c>
       <c r="AC8">
-        <v>1.329073053579739</v>
+        <v>0.2742377368040217</v>
       </c>
       <c r="AD8">
-        <v>1.376358643931648</v>
+        <v>0.2840272638384827</v>
       </c>
       <c r="AE8">
-        <v>1.423625165212844</v>
+        <v>0.2938162985178961</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1137,94 +1137,94 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.02938926261462363</v>
+        <v>0.003465194846962655</v>
       </c>
       <c r="C9">
-        <v>0.05877811804909153</v>
+        <v>0.006930383687085858</v>
       </c>
       <c r="D9">
-        <v>0.08816615912888934</v>
+        <v>0.01039556051354058</v>
       </c>
       <c r="E9">
-        <v>0.1175529786907854</v>
+        <v>0.01386071931951859</v>
       </c>
       <c r="F9">
-        <v>0.1469381695884716</v>
+        <v>0.01732585409824294</v>
       </c>
       <c r="G9">
-        <v>0.1763213246982051</v>
+        <v>0.02079095884297828</v>
       </c>
       <c r="H9">
-        <v>0.2057020369244477</v>
+        <v>0.02425602754704137</v>
       </c>
       <c r="I9">
-        <v>0.2350798992055071</v>
+        <v>0.02772105420381141</v>
       </c>
       <c r="J9">
-        <v>0.2644545045191759</v>
+        <v>0.03118603280674052</v>
       </c>
       <c r="K9">
-        <v>0.2938254458883713</v>
+        <v>0.0346509573493641</v>
       </c>
       <c r="L9">
-        <v>0.3231923163867735</v>
+        <v>0.03811582182531126</v>
       </c>
       <c r="M9">
-        <v>0.3525547091444635</v>
+        <v>0.04158062022831526</v>
       </c>
       <c r="N9">
-        <v>0.3819122173535596</v>
+        <v>0.04504534655222384</v>
       </c>
       <c r="O9">
-        <v>0.4112644342738551</v>
+        <v>0.04850999479100974</v>
       </c>
       <c r="P9">
-        <v>0.4406109532384519</v>
+        <v>0.05197455893878106</v>
       </c>
       <c r="Q9">
-        <v>0.4699513676593959</v>
+        <v>0.05543903298979163</v>
       </c>
       <c r="R9">
-        <v>0.4992852710333097</v>
+        <v>0.05890341093845151</v>
       </c>
       <c r="S9">
-        <v>0.5286122569470249</v>
+        <v>0.06236768677933728</v>
       </c>
       <c r="T9">
-        <v>0.5579319190832118</v>
+        <v>0.06583185450720261</v>
       </c>
       <c r="U9">
-        <v>0.5872438512260103</v>
+        <v>0.06929590811698851</v>
       </c>
       <c r="V9">
-        <v>0.6165476472666573</v>
+        <v>0.07275984160383382</v>
       </c>
       <c r="W9">
-        <v>0.6458429012091129</v>
+        <v>0.07622364896308571</v>
       </c>
       <c r="X9">
-        <v>0.6751292071756857</v>
+        <v>0.07968732419030983</v>
       </c>
       <c r="Y9">
-        <v>0.7044061594126562</v>
+        <v>0.08315086128130099</v>
       </c>
       <c r="Z9">
-        <v>0.7336733522958975</v>
+        <v>0.08661425423209344</v>
       </c>
       <c r="AA9">
-        <v>0.7629303803364967</v>
+        <v>0.09007749703897122</v>
       </c>
       <c r="AB9">
-        <v>0.7921768381863723</v>
+        <v>0.09354058369847876</v>
       </c>
       <c r="AC9">
-        <v>0.8214123206438888</v>
+        <v>0.09700350820743107</v>
       </c>
       <c r="AD9">
-        <v>0.8506364226594724</v>
+        <v>0.1004662645629243</v>
       </c>
       <c r="AE9">
-        <v>0.8798487393412222</v>
+        <v>0.1039288467623461</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1232,94 +1232,94 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>-0.02938926261462368</v>
+        <v>-0.003465194846962655</v>
       </c>
       <c r="C10">
-        <v>-0.05877811804909162</v>
+        <v>-0.006930383687085858</v>
       </c>
       <c r="D10">
-        <v>-0.08816615912888948</v>
+        <v>-0.01039556051354058</v>
       </c>
       <c r="E10">
-        <v>-0.1175529786907856</v>
+        <v>-0.01386071931951859</v>
       </c>
       <c r="F10">
-        <v>-0.146938169588472</v>
+        <v>-0.01732585409824294</v>
       </c>
       <c r="G10">
-        <v>-0.1763213246982054</v>
+        <v>-0.02079095884297828</v>
       </c>
       <c r="H10">
-        <v>-0.205702036924448</v>
+        <v>-0.02425602754704137</v>
       </c>
       <c r="I10">
-        <v>-0.2350798992055073</v>
+        <v>-0.02772105420381141</v>
       </c>
       <c r="J10">
-        <v>-0.2644545045191761</v>
+        <v>-0.03118603280674052</v>
       </c>
       <c r="K10">
-        <v>-0.2938254458883717</v>
+        <v>-0.0346509573493641</v>
       </c>
       <c r="L10">
-        <v>-0.3231923163867739</v>
+        <v>-0.03811582182531126</v>
       </c>
       <c r="M10">
-        <v>-0.3525547091444636</v>
+        <v>-0.04158062022831526</v>
       </c>
       <c r="N10">
-        <v>-0.3819122173535596</v>
+        <v>-0.04504534655222384</v>
       </c>
       <c r="O10">
-        <v>-0.411264434273855</v>
+        <v>-0.04850999479100974</v>
       </c>
       <c r="P10">
-        <v>-0.4406109532384517</v>
+        <v>-0.05197455893878106</v>
       </c>
       <c r="Q10">
-        <v>-0.4699513676593956</v>
+        <v>-0.05543903298979163</v>
       </c>
       <c r="R10">
-        <v>-0.4992852710333093</v>
+        <v>-0.05890341093845151</v>
       </c>
       <c r="S10">
-        <v>-0.528612256947024</v>
+        <v>-0.06236768677933728</v>
       </c>
       <c r="T10">
-        <v>-0.5579319190832107</v>
+        <v>-0.06583185450720261</v>
       </c>
       <c r="U10">
-        <v>-0.587243851226009</v>
+        <v>-0.06929590811698851</v>
       </c>
       <c r="V10">
-        <v>-0.6165476472666558</v>
+        <v>-0.07275984160383382</v>
       </c>
       <c r="W10">
-        <v>-0.6458429012091111</v>
+        <v>-0.07622364896308571</v>
       </c>
       <c r="X10">
-        <v>-0.6751292071756837</v>
+        <v>-0.07968732419030983</v>
       </c>
       <c r="Y10">
-        <v>-0.7044061594126539</v>
+        <v>-0.08315086128130099</v>
       </c>
       <c r="Z10">
-        <v>-0.733673352295895</v>
+        <v>-0.08661425423209344</v>
       </c>
       <c r="AA10">
-        <v>-0.7629303803364941</v>
+        <v>-0.09007749703897122</v>
       </c>
       <c r="AB10">
-        <v>-0.792176838186369</v>
+        <v>-0.09354058369847876</v>
       </c>
       <c r="AC10">
-        <v>-0.821412320643885</v>
+        <v>-0.09700350820743107</v>
       </c>
       <c r="AD10">
-        <v>-0.8506364226594681</v>
+        <v>-0.1004662645629243</v>
       </c>
       <c r="AE10">
-        <v>-0.8798487393412175</v>
+        <v>-0.1039288467623461</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1327,94 +1327,94 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>-0.04755282581475768</v>
+        <v>-0.009796420871541218</v>
       </c>
       <c r="C11">
-        <v>-0.09510499279818385</v>
+        <v>-0.01959282476120119</v>
       </c>
       <c r="D11">
-        <v>-0.1426558421280749</v>
+        <v>-0.02938919468712813</v>
       </c>
       <c r="E11">
-        <v>-0.190204715000483</v>
+        <v>-0.0391855136675291</v>
       </c>
       <c r="F11">
-        <v>-0.2377509526388436</v>
+        <v>-0.04898176472069949</v>
       </c>
       <c r="G11">
-        <v>-0.2852938963031024</v>
+        <v>-0.05877793086505242</v>
       </c>
       <c r="H11">
-        <v>-0.3328328872988425</v>
+        <v>-0.06857399511914825</v>
       </c>
       <c r="I11">
-        <v>-0.38036726698641</v>
+        <v>-0.0783699405017239</v>
       </c>
       <c r="J11">
-        <v>-0.4278963767900396</v>
+        <v>-0.08816575003172242</v>
       </c>
       <c r="K11">
-        <v>-0.4754195582069782</v>
+        <v>-0.09796140672832226</v>
       </c>
       <c r="L11">
-        <v>-0.5229361528166094</v>
+        <v>-0.1077568936109669</v>
       </c>
       <c r="M11">
-        <v>-0.5704455022895751</v>
+        <v>-0.1175521936993941</v>
       </c>
       <c r="N11">
-        <v>-0.6179469483968967</v>
+        <v>-0.1273472900136655</v>
       </c>
       <c r="O11">
-        <v>-0.6654398330190943</v>
+        <v>-0.137142165574196</v>
       </c>
       <c r="P11">
-        <v>-0.7129234981553051</v>
+        <v>-0.1469368034017831</v>
       </c>
       <c r="Q11">
-        <v>-0.7603972859323996</v>
+        <v>-0.1567311865176363</v>
       </c>
       <c r="R11">
-        <v>-0.8078605386140972</v>
+        <v>-0.166525297943407</v>
       </c>
       <c r="S11">
-        <v>-0.8553125986100768</v>
+        <v>-0.1763191207012172</v>
       </c>
       <c r="T11">
-        <v>-0.9027528084850898</v>
+        <v>-0.1861126378136895</v>
       </c>
       <c r="U11">
-        <v>-0.9501805109680678</v>
+        <v>-0.1959058323039761</v>
       </c>
       <c r="V11">
-        <v>-0.9975950489612283</v>
+        <v>-0.2056986871957888</v>
       </c>
       <c r="W11">
-        <v>-1.04499576554918</v>
+        <v>-0.2154911855134277</v>
       </c>
       <c r="X11">
-        <v>-1.092382004008021</v>
+        <v>-0.2252833102818115</v>
       </c>
       <c r="Y11">
-        <v>-1.139753107814445</v>
+        <v>-0.235075044526506</v>
       </c>
       <c r="Z11">
-        <v>-1.187108420654827</v>
+        <v>-0.2448663712737542</v>
       </c>
       <c r="AA11">
-        <v>-1.234447286434324</v>
+        <v>-0.2546572735505052</v>
       </c>
       <c r="AB11">
-        <v>-1.281769049285962</v>
+        <v>-0.2644477343844442</v>
       </c>
       <c r="AC11">
-        <v>-1.329073053579724</v>
+        <v>-0.2742377368040217</v>
       </c>
       <c r="AD11">
-        <v>-1.376358643931632</v>
+        <v>-0.2840272638384827</v>
       </c>
       <c r="AE11">
-        <v>-1.423625165212827</v>
+        <v>-0.2938162985178961</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1422,94 +1422,94 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.01443375672974064</v>
       </c>
       <c r="C12">
-        <v>2.086950049354949e-22</v>
+        <v>-0.0288674884388798</v>
       </c>
       <c r="D12">
-        <v>6.956458319609908e-22</v>
+        <v>-0.04330117010685935</v>
       </c>
       <c r="E12">
-        <v>1.739102723929512e-21</v>
+        <v>-0.05773477671320795</v>
       </c>
       <c r="F12">
-        <v>5.008604798235299e-21</v>
+        <v>-0.07216828323758433</v>
       </c>
       <c r="G12">
-        <v>1.161712652524342e-20</v>
+        <v>-0.08660166465982075</v>
       </c>
       <c r="H12">
-        <v>2.267757542548202e-20</v>
+        <v>-0.1010348959599663</v>
       </c>
       <c r="I12">
-        <v>3.930276975501565e-20</v>
+        <v>-0.1154679521183302</v>
       </c>
       <c r="J12">
-        <v>6.260541619260844e-20</v>
+        <v>-0.1299008081155255</v>
       </c>
       <c r="K12">
-        <v>9.14720074764791e-20</v>
+        <v>-0.1443334389325121</v>
       </c>
       <c r="L12">
-        <v>1.259019648099208e-19</v>
+        <v>-0.1587658195506403</v>
       </c>
       <c r="M12">
-        <v>1.670076378729068e-19</v>
+        <v>-0.173197924951694</v>
       </c>
       <c r="N12">
-        <v>2.147882024660027e-19</v>
+        <v>-0.1876297301179343</v>
       </c>
       <c r="O12">
-        <v>2.692427005532161e-19</v>
+        <v>-0.2020612100321427</v>
       </c>
       <c r="P12">
-        <v>3.303700402812052e-19</v>
+        <v>-0.2164923396776645</v>
       </c>
       <c r="Q12">
-        <v>3.98168996001171e-19</v>
+        <v>-0.2309230940384522</v>
       </c>
       <c r="R12">
-        <v>4.77090368398724e-19</v>
+        <v>-0.2453534480991089</v>
       </c>
       <c r="S12">
-        <v>5.693586550940708e-19</v>
+        <v>-0.2597833768449316</v>
       </c>
       <c r="T12">
-        <v>6.816502461971127e-19</v>
+        <v>-0.2742128552619544</v>
       </c>
       <c r="U12">
-        <v>8.184150502829022e-19</v>
+        <v>-0.2886418583369922</v>
       </c>
       <c r="V12">
-        <v>9.841024852203007e-19</v>
+        <v>-0.3030703610576839</v>
       </c>
       <c r="W12">
-        <v>1.187613549063118e-18</v>
+        <v>-0.3174983384125358</v>
       </c>
       <c r="X12">
-        <v>1.444526721631101e-18</v>
+        <v>-0.3319257653909648</v>
       </c>
       <c r="Y12">
-        <v>1.772645492044494e-18</v>
+        <v>-0.346352616983342</v>
       </c>
       <c r="Z12">
-        <v>2.18977192169814e-18</v>
+        <v>-0.3607788681810356</v>
       </c>
       <c r="AA12">
-        <v>2.713706287316865e-18</v>
+        <v>-0.3752044939764548</v>
       </c>
       <c r="AB12">
-        <v>3.362246724046636e-18</v>
+        <v>-0.3896294693630931</v>
       </c>
       <c r="AC12">
-        <v>4.144284548378083e-18</v>
+        <v>-0.4040537693355713</v>
       </c>
       <c r="AD12">
-        <v>5.073160560184835e-18</v>
+        <v>-0.4184773688896807</v>
       </c>
       <c r="AE12">
-        <v>6.162212615125238e-18</v>
+        <v>-0.4329002430224272</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1517,94 +1517,94 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.0475528258147577</v>
+        <v>-0.01657536492280455</v>
       </c>
       <c r="C13">
-        <v>0.09510499279818388</v>
+        <v>-0.03315070111257668</v>
       </c>
       <c r="D13">
-        <v>0.142655842128075</v>
+        <v>-0.04972597983633376</v>
       </c>
       <c r="E13">
-        <v>0.1902047150004832</v>
+        <v>-0.06630117236119278</v>
       </c>
       <c r="F13">
-        <v>0.2377509526388439</v>
+        <v>-0.08287624995442017</v>
       </c>
       <c r="G13">
-        <v>0.2852938963031029</v>
+        <v>-0.09945118388348154</v>
       </c>
       <c r="H13">
-        <v>0.3328328872988431</v>
+        <v>-0.1160259454160916</v>
       </c>
       <c r="I13">
-        <v>0.3803672669864107</v>
+        <v>-0.1326005058202638</v>
       </c>
       <c r="J13">
-        <v>0.4278963767900401</v>
+        <v>-0.1491748363643605</v>
       </c>
       <c r="K13">
-        <v>0.4754195582069788</v>
+        <v>-0.1657489083171421</v>
       </c>
       <c r="L13">
-        <v>0.5229361528166101</v>
+        <v>-0.1823226929478177</v>
       </c>
       <c r="M13">
-        <v>0.5704455022895758</v>
+        <v>-0.1988961615260942</v>
       </c>
       <c r="N13">
-        <v>0.6179469483968973</v>
+        <v>-0.2154692853222265</v>
       </c>
       <c r="O13">
-        <v>0.6654398330190949</v>
+        <v>-0.2320420356070671</v>
       </c>
       <c r="P13">
-        <v>0.7129234981553058</v>
+        <v>-0.2486143836521159</v>
       </c>
       <c r="Q13">
-        <v>0.7603972859324007</v>
+        <v>-0.2651863007295703</v>
       </c>
       <c r="R13">
-        <v>0.8078605386140986</v>
+        <v>-0.2817577581123744</v>
       </c>
       <c r="S13">
-        <v>0.8553125986100788</v>
+        <v>-0.2983287270742695</v>
       </c>
       <c r="T13">
-        <v>0.9027528084850922</v>
+        <v>-0.3148991788898435</v>
       </c>
       <c r="U13">
-        <v>0.9501805109680707</v>
+        <v>-0.3314690848345808</v>
       </c>
       <c r="V13">
-        <v>0.9975950489612321</v>
+        <v>-0.3480384161849119</v>
       </c>
       <c r="W13">
-        <v>1.044995765549185</v>
+        <v>-0.3646071442182635</v>
       </c>
       <c r="X13">
-        <v>1.092382004008028</v>
+        <v>-0.3811752402131079</v>
       </c>
       <c r="Y13">
-        <v>1.139753107814454</v>
+        <v>-0.3977426754490134</v>
       </c>
       <c r="Z13">
-        <v>1.187108420654837</v>
+        <v>-0.4143094212066933</v>
       </c>
       <c r="AA13">
-        <v>1.234447286434336</v>
+        <v>-0.4308754487680564</v>
       </c>
       <c r="AB13">
-        <v>1.281769049285976</v>
+        <v>-0.4474407294162565</v>
       </c>
       <c r="AC13">
-        <v>1.329073053579739</v>
+        <v>-0.4640052344357419</v>
       </c>
       <c r="AD13">
-        <v>1.376358643931648</v>
+        <v>-0.4805689351123058</v>
       </c>
       <c r="AE13">
-        <v>1.423625165212844</v>
+        <v>-0.4971318027331351</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1612,94 +1612,94 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0.02938926261462357</v>
+        <v>-0.01585094193825256</v>
       </c>
       <c r="C14">
-        <v>0.0587781180490914</v>
+        <v>-0.03170185639924408</v>
       </c>
       <c r="D14">
-        <v>0.08816615912888914</v>
+        <v>-0.04755271590576116</v>
       </c>
       <c r="E14">
-        <v>0.1175529786907851</v>
+        <v>-0.06340349298068564</v>
       </c>
       <c r="F14">
-        <v>0.1469381695884714</v>
+        <v>-0.0792541601470423</v>
       </c>
       <c r="G14">
-        <v>0.1763213246982047</v>
+        <v>-0.09510468992804635</v>
       </c>
       <c r="H14">
-        <v>0.2057020369244472</v>
+        <v>-0.1109550548471513</v>
       </c>
       <c r="I14">
-        <v>0.2350798992055064</v>
+        <v>-0.1268052274280963</v>
       </c>
       <c r="J14">
-        <v>0.2644545045191752</v>
+        <v>-0.1426551801949541</v>
       </c>
       <c r="K14">
-        <v>0.2938254458883708</v>
+        <v>-0.1585048856721782</v>
       </c>
       <c r="L14">
-        <v>0.323192316386773</v>
+        <v>-0.174354316384651</v>
       </c>
       <c r="M14">
-        <v>0.3525547091444627</v>
+        <v>-0.1902034448577311</v>
       </c>
       <c r="N14">
-        <v>0.3819122173535589</v>
+        <v>-0.2060522436173012</v>
       </c>
       <c r="O14">
-        <v>0.4112644342738542</v>
+        <v>-0.2219006851898153</v>
       </c>
       <c r="P14">
-        <v>0.4406109532384509</v>
+        <v>-0.2377487421023467</v>
       </c>
       <c r="Q14">
-        <v>0.4699513676593948</v>
+        <v>-0.2535963868826355</v>
       </c>
       <c r="R14">
-        <v>0.4992852710333085</v>
+        <v>-0.269443592059136</v>
       </c>
       <c r="S14">
-        <v>0.5286122569470235</v>
+        <v>-0.2852903301610649</v>
       </c>
       <c r="T14">
-        <v>0.5579319190832103</v>
+        <v>-0.3011365737184485</v>
       </c>
       <c r="U14">
-        <v>0.5872438512260085</v>
+        <v>-0.3169822952621703</v>
       </c>
       <c r="V14">
-        <v>0.6165476472666553</v>
+        <v>-0.3328274673240186</v>
       </c>
       <c r="W14">
-        <v>0.6458429012091107</v>
+        <v>-0.3486720624367344</v>
       </c>
       <c r="X14">
-        <v>0.6751292071756833</v>
+        <v>-0.3645160531340588</v>
       </c>
       <c r="Y14">
-        <v>0.7044061594126531</v>
+        <v>-0.3803594119507807</v>
       </c>
       <c r="Z14">
-        <v>0.7336733522958939</v>
+        <v>-0.396202111422784</v>
       </c>
       <c r="AA14">
-        <v>0.7629303803364927</v>
+        <v>-0.412044124087096</v>
       </c>
       <c r="AB14">
-        <v>0.7921768381863674</v>
+        <v>-0.427885422481934</v>
       </c>
       <c r="AC14">
-        <v>0.8214123206438833</v>
+        <v>-0.443725979146754</v>
       </c>
       <c r="AD14">
-        <v>0.8506364226594662</v>
+        <v>-0.4595657666222978</v>
       </c>
       <c r="AE14">
-        <v>0.8798487393412149</v>
+        <v>-0.4754047574506401</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1707,94 +1707,94 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>-0.02938926261462368</v>
+        <v>-0.0123857470912899</v>
       </c>
       <c r="C15">
-        <v>-0.05877811804909162</v>
+        <v>-0.02477147271215821</v>
       </c>
       <c r="D15">
-        <v>-0.08816615912888948</v>
+        <v>-0.03715715539222057</v>
       </c>
       <c r="E15">
-        <v>-0.1175529786907856</v>
+        <v>-0.04954277366116704</v>
       </c>
       <c r="F15">
-        <v>-0.146938169588472</v>
+        <v>-0.06192830604879933</v>
       </c>
       <c r="G15">
-        <v>-0.1763213246982054</v>
+        <v>-0.07431373108506806</v>
       </c>
       <c r="H15">
-        <v>-0.205702036924448</v>
+        <v>-0.08669902730010989</v>
       </c>
       <c r="I15">
-        <v>-0.2350798992055073</v>
+        <v>-0.09908417322428484</v>
       </c>
       <c r="J15">
-        <v>-0.2644545045191761</v>
+        <v>-0.1114691473882134</v>
       </c>
       <c r="K15">
-        <v>-0.2938254458883717</v>
+        <v>-0.1238539283228138</v>
       </c>
       <c r="L15">
-        <v>-0.3231923163867739</v>
+        <v>-0.1362384945593395</v>
       </c>
       <c r="M15">
-        <v>-0.3525547091444636</v>
+        <v>-0.1486228246294156</v>
       </c>
       <c r="N15">
-        <v>-0.3819122173535596</v>
+        <v>-0.1610068970650771</v>
       </c>
       <c r="O15">
-        <v>-0.411264434273855</v>
+        <v>-0.1733906903988053</v>
       </c>
       <c r="P15">
-        <v>-0.4406109532384517</v>
+        <v>-0.1857741831635653</v>
       </c>
       <c r="Q15">
-        <v>-0.4699513676593956</v>
+        <v>-0.1981573538928434</v>
       </c>
       <c r="R15">
-        <v>-0.4992852710333093</v>
+        <v>-0.2105401811206843</v>
       </c>
       <c r="S15">
-        <v>-0.528612256947024</v>
+        <v>-0.2229226433817276</v>
       </c>
       <c r="T15">
-        <v>-0.5579319190832107</v>
+        <v>-0.235304719211246</v>
       </c>
       <c r="U15">
-        <v>-0.587243851226009</v>
+        <v>-0.2476863871451821</v>
       </c>
       <c r="V15">
-        <v>-0.6165476472666558</v>
+        <v>-0.2600676257201853</v>
       </c>
       <c r="W15">
-        <v>-0.6458429012091111</v>
+        <v>-0.2724484134736494</v>
       </c>
       <c r="X15">
-        <v>-0.6751292071756837</v>
+        <v>-0.2848287289437499</v>
       </c>
       <c r="Y15">
-        <v>-0.7044061594126539</v>
+        <v>-0.2972085506694806</v>
       </c>
       <c r="Z15">
-        <v>-0.733673352295895</v>
+        <v>-0.3095878571906915</v>
       </c>
       <c r="AA15">
-        <v>-0.7629303803364941</v>
+        <v>-0.3219666270481256</v>
       </c>
       <c r="AB15">
-        <v>-0.792176838186369</v>
+        <v>-0.334344838783456</v>
       </c>
       <c r="AC15">
-        <v>-0.821412320643885</v>
+        <v>-0.3467224709393238</v>
       </c>
       <c r="AD15">
-        <v>-0.8506364226594681</v>
+        <v>-0.3590995020593742</v>
       </c>
       <c r="AE15">
-        <v>-0.8798487393412175</v>
+        <v>-0.3714759106882949</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1802,94 +1802,94 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>-0.04755282581475766</v>
+        <v>-0.006778944051263335</v>
       </c>
       <c r="C16">
-        <v>-0.0951049927981838</v>
+        <v>-0.01355787635137548</v>
       </c>
       <c r="D16">
-        <v>-0.1426558421280748</v>
+        <v>-0.0203367851492056</v>
       </c>
       <c r="E16">
-        <v>-0.1902047150004829</v>
+        <v>-0.02711565869366363</v>
       </c>
       <c r="F16">
-        <v>-0.2377509526388434</v>
+        <v>-0.03389448523372059</v>
       </c>
       <c r="G16">
-        <v>-0.2852938963031022</v>
+        <v>-0.04067325301842899</v>
       </c>
       <c r="H16">
-        <v>-0.3328328872988423</v>
+        <v>-0.04745195029694319</v>
       </c>
       <c r="I16">
-        <v>-0.3803672669864098</v>
+        <v>-0.0542305653185398</v>
       </c>
       <c r="J16">
-        <v>-0.4278963767900391</v>
+        <v>-0.06100908633263796</v>
       </c>
       <c r="K16">
-        <v>-0.4754195582069777</v>
+        <v>-0.0677875015888198</v>
       </c>
       <c r="L16">
-        <v>-0.522936152816609</v>
+        <v>-0.07456579933685079</v>
       </c>
       <c r="M16">
-        <v>-0.5704455022895749</v>
+        <v>-0.08134396782670009</v>
       </c>
       <c r="N16">
-        <v>-0.6179469483968967</v>
+        <v>-0.08812199530856094</v>
       </c>
       <c r="O16">
-        <v>-0.6654398330190945</v>
+        <v>-0.09489987003287098</v>
       </c>
       <c r="P16">
-        <v>-0.7129234981553055</v>
+        <v>-0.1016775802503327</v>
       </c>
       <c r="Q16">
-        <v>-0.7603972859324007</v>
+        <v>-0.1084551142119337</v>
       </c>
       <c r="R16">
-        <v>-0.8078605386140988</v>
+        <v>-0.1152324601689671</v>
       </c>
       <c r="S16">
-        <v>-0.8553125986100792</v>
+        <v>-0.1220096063730521</v>
       </c>
       <c r="T16">
-        <v>-0.9027528084850929</v>
+        <v>-0.128786541076154</v>
       </c>
       <c r="U16">
-        <v>-0.9501805109680715</v>
+        <v>-0.1355632525306047</v>
       </c>
       <c r="V16">
-        <v>-0.9975950489612332</v>
+        <v>-0.1423397289891232</v>
       </c>
       <c r="W16">
-        <v>-1.044995765549186</v>
+        <v>-0.1491159587048358</v>
       </c>
       <c r="X16">
-        <v>-1.092382004008029</v>
+        <v>-0.1558919299312966</v>
       </c>
       <c r="Y16">
-        <v>-1.139753107814454</v>
+        <v>-0.1626676309225077</v>
       </c>
       <c r="Z16">
-        <v>-1.187108420654837</v>
+        <v>-0.1694430499329396</v>
       </c>
       <c r="AA16">
-        <v>-1.234447286434335</v>
+        <v>-0.1762181752175518</v>
       </c>
       <c r="AB16">
-        <v>-1.281769049285974</v>
+        <v>-0.1829929950318128</v>
       </c>
       <c r="AC16">
-        <v>-1.329073053579736</v>
+        <v>-0.1897674976317208</v>
       </c>
       <c r="AD16">
-        <v>-1.376358643931644</v>
+        <v>-0.1965416712738237</v>
       </c>
       <c r="AE16">
-        <v>-1.42362516521284</v>
+        <v>-0.2033155042152396</v>
       </c>
     </row>
     <row r="17" spans="1:31">

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:51">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -436,8 +436,98 @@
       <c r="U1" s="1">
         <v>20</v>
       </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:51">
       <c r="A2">
         <v>0</v>
       </c>
@@ -501,654 +591,3194 @@
       <c r="U2">
         <v>0</v>
       </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:51">
       <c r="A3">
-        <v>0.5877852522924731</v>
+        <v>0.045125</v>
       </c>
       <c r="B3">
-        <v>0.7443791868052947</v>
+        <v>-0.1213750000000002</v>
       </c>
       <c r="C3">
-        <v>0.8298912341077125</v>
+        <v>5.859125000000014</v>
       </c>
       <c r="D3">
-        <v>0.8361557202942427</v>
+        <v>-429.1333750000003</v>
       </c>
       <c r="E3">
-        <v>0.7625744401645853</v>
+        <v>38384.90112499993</v>
       </c>
       <c r="F3">
-        <v>0.6161737807371908</v>
+        <v>-3828738.037374982</v>
       </c>
       <c r="G3">
-        <v>0.4109337609935257</v>
+        <v>408548604.0511218</v>
       </c>
       <c r="H3">
-        <v>0.1664530588561854</v>
+        <v>-45637838846.83287</v>
       </c>
       <c r="I3">
-        <v>-0.09392249601907382</v>
+        <v>5269833620583.235</v>
       </c>
       <c r="J3">
-        <v>-0.3453292506015681</v>
+        <v>-623968667024664.9</v>
       </c>
       <c r="K3">
-        <v>-0.5637599960789952</v>
+        <v>7.534650251267075e+16</v>
       </c>
       <c r="L3">
-        <v>-0.7283564523052553</v>
+        <v>-9.243370435665914e+18</v>
       </c>
       <c r="M3">
-        <v>-0.8234010563176866</v>
+        <v>1.148794995655593e+21</v>
       </c>
       <c r="N3">
-        <v>-0.8398178560449205</v>
+        <v>-1.443368802620032e+23</v>
       </c>
       <c r="O3">
-        <v>-0.7760391866096312</v>
+        <v>1.830296533441728e+25</v>
       </c>
       <c r="P3">
-        <v>-0.6381553690035773</v>
+        <v>-2.339440625266768e+27</v>
       </c>
       <c r="Q3">
-        <v>-0.4393331361834889</v>
+        <v>3.010904051054394e+29</v>
       </c>
       <c r="R3">
-        <v>-0.1985583219538989</v>
+        <v>-3.898589718654284e+31</v>
       </c>
       <c r="S3">
-        <v>0.06117712483500198</v>
+        <v>5.075039457722145e+33</v>
       </c>
       <c r="T3">
-        <v>0.3150706760356584</v>
+        <v>-6.638014513191269e+35</v>
       </c>
       <c r="U3">
-        <v>0.5388776548895109</v>
+        <v>8.71945066193081e+37</v>
+      </c>
+      <c r="V3">
+        <v>-1.149765546671499e+40</v>
+      </c>
+      <c r="W3">
+        <v>1.521393673224099e+42</v>
+      </c>
+      <c r="X3">
+        <v>-2.019529282776632e+44</v>
+      </c>
+      <c r="Y3">
+        <v>2.688540248640553e+46</v>
+      </c>
+      <c r="Z3">
+        <v>-3.588698642759823e+48</v>
+      </c>
+      <c r="AA3">
+        <v>4.801976182227678e+50</v>
+      </c>
+      <c r="AB3">
+        <v>-6.439979212878506e+52</v>
+      </c>
+      <c r="AC3">
+        <v>8.654821334429257e+54</v>
+      </c>
+      <c r="AD3">
+        <v>-1.165403200102438e+57</v>
+      </c>
+      <c r="AE3">
+        <v>1.57210133721051e+59</v>
+      </c>
+      <c r="AF3">
+        <v>-2.124312865134791e+61</v>
+      </c>
+      <c r="AG3">
+        <v>2.875029301811015e+63</v>
+      </c>
+      <c r="AH3">
+        <v>-3.896802584623213e+65</v>
+      </c>
+      <c r="AI3">
+        <v>5.289042479566959e+67</v>
+      </c>
+      <c r="AJ3">
+        <v>-7.188059710664562e+69</v>
+      </c>
+      <c r="AK3">
+        <v>9.780895049105347e+71</v>
+      </c>
+      <c r="AL3">
+        <v>-1.332437092619037e+74</v>
+      </c>
+      <c r="AM3">
+        <v>1.817135015764713e+76</v>
+      </c>
+      <c r="AN3">
+        <v>-2.480694437946984e+78</v>
+      </c>
+      <c r="AO3">
+        <v>3.389846355895637e+80</v>
+      </c>
+      <c r="AP3">
+        <v>-4.63643493800372e+82</v>
+      </c>
+      <c r="AQ3">
+        <v>6.346934454396618e+84</v>
+      </c>
+      <c r="AR3">
+        <v>-8.695593215243772e+86</v>
+      </c>
+      <c r="AS3">
+        <v>1.19225932591052e+89</v>
+      </c>
+      <c r="AT3">
+        <v>-1.63591483346968e+91</v>
+      </c>
+      <c r="AU3">
+        <v>2.246220237739278e+93</v>
+      </c>
+      <c r="AV3">
+        <v>-3.086241580732294e+95</v>
+      </c>
+      <c r="AW3">
+        <v>4.243054804460947e+97</v>
+      </c>
+      <c r="AX3">
+        <v>-5.83693149809081e+99</v>
+      </c>
+      <c r="AY3">
+        <v>8.034053261352285e+101</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:51">
       <c r="A4">
-        <v>0.9510565162951536</v>
+        <v>0.08099999999999999</v>
       </c>
       <c r="B4">
-        <v>1.204430824768974</v>
+        <v>-0.07200000000000006</v>
       </c>
       <c r="C4">
-        <v>1.342792223751875</v>
+        <v>-0.5309999999999824</v>
       </c>
       <c r="D4">
-        <v>1.352928375323735</v>
+        <v>231.9839999999974</v>
       </c>
       <c r="E4">
-        <v>1.233871363138222</v>
+        <v>-31728.44699999962</v>
       </c>
       <c r="F4">
-        <v>0.9969901202092997</v>
+        <v>3904870.175999945</v>
       </c>
       <c r="G4">
-        <v>0.6649047924123503</v>
+        <v>-473424036.1469923</v>
       </c>
       <c r="H4">
-        <v>0.269326706760695</v>
+        <v>57655373608.58292</v>
       </c>
       <c r="I4">
-        <v>-0.1519697908670877</v>
+        <v>-7086831983963.48</v>
       </c>
       <c r="J4">
-        <v>-0.5587544647828673</v>
+        <v>879832379293466.4</v>
       </c>
       <c r="K4">
-        <v>-0.9121828351533222</v>
+        <v>-1.102705341234996e+17</v>
       </c>
       <c r="L4">
-        <v>-1.178505495755195</v>
+        <v>1.393984476837478e+19</v>
       </c>
       <c r="M4">
-        <v>-1.332290895494584</v>
+        <v>-1.775846498237425e+21</v>
       </c>
       <c r="N4">
-        <v>-1.358853835439747</v>
+        <v>2.277925697520197e+23</v>
       </c>
       <c r="O4">
-        <v>-1.255657780536204</v>
+        <v>-2.93993719093839e+25</v>
       </c>
       <c r="P4">
-        <v>-1.032557077151017</v>
+        <v>3.815218452836113e+27</v>
       </c>
       <c r="Q4">
-        <v>-0.710855946728971</v>
+        <v>-4.975530074940931e+29</v>
       </c>
       <c r="R4">
-        <v>-0.3212741136705544</v>
+        <v>6.517577069636809e+31</v>
       </c>
       <c r="S4">
-        <v>0.0989866673170261</v>
+        <v>-8.571879865993423e+33</v>
       </c>
       <c r="T4">
-        <v>0.5097950626841006</v>
+        <v>1.131485557400748e+36</v>
       </c>
       <c r="U4">
-        <v>0.8719223613890644</v>
+        <v>-1.498528834670763e+38</v>
+      </c>
+      <c r="V4">
+        <v>1.990680514057412e+40</v>
+      </c>
+      <c r="W4">
+        <v>-2.651857466873417e+42</v>
+      </c>
+      <c r="X4">
+        <v>3.541727472400646e+44</v>
+      </c>
+      <c r="Y4">
+        <v>-4.741451171221426e+46</v>
+      </c>
+      <c r="Z4">
+        <v>6.361544406446297e+48</v>
+      </c>
+      <c r="AA4">
+        <v>-8.552652097731685e+50</v>
+      </c>
+      <c r="AB4">
+        <v>1.152032245286813e+53</v>
+      </c>
+      <c r="AC4">
+        <v>-1.554528073568107e+55</v>
+      </c>
+      <c r="AD4">
+        <v>2.101126792644856e+57</v>
+      </c>
+      <c r="AE4">
+        <v>-2.844329081687344e+59</v>
+      </c>
+      <c r="AF4">
+        <v>3.856020850973284e+61</v>
+      </c>
+      <c r="AG4">
+        <v>-5.234706957338933e+63</v>
+      </c>
+      <c r="AH4">
+        <v>7.115467147946919e+65</v>
+      </c>
+      <c r="AI4">
+        <v>-9.68366570896154e+67</v>
+      </c>
+      <c r="AJ4">
+        <v>1.319383932191142e+70</v>
+      </c>
+      <c r="AK4">
+        <v>-1.799573110496581e+72</v>
+      </c>
+      <c r="AL4">
+        <v>2.45701905522744e+74</v>
+      </c>
+      <c r="AM4">
+        <v>-3.357869918391519e+76</v>
+      </c>
+      <c r="AN4">
+        <v>4.593172118984233e+78</v>
+      </c>
+      <c r="AO4">
+        <v>-6.288307106446023e+80</v>
+      </c>
+      <c r="AP4">
+        <v>8.616024951193346e+82</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.181445205738872e+85</v>
+      </c>
+      <c r="AR4">
+        <v>1.621197972744446e+87</v>
+      </c>
+      <c r="AS4">
+        <v>-2.2261673924013e+89</v>
+      </c>
+      <c r="AT4">
+        <v>3.058886334008593e+91</v>
+      </c>
+      <c r="AU4">
+        <v>-4.205697238328182e+93</v>
+      </c>
+      <c r="AV4">
+        <v>5.785861999922541e+95</v>
+      </c>
+      <c r="AW4">
+        <v>-7.96417155312839e+97</v>
+      </c>
+      <c r="AX4">
+        <v>1.096840421713657e+100</v>
+      </c>
+      <c r="AY4">
+        <v>-1.511350340450864e+102</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:51">
       <c r="A5">
-        <v>0.9510565162951535</v>
+        <v>0.108375</v>
       </c>
       <c r="B5">
-        <v>1.204430824768974</v>
+        <v>-0.0311249999999994</v>
       </c>
       <c r="C5">
-        <v>1.342792223751875</v>
+        <v>-0.449625000000052</v>
       </c>
       <c r="D5">
-        <v>1.352928375323735</v>
+        <v>-1.147124999994166</v>
       </c>
       <c r="E5">
-        <v>1.233871363138222</v>
+        <v>8395.956374999298</v>
       </c>
       <c r="F5">
-        <v>0.9969901202093001</v>
+        <v>-1730007.859124911</v>
       </c>
       <c r="G5">
-        <v>0.6649047924123508</v>
+        <v>272551283.4063634</v>
       </c>
       <c r="H5">
-        <v>0.2693267067606948</v>
+        <v>-39124084914.24557</v>
       </c>
       <c r="I5">
-        <v>-0.1519697908670885</v>
+        <v>5391605151350.969</v>
       </c>
       <c r="J5">
-        <v>-0.5587544647828678</v>
+        <v>-728513399779251.2</v>
       </c>
       <c r="K5">
-        <v>-0.9121828351533221</v>
+        <v>9.748092004591518e+16</v>
       </c>
       <c r="L5">
-        <v>-1.178505495755195</v>
+        <v>-1.298350831392616e+19</v>
       </c>
       <c r="M5">
-        <v>-1.332290895494582</v>
+        <v>1.726128746571303e+21</v>
       </c>
       <c r="N5">
-        <v>-1.358853835439747</v>
+        <v>-2.294316717724624e+23</v>
       </c>
       <c r="O5">
-        <v>-1.255657780536204</v>
+        <v>3.051620721416584e+25</v>
       </c>
       <c r="P5">
-        <v>-1.032557077151019</v>
+        <v>-4.063812573829747e+27</v>
       </c>
       <c r="Q5">
-        <v>-0.7108559467289721</v>
+        <v>5.419894668455163e+29</v>
       </c>
       <c r="R5">
-        <v>-0.3212741136705548</v>
+        <v>-7.240503254276688e+31</v>
       </c>
       <c r="S5">
-        <v>0.0989866673170261</v>
+        <v>9.689381168719667e+33</v>
       </c>
       <c r="T5">
-        <v>0.5097950626841004</v>
+        <v>-1.298905946705592e+36</v>
       </c>
       <c r="U5">
-        <v>0.8719223613890638</v>
+        <v>1.744231262539192e+38</v>
+      </c>
+      <c r="V5">
+        <v>-2.346153786430432e+40</v>
+      </c>
+      <c r="W5">
+        <v>3.160901642444399e+42</v>
+      </c>
+      <c r="X5">
+        <v>-4.265212734689094e+44</v>
+      </c>
+      <c r="Y5">
+        <v>5.763911860633165e+46</v>
+      </c>
+      <c r="Z5">
+        <v>-7.800315685952398e+48</v>
+      </c>
+      <c r="AA5">
+        <v>1.057052975915174e+51</v>
+      </c>
+      <c r="AB5">
+        <v>-1.434310490901914e+53</v>
+      </c>
+      <c r="AC5">
+        <v>1.948607712034046e+55</v>
+      </c>
+      <c r="AD5">
+        <v>-2.650418410017846e+57</v>
+      </c>
+      <c r="AE5">
+        <v>3.609011458543402e+59</v>
+      </c>
+      <c r="AF5">
+        <v>-4.91951156421466e+61</v>
+      </c>
+      <c r="AG5">
+        <v>6.712631475674442e+63</v>
+      </c>
+      <c r="AH5">
+        <v>-9.168092348972429e+65</v>
+      </c>
+      <c r="AI5">
+        <v>1.253313772141396e+68</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.714808458433189e+70</v>
+      </c>
+      <c r="AK5">
+        <v>2.348159984736831e+72</v>
+      </c>
+      <c r="AL5">
+        <v>-3.217942176945854e+74</v>
+      </c>
+      <c r="AM5">
+        <v>4.413167423167766e+76</v>
+      </c>
+      <c r="AN5">
+        <v>-6.056590034688847e+78</v>
+      </c>
+      <c r="AO5">
+        <v>8.317568349362774e+80</v>
+      </c>
+      <c r="AP5">
+        <v>-1.142985234606301e+83</v>
+      </c>
+      <c r="AQ5">
+        <v>1.571619023940191e+85</v>
+      </c>
+      <c r="AR5">
+        <v>-2.162237778477741e+87</v>
+      </c>
+      <c r="AS5">
+        <v>2.976438671658806e+89</v>
+      </c>
+      <c r="AT5">
+        <v>-4.099361336700897e+91</v>
+      </c>
+      <c r="AU5">
+        <v>5.648723711500208e+93</v>
+      </c>
+      <c r="AV5">
+        <v>-7.78733820511894e+95</v>
+      </c>
+      <c r="AW5">
+        <v>1.074045274039096e+98</v>
+      </c>
+      <c r="AX5">
+        <v>-1.481978202876574e+100</v>
+      </c>
+      <c r="AY5">
+        <v>2.045681742858737e+102</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:51">
       <c r="A6">
-        <v>0.587785252292473</v>
+        <v>0.128</v>
       </c>
       <c r="B6">
-        <v>0.7443791868052947</v>
+        <v>0.00199999999999978</v>
       </c>
       <c r="C6">
-        <v>0.8298912341077126</v>
+        <v>-0.3759999999999567</v>
       </c>
       <c r="D6">
-        <v>0.8361557202942427</v>
+        <v>-1.006000000005579</v>
       </c>
       <c r="E6">
-        <v>0.762574440164585</v>
+        <v>-1.887999999277985</v>
       </c>
       <c r="F6">
-        <v>0.6161737807371901</v>
+        <v>302327.857999904</v>
       </c>
       <c r="G6">
-        <v>0.4109337609935252</v>
+        <v>-83443327.28798702</v>
       </c>
       <c r="H6">
-        <v>0.1664530588561854</v>
+        <v>16044397464.67223</v>
       </c>
       <c r="I6">
-        <v>-0.09392249601907332</v>
+        <v>-2667061440192.013</v>
       </c>
       <c r="J6">
-        <v>-0.3453292506015675</v>
+        <v>411566889220948.6</v>
       </c>
       <c r="K6">
-        <v>-0.5637599960789947</v>
+        <v>-6.08564776573857e+16</v>
       </c>
       <c r="L6">
-        <v>-0.728356452305255</v>
+        <v>8.765173162639623e+18</v>
       </c>
       <c r="M6">
-        <v>-0.8234010563176861</v>
+        <v>-1.241254696784383e+21</v>
       </c>
       <c r="N6">
-        <v>-0.8398178560449197</v>
+        <v>1.738106613268706e+23</v>
       </c>
       <c r="O6">
-        <v>-0.7760391866096301</v>
+        <v>-2.415361421589141e+25</v>
       </c>
       <c r="P6">
-        <v>-0.6381553690035768</v>
+        <v>3.339034405070782e+27</v>
       </c>
       <c r="Q6">
-        <v>-0.4393331361834898</v>
+        <v>-4.599423723990895e+29</v>
       </c>
       <c r="R6">
-        <v>-0.1985583219539009</v>
+        <v>6.320119819787722e+31</v>
       </c>
       <c r="S6">
-        <v>0.06117712483499971</v>
+        <v>-8.670388743110967e+33</v>
       </c>
       <c r="T6">
-        <v>0.3150706760356567</v>
+        <v>1.188219980535266e+36</v>
       </c>
       <c r="U6">
-        <v>0.5388776548895102</v>
+        <v>-1.62736503546165e+38</v>
+      </c>
+      <c r="V6">
+        <v>2.228120638913005e+40</v>
+      </c>
+      <c r="W6">
+        <v>-3.050409756339522e+42</v>
+      </c>
+      <c r="X6">
+        <v>4.176547629030032e+44</v>
+      </c>
+      <c r="Y6">
+        <v>-5.719670786508159e+46</v>
+      </c>
+      <c r="Z6">
+        <v>7.835358844029066e+48</v>
+      </c>
+      <c r="AA6">
+        <v>-1.073766487221696e+51</v>
+      </c>
+      <c r="AB6">
+        <v>1.472123514991794e+53</v>
+      </c>
+      <c r="AC6">
+        <v>-2.019184267107182e+55</v>
+      </c>
+      <c r="AD6">
+        <v>2.770854963749902e+57</v>
+      </c>
+      <c r="AE6">
+        <v>-3.804194765743992e+59</v>
+      </c>
+      <c r="AF6">
+        <v>5.225463265332367e+61</v>
+      </c>
+      <c r="AG6">
+        <v>-7.181243784763127e+63</v>
+      </c>
+      <c r="AH6">
+        <v>9.873822686166498e+65</v>
+      </c>
+      <c r="AI6">
+        <v>-1.358245925930795e+68</v>
+      </c>
+      <c r="AJ6">
+        <v>1.869281054505559e+70</v>
+      </c>
+      <c r="AK6">
+        <v>-2.573764857492074e+72</v>
+      </c>
+      <c r="AL6">
+        <v>3.5453218206174e+74</v>
+      </c>
+      <c r="AM6">
+        <v>-4.885726283522662e+76</v>
+      </c>
+      <c r="AN6">
+        <v>6.735707441634926e+78</v>
+      </c>
+      <c r="AO6">
+        <v>-9.289915561644358e+80</v>
+      </c>
+      <c r="AP6">
+        <v>1.281765658767539e+83</v>
+      </c>
+      <c r="AQ6">
+        <v>-1.769162461602982e+85</v>
+      </c>
+      <c r="AR6">
+        <v>2.442772551218834e+87</v>
+      </c>
+      <c r="AS6">
+        <v>-3.374028414036422e+89</v>
+      </c>
+      <c r="AT6">
+        <v>4.66185927620459e+91</v>
+      </c>
+      <c r="AU6">
+        <v>-6.44330704834533e+93</v>
+      </c>
+      <c r="AV6">
+        <v>8.908251525574279e+95</v>
+      </c>
+      <c r="AW6">
+        <v>-1.231983912551765e+98</v>
+      </c>
+      <c r="AX6">
+        <v>1.704282926543395e+100</v>
+      </c>
+      <c r="AY6">
+        <v>-2.358293372275322e+102</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:51">
       <c r="A7">
-        <v>0</v>
+        <v>0.140625</v>
       </c>
       <c r="B7">
-        <v>-6.938893903907228e-17</v>
+        <v>0.02812500000000018</v>
       </c>
       <c r="C7">
-        <v>-2.42861286636753e-16</v>
+        <v>-0.3093750000000188</v>
       </c>
       <c r="D7">
-        <v>-3.781697177629439e-16</v>
+        <v>-0.8718749999966251</v>
       </c>
       <c r="E7">
-        <v>-4.076600168545497e-16</v>
+        <v>-1.659375000559391</v>
       </c>
       <c r="F7">
-        <v>-3.165870343657673e-16</v>
+        <v>-2.671874914712357</v>
       </c>
       <c r="G7">
-        <v>-1.50487261540988e-16</v>
+        <v>10883907.77061263</v>
       </c>
       <c r="H7">
-        <v>6.310056643865636e-17</v>
+        <v>-3765833446.650129</v>
       </c>
       <c r="I7">
-        <v>3.284048380458593e-16</v>
+        <v>855301315453.818</v>
       </c>
       <c r="J7">
-        <v>5.821623565160916e-16</v>
+        <v>-161749446702956.7</v>
       </c>
       <c r="K7">
-        <v>6.974943626142371e-16</v>
+        <v>2.767550477385832e+16</v>
       </c>
       <c r="L7">
-        <v>5.751014898677798e-16</v>
+        <v>-4.454087015997912e+18</v>
       </c>
       <c r="M7">
-        <v>2.206690234186903e-16</v>
+        <v>6.886378569044311e+20</v>
       </c>
       <c r="N7">
-        <v>-1.330756522772286e-16</v>
+        <v>-1.035713609416282e+23</v>
       </c>
       <c r="O7">
-        <v>-2.537490481407598e-16</v>
+        <v>1.527421558082609e+25</v>
       </c>
       <c r="P7">
-        <v>-1.365256174713954e-16</v>
+        <v>-2.220468472235548e+27</v>
       </c>
       <c r="Q7">
-        <v>-6.206168052884896e-17</v>
+        <v>3.193597321640955e+29</v>
       </c>
       <c r="R7">
-        <v>-2.89633810709425e-16</v>
+        <v>-4.556065666923203e+31</v>
       </c>
       <c r="S7">
-        <v>-7.609670941540934e-16</v>
+        <v>6.459395767827449e+33</v>
       </c>
       <c r="T7">
-        <v>-1.101617011062375e-15</v>
+        <v>-9.113655893343936e+35</v>
       </c>
       <c r="U7">
-        <v>-9.469695736707273e-16</v>
+        <v>1.28100189326054e+38</v>
+      </c>
+      <c r="V7">
+        <v>-1.795201895802803e+40</v>
+      </c>
+      <c r="W7">
+        <v>2.509886167711874e+42</v>
+      </c>
+      <c r="X7">
+        <v>-3.502544174096378e+44</v>
+      </c>
+      <c r="Y7">
+        <v>4.88055188446755e+46</v>
+      </c>
+      <c r="Z7">
+        <v>-6.792700004256676e+48</v>
+      </c>
+      <c r="AA7">
+        <v>9.445173783210667e+50</v>
+      </c>
+      <c r="AB7">
+        <v>-1.312370573713777e+53</v>
+      </c>
+      <c r="AC7">
+        <v>1.822428924428103e+55</v>
+      </c>
+      <c r="AD7">
+        <v>-2.529576616498186e+57</v>
+      </c>
+      <c r="AE7">
+        <v>3.509888582589787e+59</v>
+      </c>
+      <c r="AF7">
+        <v>-4.868821542749351e+61</v>
+      </c>
+      <c r="AG7">
+        <v>6.752575699766788e+63</v>
+      </c>
+      <c r="AH7">
+        <v>-9.363856271499457e+65</v>
+      </c>
+      <c r="AI7">
+        <v>1.298374129472114e+68</v>
+      </c>
+      <c r="AJ7">
+        <v>-1.800202496930076e+70</v>
+      </c>
+      <c r="AK7">
+        <v>2.495932649925389e+72</v>
+      </c>
+      <c r="AL7">
+        <v>-3.460553338543676e+74</v>
+      </c>
+      <c r="AM7">
+        <v>4.798092508363135e+76</v>
+      </c>
+      <c r="AN7">
+        <v>-6.652879201778545e+78</v>
+      </c>
+      <c r="AO7">
+        <v>9.225179609716394e+80</v>
+      </c>
+      <c r="AP7">
+        <v>-1.279290875452924e+83</v>
+      </c>
+      <c r="AQ7">
+        <v>1.774178211233762e+85</v>
+      </c>
+      <c r="AR7">
+        <v>-2.460719289381697e+87</v>
+      </c>
+      <c r="AS7">
+        <v>3.413238171769574e+89</v>
+      </c>
+      <c r="AT7">
+        <v>-4.734924657308881e+91</v>
+      </c>
+      <c r="AU7">
+        <v>6.569061782000262e+93</v>
+      </c>
+      <c r="AV7">
+        <v>-9.114626762437985e+95</v>
+      </c>
+      <c r="AW7">
+        <v>1.26479714338428e+98</v>
+      </c>
+      <c r="AX7">
+        <v>-1.755295469585094e+100</v>
+      </c>
+      <c r="AY7">
+        <v>2.436282665358059e+102</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:51">
       <c r="A8">
-        <v>-0.5877852522924736</v>
+        <v>0.147</v>
       </c>
       <c r="B8">
-        <v>-0.7443791868052952</v>
+        <v>0.04800000000000004</v>
       </c>
       <c r="C8">
-        <v>-0.8298912341077129</v>
+        <v>-0.2489999999999861</v>
       </c>
       <c r="D8">
-        <v>-0.836155720294243</v>
+        <v>-0.7440000000033979</v>
       </c>
       <c r="E8">
-        <v>-0.7625744401645853</v>
+        <v>-1.436999999440525</v>
       </c>
       <c r="F8">
-        <v>-0.6161737807371904</v>
+        <v>-2.328000081937743</v>
       </c>
       <c r="G8">
-        <v>-0.4109337609935253</v>
+        <v>-3.41698853531455</v>
       </c>
       <c r="H8">
-        <v>-0.1664530588561851</v>
+        <v>391820815.7744278</v>
       </c>
       <c r="I8">
-        <v>0.09392249601907393</v>
+        <v>-162997461325.6554</v>
       </c>
       <c r="J8">
-        <v>0.3453292506015681</v>
+        <v>42708077611462.74</v>
       </c>
       <c r="K8">
-        <v>0.5637599960789952</v>
+        <v>-9059173211351320</v>
       </c>
       <c r="L8">
-        <v>0.7283564523052553</v>
+        <v>1.703700206509019e+18</v>
       </c>
       <c r="M8">
-        <v>0.8234010563176866</v>
+        <v>-2.96833221141562e+20</v>
       </c>
       <c r="N8">
-        <v>0.8398178560449203</v>
+        <v>4.910347625004678e+22</v>
       </c>
       <c r="O8">
-        <v>0.7760391866096306</v>
+        <v>-7.829078921293665e+24</v>
       </c>
       <c r="P8">
-        <v>0.6381553690035764</v>
+        <v>1.214915965017775e+27</v>
       </c>
       <c r="Q8">
-        <v>0.4393331361834885</v>
+        <v>-1.847158466625101e+29</v>
       </c>
       <c r="R8">
-        <v>0.1985583219538993</v>
+        <v>2.764516737749416e+31</v>
       </c>
       <c r="S8">
-        <v>-0.06117712483500071</v>
+        <v>-4.086651430309626e+33</v>
       </c>
       <c r="T8">
-        <v>-0.315070676035657</v>
+        <v>5.981982824762427e+35</v>
       </c>
       <c r="U8">
-        <v>-0.5388776548895101</v>
+        <v>-8.68723039758789e+37</v>
+      </c>
+      <c r="V8">
+        <v>1.253470863418213e+40</v>
+      </c>
+      <c r="W8">
+        <v>-1.799044068348383e+42</v>
+      </c>
+      <c r="X8">
+        <v>2.570735568794568e+44</v>
+      </c>
+      <c r="Y8">
+        <v>-3.659951267788512e+46</v>
+      </c>
+      <c r="Z8">
+        <v>5.194562921024933e+48</v>
+      </c>
+      <c r="AA8">
+        <v>-7.353344458035076e+50</v>
+      </c>
+      <c r="AB8">
+        <v>1.038609747692349e+53</v>
+      </c>
+      <c r="AC8">
+        <v>-1.464170195270277e+55</v>
+      </c>
+      <c r="AD8">
+        <v>2.060720574954263e+57</v>
+      </c>
+      <c r="AE8">
+        <v>-2.896228824806422e+59</v>
+      </c>
+      <c r="AF8">
+        <v>4.065513425502356e+61</v>
+      </c>
+      <c r="AG8">
+        <v>-5.700812225839596e+63</v>
+      </c>
+      <c r="AH8">
+        <v>7.986502764504339e+65</v>
+      </c>
+      <c r="AI8">
+        <v>-1.117960309797847e+68</v>
+      </c>
+      <c r="AJ8">
+        <v>1.563832110736894e+70</v>
+      </c>
+      <c r="AK8">
+        <v>-2.186180986523472e+72</v>
+      </c>
+      <c r="AL8">
+        <v>3.054552525625809e+74</v>
+      </c>
+      <c r="AM8">
+        <v>-4.265830664416796e+76</v>
+      </c>
+      <c r="AN8">
+        <v>5.954970274260208e+78</v>
+      </c>
+      <c r="AO8">
+        <v>-8.309940870711019e+80</v>
+      </c>
+      <c r="AP8">
+        <v>1.159253369601385e+83</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.616733290079266e+85</v>
+      </c>
+      <c r="AR8">
+        <v>2.254205468290914e+87</v>
+      </c>
+      <c r="AS8">
+        <v>-3.14237161096113e+89</v>
+      </c>
+      <c r="AT8">
+        <v>4.37968473963214e+91</v>
+      </c>
+      <c r="AU8">
+        <v>-6.103240194720039e+93</v>
+      </c>
+      <c r="AV8">
+        <v>8.503941825299086e+95</v>
+      </c>
+      <c r="AW8">
+        <v>-1.184762241569686e+98</v>
+      </c>
+      <c r="AX8">
+        <v>1.650445730020025e+100</v>
+      </c>
+      <c r="AY8">
+        <v>-2.298992958901733e+102</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:51">
       <c r="A9">
-        <v>-0.9510565162951538</v>
+        <v>0.147875</v>
       </c>
       <c r="B9">
-        <v>-1.204430824768974</v>
+        <v>0.06237500000000029</v>
       </c>
       <c r="C9">
-        <v>-1.342792223751875</v>
+        <v>-0.1941250000000485</v>
       </c>
       <c r="D9">
-        <v>-1.352928375323735</v>
+        <v>-0.6216249999944408</v>
       </c>
       <c r="E9">
-        <v>-1.233871363138222</v>
+        <v>-1.220125000628884</v>
       </c>
       <c r="F9">
-        <v>-0.9969901202092997</v>
+        <v>-1.989624926132007</v>
       </c>
       <c r="G9">
-        <v>-0.6649047924123503</v>
+        <v>-2.930134005303727</v>
       </c>
       <c r="H9">
-        <v>-0.2693267067606948</v>
+        <v>-4.040494640186881</v>
       </c>
       <c r="I9">
-        <v>0.1519697908670881</v>
+        <v>14105549531.81087</v>
       </c>
       <c r="J9">
-        <v>0.5587544647828675</v>
+        <v>-6855297075105.953</v>
       </c>
       <c r="K9">
-        <v>0.9121828351533221</v>
+        <v>2035628275920522</v>
       </c>
       <c r="L9">
-        <v>1.178505495755195</v>
+        <v>-4.787814800893668e+17</v>
       </c>
       <c r="M9">
-        <v>1.332290895494583</v>
+        <v>9.821921171623394e+19</v>
       </c>
       <c r="N9">
-        <v>1.358853835439747</v>
+        <v>-1.843231730869214e+22</v>
       </c>
       <c r="O9">
-        <v>1.255657780536204</v>
+        <v>3.251605085936909e+24</v>
       </c>
       <c r="P9">
-        <v>1.032557077151018</v>
+        <v>-5.484081441585397e+26</v>
       </c>
       <c r="Q9">
-        <v>0.7108559467289721</v>
+        <v>8.942562969933404e+28</v>
       </c>
       <c r="R9">
-        <v>0.3212741136705553</v>
+        <v>-1.420807748998178e+31</v>
       </c>
       <c r="S9">
-        <v>-0.09898666731702566</v>
+        <v>2.211724441115508e+33</v>
       </c>
       <c r="T9">
-        <v>-0.5097950626841004</v>
+        <v>-3.387041566092795e+35</v>
       </c>
       <c r="U9">
-        <v>-0.8719223613890643</v>
+        <v>5.118440940042035e+37</v>
+      </c>
+      <c r="V9">
+        <v>-7.650795938072243e+39</v>
+      </c>
+      <c r="W9">
+        <v>1.133252910168797e+42</v>
+      </c>
+      <c r="X9">
+        <v>-1.665834364901258e+44</v>
+      </c>
+      <c r="Y9">
+        <v>2.432931746448712e+46</v>
+      </c>
+      <c r="Z9">
+        <v>-3.533734463644438e+48</v>
+      </c>
+      <c r="AA9">
+        <v>5.10837014065332e+50</v>
+      </c>
+      <c r="AB9">
+        <v>-7.354541633145931e+52</v>
+      </c>
+      <c r="AC9">
+        <v>1.055085795682558e+55</v>
+      </c>
+      <c r="AD9">
+        <v>-1.508953492829492e+57</v>
+      </c>
+      <c r="AE9">
+        <v>2.152220640175093e+59</v>
+      </c>
+      <c r="AF9">
+        <v>-3.062407487446279e+61</v>
+      </c>
+      <c r="AG9">
+        <v>4.348370849564245e+63</v>
+      </c>
+      <c r="AH9">
+        <v>-6.162869406411705e+65</v>
+      </c>
+      <c r="AI9">
+        <v>8.720140897113486e+67</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.23204835039944e+70</v>
+      </c>
+      <c r="AK9">
+        <v>1.738462400825866e+72</v>
+      </c>
+      <c r="AL9">
+        <v>-2.450175868615721e+74</v>
+      </c>
+      <c r="AM9">
+        <v>3.449669337250793e+76</v>
+      </c>
+      <c r="AN9">
+        <v>-4.852365969875107e+78</v>
+      </c>
+      <c r="AO9">
+        <v>6.819738677904605e+80</v>
+      </c>
+      <c r="AP9">
+        <v>-9.577619877887536e+82</v>
+      </c>
+      <c r="AQ9">
+        <v>1.34417759591176e+85</v>
+      </c>
+      <c r="AR9">
+        <v>-1.885362534191908e+87</v>
+      </c>
+      <c r="AS9">
+        <v>2.643011918525367e+89</v>
+      </c>
+      <c r="AT9">
+        <v>-3.703339548631778e+91</v>
+      </c>
+      <c r="AU9">
+        <v>5.186803933191465e+93</v>
+      </c>
+      <c r="AV9">
+        <v>-7.2616884098036e+95</v>
+      </c>
+      <c r="AW9">
+        <v>1.016306190892103e+98</v>
+      </c>
+      <c r="AX9">
+        <v>-1.421925152947884e+100</v>
+      </c>
+      <c r="AY9">
+        <v>1.988880224541244e+102</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:51">
       <c r="A10">
-        <v>-0.9510565162951535</v>
+        <v>0.144</v>
       </c>
       <c r="B10">
-        <v>-1.204430824768974</v>
+        <v>0.07199999999999918</v>
       </c>
       <c r="C10">
-        <v>-1.342792223751875</v>
+        <v>-0.1439999999999538</v>
       </c>
       <c r="D10">
-        <v>-1.352928375323734</v>
+        <v>-0.5040000000032627</v>
       </c>
       <c r="E10">
-        <v>-1.233871363138222</v>
+        <v>-1.007999999730261</v>
       </c>
       <c r="F10">
-        <v>-0.9969901202093003</v>
+        <v>-1.656000024594842</v>
       </c>
       <c r="G10">
-        <v>-0.664904792412351</v>
+        <v>-2.447997574062667</v>
       </c>
       <c r="H10">
-        <v>-0.269326706760695</v>
+        <v>-3.384258118879391</v>
       </c>
       <c r="I10">
-        <v>0.1519697908670883</v>
+        <v>-4.434349674462853</v>
       </c>
       <c r="J10">
-        <v>0.5587544647828677</v>
+        <v>507799783332.7264</v>
       </c>
       <c r="K10">
-        <v>0.9121828351533221</v>
+        <v>-282336679537720.6</v>
       </c>
       <c r="L10">
-        <v>1.178505495755195</v>
+        <v>9.370378622026381e+16</v>
       </c>
       <c r="M10">
-        <v>1.332290895494583</v>
+        <v>-2.420709191498951e+19</v>
       </c>
       <c r="N10">
-        <v>1.358853835439747</v>
+        <v>5.380998570513663e+21</v>
       </c>
       <c r="O10">
-        <v>1.255657780536205</v>
+        <v>-1.082427202602577e+24</v>
       </c>
       <c r="P10">
-        <v>1.032557077151019</v>
+        <v>2.028704575745089e+26</v>
       </c>
       <c r="Q10">
-        <v>0.7108559467289723</v>
+        <v>-3.608503720339424e+28</v>
       </c>
       <c r="R10">
-        <v>0.321274113670555</v>
+        <v>6.167289357130353e+30</v>
       </c>
       <c r="S10">
-        <v>-0.09898666731702599</v>
+        <v>-1.021616731042707e+33</v>
       </c>
       <c r="T10">
-        <v>-0.5097950626841006</v>
+        <v>1.650608886963103e+35</v>
       </c>
       <c r="U10">
-        <v>-0.8719223613890642</v>
+        <v>-2.613397336299407e+37</v>
+      </c>
+      <c r="V10">
+        <v>4.069413002293999e+39</v>
+      </c>
+      <c r="W10">
+        <v>-6.249388087140632e+41</v>
+      </c>
+      <c r="X10">
+        <v>9.486005876188989e+43</v>
+      </c>
+      <c r="Y10">
+        <v>-1.425739911563793e+46</v>
+      </c>
+      <c r="Z10">
+        <v>2.12487960474412e+48</v>
+      </c>
+      <c r="AA10">
+        <v>-3.143977509006511e+50</v>
+      </c>
+      <c r="AB10">
+        <v>4.622762663736226e+52</v>
+      </c>
+      <c r="AC10">
+        <v>-6.760158638075919e+54</v>
+      </c>
+      <c r="AD10">
+        <v>9.838869355291166e+56</v>
+      </c>
+      <c r="AE10">
+        <v>-1.426004327063014e+59</v>
+      </c>
+      <c r="AF10">
+        <v>2.059211103430609e+61</v>
+      </c>
+      <c r="AG10">
+        <v>-2.963954586564508e+63</v>
+      </c>
+      <c r="AH10">
+        <v>4.253961540246351e+65</v>
+      </c>
+      <c r="AI10">
+        <v>-6.089844576898201e+67</v>
+      </c>
+      <c r="AJ10">
+        <v>8.698227696942981e+69</v>
+      </c>
+      <c r="AK10">
+        <v>-1.239861771456125e+72</v>
+      </c>
+      <c r="AL10">
+        <v>1.764114350651609e+74</v>
+      </c>
+      <c r="AM10">
+        <v>-2.505953922767684e+76</v>
+      </c>
+      <c r="AN10">
+        <v>3.554550464422445e+78</v>
+      </c>
+      <c r="AO10">
+        <v>-5.035303684709258e+80</v>
+      </c>
+      <c r="AP10">
+        <v>7.124477466386464e+82</v>
+      </c>
+      <c r="AQ10">
+        <v>-1.006972246733109e+85</v>
+      </c>
+      <c r="AR10">
+        <v>1.421884982683038e+87</v>
+      </c>
+      <c r="AS10">
+        <v>-2.006016561031759e+89</v>
+      </c>
+      <c r="AT10">
+        <v>2.827900122426398e+91</v>
+      </c>
+      <c r="AU10">
+        <v>-3.983693112292286e+93</v>
+      </c>
+      <c r="AV10">
+        <v>5.608276792622664e+95</v>
+      </c>
+      <c r="AW10">
+        <v>-7.89080636784508e+97</v>
+      </c>
+      <c r="AX10">
+        <v>1.109649403582238e+100</v>
+      </c>
+      <c r="AY10">
+        <v>-1.559712052700059e+102</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:51">
       <c r="A11">
-        <v>-0.587785252292473</v>
+        <v>0.136125</v>
       </c>
       <c r="B11">
-        <v>-0.7443791868052947</v>
+        <v>0.07762499999999939</v>
       </c>
       <c r="C11">
-        <v>-0.8298912341077126</v>
+        <v>-0.09787499999995236</v>
       </c>
       <c r="D11">
-        <v>-0.8361557202942427</v>
+        <v>-0.3903750000044095</v>
       </c>
       <c r="E11">
-        <v>-0.762574440164585</v>
+        <v>-0.7998749995299048</v>
       </c>
       <c r="F11">
-        <v>-0.6161737807371903</v>
+        <v>-1.326375054296657</v>
       </c>
       <c r="G11">
-        <v>-0.4109337609935256</v>
+        <v>-1.969868448247965</v>
       </c>
       <c r="H11">
-        <v>-0.1664530588561859</v>
+        <v>-2.731183570093199</v>
       </c>
       <c r="I11">
-        <v>0.09392249601907304</v>
+        <v>-3.50704619849536</v>
       </c>
       <c r="J11">
-        <v>0.3453292506015675</v>
+        <v>-17.21846655629245</v>
       </c>
       <c r="K11">
-        <v>0.5637599960789952</v>
+        <v>18280792201886.45</v>
       </c>
       <c r="L11">
-        <v>0.7283564523052557</v>
+        <v>-1.14437759175936e+16</v>
       </c>
       <c r="M11">
-        <v>0.823401056317687</v>
+        <v>4.186228290727639e+18</v>
       </c>
       <c r="N11">
-        <v>0.8398178560449205</v>
+        <v>-1.17272462904495e+21</v>
       </c>
       <c r="O11">
-        <v>0.7760391866096308</v>
+        <v>2.791153138102867e+23</v>
       </c>
       <c r="P11">
-        <v>0.6381553690035768</v>
+        <v>-5.951373362982756e+25</v>
       </c>
       <c r="Q11">
-        <v>0.4393331361834891</v>
+        <v>1.172824872706401e+28</v>
       </c>
       <c r="R11">
-        <v>0.1985583219539</v>
+        <v>-2.179215873373371e+30</v>
       </c>
       <c r="S11">
-        <v>-0.06117712483500037</v>
+        <v>3.869945814588808e+32</v>
       </c>
       <c r="T11">
-        <v>-0.3150706760356571</v>
+        <v>-6.631619814025915e+34</v>
       </c>
       <c r="U11">
-        <v>-0.5388776548895104</v>
+        <v>1.104336637105494e+37</v>
+      </c>
+      <c r="V11">
+        <v>-1.796593854340154e+39</v>
+      </c>
+      <c r="W11">
+        <v>2.867029666341956e+41</v>
+      </c>
+      <c r="X11">
+        <v>-4.502267298527281e+43</v>
+      </c>
+      <c r="Y11">
+        <v>6.975030499630293e+45</v>
+      </c>
+      <c r="Z11">
+        <v>-1.068222091013295e+48</v>
+      </c>
+      <c r="AA11">
+        <v>1.619937902102632e+50</v>
+      </c>
+      <c r="AB11">
+        <v>-2.435844953552568e+52</v>
+      </c>
+      <c r="AC11">
+        <v>3.635865890131074e+54</v>
+      </c>
+      <c r="AD11">
+        <v>-5.392439343344346e+56</v>
+      </c>
+      <c r="AE11">
+        <v>7.952973131028284e+58</v>
+      </c>
+      <c r="AF11">
+        <v>-1.167174219764242e+61</v>
+      </c>
+      <c r="AG11">
+        <v>1.705515958106693e+63</v>
+      </c>
+      <c r="AH11">
+        <v>-2.48259696632277e+65</v>
+      </c>
+      <c r="AI11">
+        <v>3.601419906409476e+67</v>
+      </c>
+      <c r="AJ11">
+        <v>-5.208592360335732e+69</v>
+      </c>
+      <c r="AK11">
+        <v>7.512545239221655e+71</v>
+      </c>
+      <c r="AL11">
+        <v>-1.080929307741789e+74</v>
+      </c>
+      <c r="AM11">
+        <v>1.551883801416237e+76</v>
+      </c>
+      <c r="AN11">
+        <v>-2.223658905141069e+78</v>
+      </c>
+      <c r="AO11">
+        <v>3.180595605807688e+80</v>
+      </c>
+      <c r="AP11">
+        <v>-4.542079486637564e+82</v>
+      </c>
+      <c r="AQ11">
+        <v>6.476992228230338e+84</v>
+      </c>
+      <c r="AR11">
+        <v>-9.22409050192276e+86</v>
+      </c>
+      <c r="AS11">
+        <v>1.312073409814728e+89</v>
+      </c>
+      <c r="AT11">
+        <v>-1.864337196506862e+91</v>
+      </c>
+      <c r="AU11">
+        <v>2.646458300226051e+93</v>
+      </c>
+      <c r="AV11">
+        <v>-3.753342096642078e+95</v>
+      </c>
+      <c r="AW11">
+        <v>5.318855885551419e+97</v>
+      </c>
+      <c r="AX11">
+        <v>-7.531758977637024e+99</v>
+      </c>
+      <c r="AY11">
+        <v>1.065812713861922e+102</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:51">
       <c r="A12">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.08000000000000096</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0.05500000000007609</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-0.2799999999922518</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-0.5950000008640277</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-0.9999998989758199</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-1.495012148208096</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-2.078513118711366</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-2.939063770566614</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>19.4304098679493</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-2878.507426894078</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>329054259966428.7</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-2.290217647308624e+17</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>9.202298519275094e+19</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-2.804041927899385e+22</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.200833766877036e+24</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1.645462135842408e+27</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3.455217142994234e+29</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-6.807095379092853e+31</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.276187507641895e+34</v>
       </c>
       <c r="U12">
+        <v>-2.300041208240604e+36</v>
+      </c>
+      <c r="V12">
+        <v>4.014881142825536e+38</v>
+      </c>
+      <c r="W12">
+        <v>-6.826291113964426e+40</v>
+      </c>
+      <c r="X12">
+        <v>1.135466606110537e+43</v>
+      </c>
+      <c r="Y12">
+        <v>-1.854128070810955e+45</v>
+      </c>
+      <c r="Z12">
+        <v>2.980431416401083e+47</v>
+      </c>
+      <c r="AA12">
+        <v>-4.726759473541189e+49</v>
+      </c>
+      <c r="AB12">
+        <v>7.409496041373481e+51</v>
+      </c>
+      <c r="AC12">
+        <v>-1.149776930668384e+54</v>
+      </c>
+      <c r="AD12">
+        <v>1.768433914920654e+56</v>
+      </c>
+      <c r="AE12">
+        <v>-2.698846312305842e+58</v>
+      </c>
+      <c r="AF12">
+        <v>4.090487132444854e+60</v>
+      </c>
+      <c r="AG12">
+        <v>-6.161912830745532e+62</v>
+      </c>
+      <c r="AH12">
+        <v>9.23184519696281e+64</v>
+      </c>
+      <c r="AI12">
+        <v>-1.376396216284386e+67</v>
+      </c>
+      <c r="AJ12">
+        <v>2.043135439105033e+69</v>
+      </c>
+      <c r="AK12">
+        <v>-3.020916366546428e+71</v>
+      </c>
+      <c r="AL12">
+        <v>4.450756811522153e+73</v>
+      </c>
+      <c r="AM12">
+        <v>-6.536247913447534e+75</v>
+      </c>
+      <c r="AN12">
+        <v>9.570872038805583e+77</v>
+      </c>
+      <c r="AO12">
+        <v>-1.3977100054649e+80</v>
+      </c>
+      <c r="AP12">
+        <v>2.036229886793047e+82</v>
+      </c>
+      <c r="AQ12">
+        <v>-2.959861282974984e+84</v>
+      </c>
+      <c r="AR12">
+        <v>4.293701412125655e+86</v>
+      </c>
+      <c r="AS12">
+        <v>-6.217002460281623e+88</v>
+      </c>
+      <c r="AT12">
+        <v>8.986372942742383e+90</v>
+      </c>
+      <c r="AU12">
+        <v>-1.296883888272973e+93</v>
+      </c>
+      <c r="AV12">
+        <v>1.86889282885508e+95</v>
+      </c>
+      <c r="AW12">
+        <v>-2.689569165379072e+97</v>
+      </c>
+      <c r="AX12">
+        <v>3.865805241571684e+99</v>
+      </c>
+      <c r="AY12">
+        <v>-5.550039978378399e+101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51">
+      <c r="A13">
+        <v>0.111375</v>
+      </c>
+      <c r="B13">
+        <v>0.07987500000000036</v>
+      </c>
+      <c r="C13">
+        <v>-0.01462499999998033</v>
+      </c>
+      <c r="D13">
+        <v>-0.1721250000045274</v>
+      </c>
+      <c r="E13">
+        <v>-0.3926249993437068</v>
+      </c>
+      <c r="F13">
+        <v>-0.6761250867416635</v>
+      </c>
+      <c r="G13">
+        <v>-1.022613868203531</v>
+      </c>
+      <c r="H13">
+        <v>-1.433538491811532</v>
+      </c>
+      <c r="I13">
+        <v>-1.725802890127558</v>
+      </c>
+      <c r="J13">
+        <v>-25.04036121893513</v>
+      </c>
+      <c r="K13">
+        <v>-9140396097304.428</v>
+      </c>
+      <c r="L13">
+        <v>5721887958337621</v>
+      </c>
+      <c r="M13">
+        <v>-2.075345215287346e+18</v>
+      </c>
+      <c r="N13">
+        <v>5.727513141208946e+20</v>
+      </c>
+      <c r="O13">
+        <v>-1.336126349121572e+23</v>
+      </c>
+      <c r="P13">
+        <v>2.780729439148605e+25</v>
+      </c>
+      <c r="Q13">
+        <v>-5.329733015280077e+27</v>
+      </c>
+      <c r="R13">
+        <v>9.601581163704613e+29</v>
+      </c>
+      <c r="S13">
+        <v>-1.648486416597626e+32</v>
+      </c>
+      <c r="T13">
+        <v>2.723903081122949e+34</v>
+      </c>
+      <c r="U13">
+        <v>-4.362866604921944e+36</v>
+      </c>
+      <c r="V13">
+        <v>6.810093215325497e+38</v>
+      </c>
+      <c r="W13">
+        <v>-1.040178619274023e+41</v>
+      </c>
+      <c r="X13">
+        <v>1.559573661180841e+43</v>
+      </c>
+      <c r="Y13">
+        <v>-2.300987962146889e+45</v>
+      </c>
+      <c r="Z13">
+        <v>3.347101757723195e+47</v>
+      </c>
+      <c r="AA13">
+        <v>-4.807538873703297e+49</v>
+      </c>
+      <c r="AB13">
+        <v>6.826241886443012e+51</v>
+      </c>
+      <c r="AC13">
+        <v>-9.590210056499663e+53</v>
+      </c>
+      <c r="AD13">
+        <v>1.333946150137536e+56</v>
+      </c>
+      <c r="AE13">
+        <v>-1.837774360966463e+58</v>
+      </c>
+      <c r="AF13">
+        <v>2.508292968016406e+60</v>
+      </c>
+      <c r="AG13">
+        <v>-3.391506069527538e+62</v>
+      </c>
+      <c r="AH13">
+        <v>4.541839895858355e+64</v>
+      </c>
+      <c r="AI13">
+        <v>-6.021132226374421e+66</v>
+      </c>
+      <c r="AJ13">
+        <v>7.895390303509167e+68</v>
+      </c>
+      <c r="AK13">
+        <v>-1.022768382322864e+71</v>
+      </c>
+      <c r="AL13">
+        <v>1.306459085699329e+73</v>
+      </c>
+      <c r="AM13">
+        <v>-1.641216972291646e+75</v>
+      </c>
+      <c r="AN13">
+        <v>2.019524461753912e+77</v>
+      </c>
+      <c r="AO13">
+        <v>-2.419050733410095e+79</v>
+      </c>
+      <c r="AP13">
+        <v>2.791902276920133e+81</v>
+      </c>
+      <c r="AQ13">
+        <v>-3.047640698085441e+83</v>
+      </c>
+      <c r="AR13">
+        <v>3.026808965839776e+85</v>
+      </c>
+      <c r="AS13">
+        <v>-2.460102351293398e+87</v>
+      </c>
+      <c r="AT13">
+        <v>9.059551213503346e+88</v>
+      </c>
+      <c r="AU13">
+        <v>2.344161864457787e+91</v>
+      </c>
+      <c r="AV13">
+        <v>-8.408532993943156e+93</v>
+      </c>
+      <c r="AW13">
+        <v>1.902933230297441e+96</v>
+      </c>
+      <c r="AX13">
+        <v>-3.689223173484123e+98</v>
+      </c>
+      <c r="AY13">
+        <v>6.610146261368962e+100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51">
+      <c r="A14">
+        <v>0.09599999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.07800000000000029</v>
+      </c>
+      <c r="C14">
+        <v>0.02399999999998857</v>
+      </c>
+      <c r="D14">
+        <v>-0.06599999999832051</v>
+      </c>
+      <c r="E14">
+        <v>-0.192000000269463</v>
+      </c>
+      <c r="F14">
+        <v>-0.3539999604537269</v>
+      </c>
+      <c r="G14">
+        <v>-0.5520054727030262</v>
+      </c>
+      <c r="H14">
+        <v>-0.7852677475424772</v>
+      </c>
+      <c r="I14">
+        <v>-1.152050174424378</v>
+      </c>
+      <c r="J14">
+        <v>-253899891659.9577</v>
+      </c>
+      <c r="K14">
+        <v>141168339767497.6</v>
+      </c>
+      <c r="L14">
+        <v>-4.685189310996115e+16</v>
+      </c>
+      <c r="M14">
+        <v>1.210354595747361e+19</v>
+      </c>
+      <c r="N14">
+        <v>-2.689859603773581e+21</v>
+      </c>
+      <c r="O14">
+        <v>5.406788275831373e+23</v>
+      </c>
+      <c r="P14">
+        <v>-1.011829454477372e+26</v>
+      </c>
+      <c r="Q14">
+        <v>1.79539235968215e+28</v>
+      </c>
+      <c r="R14">
+        <v>-3.057824582267356e+30</v>
+      </c>
+      <c r="S14">
+        <v>5.04198344156553e+32</v>
+      </c>
+      <c r="T14">
+        <v>-8.099241109801728e+34</v>
+      </c>
+      <c r="U14">
+        <v>1.273437171431907e+37</v>
+      </c>
+      <c r="V14">
+        <v>-1.966809566691687e+39</v>
+      </c>
+      <c r="W14">
+        <v>2.992397802010825e+41</v>
+      </c>
+      <c r="X14">
+        <v>-4.494884431616726e+43</v>
+      </c>
+      <c r="Y14">
+        <v>6.677922908551208e+45</v>
+      </c>
+      <c r="Z14">
+        <v>-9.827091811104628e+47</v>
+      </c>
+      <c r="AA14">
+        <v>1.434147998750362e+50</v>
+      </c>
+      <c r="AB14">
+        <v>-2.077705573547605e+52</v>
+      </c>
+      <c r="AC14">
+        <v>2.990609454561228e+54</v>
+      </c>
+      <c r="AD14">
+        <v>-4.279844909283857e+56</v>
+      </c>
+      <c r="AE14">
+        <v>6.093247173291662e+58</v>
+      </c>
+      <c r="AF14">
+        <v>-8.634611491756382e+60</v>
+      </c>
+      <c r="AG14">
+        <v>1.218423637653964e+63</v>
+      </c>
+      <c r="AH14">
+        <v>-1.712679922440871e+65</v>
+      </c>
+      <c r="AI14">
+        <v>2.398910641016791e+67</v>
+      </c>
+      <c r="AJ14">
+        <v>-3.349111195770271e+69</v>
+      </c>
+      <c r="AK14">
+        <v>4.661472399814093e+71</v>
+      </c>
+      <c r="AL14">
+        <v>-6.469639836912008e+73</v>
+      </c>
+      <c r="AM14">
+        <v>8.95514576638734e+75</v>
+      </c>
+      <c r="AN14">
+        <v>-1.236406018291554e+78</v>
+      </c>
+      <c r="AO14">
+        <v>1.702923537681356e+80</v>
+      </c>
+      <c r="AP14">
+        <v>-2.339994056047127e+82</v>
+      </c>
+      <c r="AQ14">
+        <v>3.208122301699334e+84</v>
+      </c>
+      <c r="AR14">
+        <v>-4.388601645257701e+86</v>
+      </c>
+      <c r="AS14">
+        <v>5.990387503709829e+88</v>
+      </c>
+      <c r="AT14">
+        <v>-8.159127265195746e+90</v>
+      </c>
+      <c r="AU14">
+        <v>1.108896969014346e+93</v>
+      </c>
+      <c r="AV14">
+        <v>-1.50379300598284e+95</v>
+      </c>
+      <c r="AW14">
+        <v>2.034776388266335e+97</v>
+      </c>
+      <c r="AX14">
+        <v>-2.746949593445821e+99</v>
+      </c>
+      <c r="AY14">
+        <v>3.699594872398669e+101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51">
+      <c r="A15">
+        <v>0.07962499999999999</v>
+      </c>
+      <c r="B15">
+        <v>0.07512499999999989</v>
+      </c>
+      <c r="C15">
+        <v>0.06162500000000477</v>
+      </c>
+      <c r="D15">
+        <v>0.03912500000030761</v>
+      </c>
+      <c r="E15">
+        <v>0.007624999918305272</v>
+      </c>
+      <c r="F15">
+        <v>-0.03287498838981917</v>
+      </c>
+      <c r="G15">
+        <v>-0.08237643171891433</v>
+      </c>
+      <c r="H15">
+        <v>-0.1407058963857122</v>
+      </c>
+      <c r="I15">
+        <v>-7052774768.868266</v>
+      </c>
+      <c r="J15">
+        <v>3427648537561.134</v>
+      </c>
+      <c r="K15">
+        <v>-1017814137961806</v>
+      </c>
+      <c r="L15">
+        <v>2.393907400448872e+17</v>
+      </c>
+      <c r="M15">
+        <v>-4.910960585814428e+19</v>
+      </c>
+      <c r="N15">
+        <v>9.216158654349774e+21</v>
+      </c>
+      <c r="O15">
+        <v>-1.625779514435658e+24</v>
+      </c>
+      <c r="P15">
+        <v>2.741832082281663e+26</v>
+      </c>
+      <c r="Q15">
+        <v>-4.470224235792267e+28</v>
+      </c>
+      <c r="R15">
+        <v>7.100080142558282e+30</v>
+      </c>
+      <c r="S15">
+        <v>-1.104639825885816e+33</v>
+      </c>
+      <c r="T15">
+        <v>1.690222785166043e+35</v>
+      </c>
+      <c r="U15">
+        <v>-2.55117039256461e+37</v>
+      </c>
+      <c r="V15">
+        <v>3.807208592477973e+39</v>
+      </c>
+      <c r="W15">
+        <v>-5.62760652285325e+41</v>
+      </c>
+      <c r="X15">
+        <v>8.250990356040553e+43</v>
+      </c>
+      <c r="Y15">
+        <v>-1.201288776996962e+46</v>
+      </c>
+      <c r="Z15">
+        <v>1.738396355344691e+48</v>
+      </c>
+      <c r="AA15">
+        <v>-2.50230234968651e+50</v>
+      </c>
+      <c r="AB15">
+        <v>3.585039611016199e+52</v>
+      </c>
+      <c r="AC15">
+        <v>-5.114940276706567e+54</v>
+      </c>
+      <c r="AD15">
+        <v>7.270650510246961e+56</v>
+      </c>
+      <c r="AE15">
+        <v>-1.030046579165339e+59</v>
+      </c>
+      <c r="AF15">
+        <v>1.454897830150444e+61</v>
+      </c>
+      <c r="AG15">
+        <v>-2.049376399152841e+63</v>
+      </c>
+      <c r="AH15">
+        <v>2.879584170614014e+65</v>
+      </c>
+      <c r="AI15">
+        <v>-4.036900708059118e+67</v>
+      </c>
+      <c r="AJ15">
+        <v>5.647501119201875e+69</v>
+      </c>
+      <c r="AK15">
+        <v>-7.885409584793027e+71</v>
+      </c>
+      <c r="AL15">
+        <v>1.099038543593655e+74</v>
+      </c>
+      <c r="AM15">
+        <v>-1.529240833445307e+76</v>
+      </c>
+      <c r="AN15">
+        <v>2.124516654754977e+78</v>
+      </c>
+      <c r="AO15">
+        <v>-2.947181649636786e+80</v>
+      </c>
+      <c r="AP15">
+        <v>4.082745202363856e+82</v>
+      </c>
+      <c r="AQ15">
+        <v>-5.648430467618598e+84</v>
+      </c>
+      <c r="AR15">
+        <v>7.804783448581601e+86</v>
+      </c>
+      <c r="AS15">
+        <v>-1.077147552254675e+89</v>
+      </c>
+      <c r="AT15">
+        <v>1.484879238580056e+91</v>
+      </c>
+      <c r="AU15">
+        <v>-2.044682504604161e+93</v>
+      </c>
+      <c r="AV15">
+        <v>2.812508034870678e+95</v>
+      </c>
+      <c r="AW15">
+        <v>-3.864616936807479e+97</v>
+      </c>
+      <c r="AX15">
+        <v>5.304849080196802e+99</v>
+      </c>
+      <c r="AY15">
+        <v>-7.274450725624655e+101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51">
+      <c r="A16">
+        <v>0.063</v>
+      </c>
+      <c r="B16">
+        <v>0.07199999999999962</v>
+      </c>
+      <c r="C16">
+        <v>0.09900000000002923</v>
+      </c>
+      <c r="D16">
+        <v>0.1439999999966495</v>
+      </c>
+      <c r="E16">
+        <v>0.2070000004331257</v>
+      </c>
+      <c r="F16">
+        <v>0.2879999432568394</v>
+      </c>
+      <c r="G16">
+        <v>0.3870073864502614</v>
+      </c>
+      <c r="H16">
+        <v>-195910409.736956</v>
+      </c>
+      <c r="I16">
+        <v>81498730660.60246</v>
+      </c>
+      <c r="J16">
+        <v>-21354038805764.92</v>
+      </c>
+      <c r="K16">
+        <v>4529586605679677</v>
+      </c>
+      <c r="L16">
+        <v>-8.518501032550428e+17</v>
+      </c>
+      <c r="M16">
+        <v>1.484166105708519e+20</v>
+      </c>
+      <c r="N16">
+        <v>-2.455173812503286e+22</v>
+      </c>
+      <c r="O16">
+        <v>3.914539460648102e+24</v>
+      </c>
+      <c r="P16">
+        <v>-6.074571534818591e+26</v>
+      </c>
+      <c r="Q16">
+        <v>9.235711420073191e+28</v>
+      </c>
+      <c r="R16">
+        <v>-1.382214536631859e+31</v>
+      </c>
+      <c r="S16">
+        <v>2.043151399863997e+33</v>
+      </c>
+      <c r="T16">
+        <v>-2.990422852716963e+35</v>
+      </c>
+      <c r="U16">
+        <v>4.342002661793821e+37</v>
+      </c>
+      <c r="V16">
+        <v>-6.263233836524774e+39</v>
+      </c>
+      <c r="W16">
+        <v>8.985509172718413e+41</v>
+      </c>
+      <c r="X16">
+        <v>-1.283221912780972e+44</v>
+      </c>
+      <c r="Y16">
+        <v>1.825476379562595e+46</v>
+      </c>
+      <c r="Z16">
+        <v>-2.588249235064331e+48</v>
+      </c>
+      <c r="AA16">
+        <v>3.659190350891794e+50</v>
+      </c>
+      <c r="AB16">
+        <v>-5.16024659098072e+52</v>
+      </c>
+      <c r="AC16">
+        <v>7.26092060242062e+54</v>
+      </c>
+      <c r="AD16">
+        <v>-1.019660489212777e+57</v>
+      </c>
+      <c r="AE16">
+        <v>1.42939175833697e+59</v>
+      </c>
+      <c r="AF16">
+        <v>-2.000569191672827e+61</v>
+      </c>
+      <c r="AG16">
+        <v>2.795926865096148e+63</v>
+      </c>
+      <c r="AH16">
+        <v>-3.902310983862526e+65</v>
+      </c>
+      <c r="AI16">
+        <v>5.439863197809749e+67</v>
+      </c>
+      <c r="AJ16">
+        <v>-7.574673502625615e+69</v>
+      </c>
+      <c r="AK16">
+        <v>1.053620392433411e+72</v>
+      </c>
+      <c r="AL16">
+        <v>-1.464126869157678e+74</v>
+      </c>
+      <c r="AM16">
+        <v>2.032702021132438e+76</v>
+      </c>
+      <c r="AN16">
+        <v>-2.819629857796353e+78</v>
+      </c>
+      <c r="AO16">
+        <v>3.907994515884144e+80</v>
+      </c>
+      <c r="AP16">
+        <v>-5.412238010977492e+82</v>
+      </c>
+      <c r="AQ16">
+        <v>7.489906575436268e+84</v>
+      </c>
+      <c r="AR16">
+        <v>-1.035776488692672e+87</v>
+      </c>
+      <c r="AS16">
+        <v>1.431389026951987e+89</v>
+      </c>
+      <c r="AT16">
+        <v>-1.97679491890639e+91</v>
+      </c>
+      <c r="AU16">
+        <v>2.728266279795719e+93</v>
+      </c>
+      <c r="AV16">
+        <v>-3.763056384707339e+95</v>
+      </c>
+      <c r="AW16">
+        <v>5.187163820719926e+97</v>
+      </c>
+      <c r="AX16">
+        <v>-7.145947159833551e+99</v>
+      </c>
+      <c r="AY16">
+        <v>9.838627662712091e+101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
+      <c r="A17">
+        <v>0.04687499999999999</v>
+      </c>
+      <c r="B17">
+        <v>0.06937500000000019</v>
+      </c>
+      <c r="C17">
+        <v>0.136874999999959</v>
+      </c>
+      <c r="D17">
+        <v>0.2493750000052095</v>
+      </c>
+      <c r="E17">
+        <v>0.4068749993475915</v>
+      </c>
+      <c r="F17">
+        <v>0.609375083247101</v>
+      </c>
+      <c r="G17">
+        <v>-5441954.983135764</v>
+      </c>
+      <c r="H17">
+        <v>1882916721.790777</v>
+      </c>
+      <c r="I17">
+        <v>-427650657729.2563</v>
+      </c>
+      <c r="J17">
+        <v>80874723351516.47</v>
+      </c>
+      <c r="K17">
+        <v>-1.383775238693461e+16</v>
+      </c>
+      <c r="L17">
+        <v>2.227043507999686e+18</v>
+      </c>
+      <c r="M17">
+        <v>-3.443189284523134e+20</v>
+      </c>
+      <c r="N17">
+        <v>5.178568047082725e+22</v>
+      </c>
+      <c r="O17">
+        <v>-7.637107790414814e+24</v>
+      </c>
+      <c r="P17">
+        <v>1.110234236118012e+27</v>
+      </c>
+      <c r="Q17">
+        <v>-1.596798362371007e+29</v>
+      </c>
+      <c r="R17">
+        <v>2.278029711677216e+31</v>
+      </c>
+      <c r="S17">
+        <v>-3.229679880408151e+33</v>
+      </c>
+      <c r="T17">
+        <v>4.556752159367105e+35</v>
+      </c>
+      <c r="U17">
+        <v>-6.404749095086417e+37</v>
+      </c>
+      <c r="V17">
+        <v>8.975234983681058e+39</v>
+      </c>
+      <c r="W17">
+        <v>-1.254736300573143e+42</v>
+      </c>
+      <c r="X17">
+        <v>1.750764563583839e+44</v>
+      </c>
+      <c r="Y17">
+        <v>-2.439111477341351e+46</v>
+      </c>
+      <c r="Z17">
+        <v>3.393821516835083e+48</v>
+      </c>
+      <c r="AA17">
+        <v>-4.717342567757856e+50</v>
+      </c>
+      <c r="AB17">
+        <v>6.551387910564933e+52</v>
+      </c>
+      <c r="AC17">
+        <v>-9.091938876327976e+54</v>
+      </c>
+      <c r="AD17">
+        <v>1.260996129792108e+57</v>
+      </c>
+      <c r="AE17">
+        <v>-1.748000439962076e+59</v>
+      </c>
+      <c r="AF17">
+        <v>2.421967086796789e+61</v>
+      </c>
+      <c r="AG17">
+        <v>-3.354407587553795e+63</v>
+      </c>
+      <c r="AH17">
+        <v>4.644096667698459e+65</v>
+      </c>
+      <c r="AI17">
+        <v>-6.427431223210819e+67</v>
+      </c>
+      <c r="AJ17">
+        <v>8.89271126639801e+69</v>
+      </c>
+      <c r="AK17">
+        <v>-1.229982211491021e+72</v>
+      </c>
+      <c r="AL17">
+        <v>1.700735275187754e+74</v>
+      </c>
+      <c r="AM17">
+        <v>-2.350994876806255e+76</v>
+      </c>
+      <c r="AN17">
+        <v>3.248974694213939e+78</v>
+      </c>
+      <c r="AO17">
+        <v>-4.488717830486465e+80</v>
+      </c>
+      <c r="AP17">
+        <v>6.199840262090622e+82</v>
+      </c>
+      <c r="AQ17">
+        <v>-8.560934832165932e+84</v>
+      </c>
+      <c r="AR17">
+        <v>1.181800499399816e+87</v>
+      </c>
+      <c r="AS17">
+        <v>-1.630980719103291e+89</v>
+      </c>
+      <c r="AT17">
+        <v>2.250267915486448e+91</v>
+      </c>
+      <c r="AU17">
+        <v>-3.103838796346468e+93</v>
+      </c>
+      <c r="AV17">
+        <v>4.279984126387011e+95</v>
+      </c>
+      <c r="AW17">
+        <v>-5.900129704770502e+97</v>
+      </c>
+      <c r="AX17">
+        <v>8.13121582872175e+99</v>
+      </c>
+      <c r="AY17">
+        <v>-1.120267891810843e+102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
+      <c r="A18">
+        <v>0.032</v>
+      </c>
+      <c r="B18">
+        <v>0.06799999999999962</v>
+      </c>
+      <c r="C18">
+        <v>0.1760000000000357</v>
+      </c>
+      <c r="D18">
+        <v>0.3559999999953565</v>
+      </c>
+      <c r="E18">
+        <v>0.6080000006108666</v>
+      </c>
+      <c r="F18">
+        <v>-151164.5080000804</v>
+      </c>
+      <c r="G18">
+        <v>41721662.76801062</v>
+      </c>
+      <c r="H18">
+        <v>-8022198733.56541</v>
+      </c>
+      <c r="I18">
+        <v>1333530720094.684</v>
+      </c>
+      <c r="J18">
+        <v>-205783444610518.2</v>
+      </c>
+      <c r="K18">
+        <v>3.04282388286985e+16</v>
+      </c>
+      <c r="L18">
+        <v>-4.382586581320578e+18</v>
+      </c>
+      <c r="M18">
+        <v>6.206273483922951e+20</v>
+      </c>
+      <c r="N18">
+        <v>-8.690533066344935e+22</v>
+      </c>
+      <c r="O18">
+        <v>1.207680710794761e+25</v>
+      </c>
+      <c r="P18">
+        <v>-1.669517202535649e+27</v>
+      </c>
+      <c r="Q18">
+        <v>2.299711861995798e+29</v>
+      </c>
+      <c r="R18">
+        <v>-3.160059802452411e+31</v>
+      </c>
+      <c r="S18">
+        <v>4.335193172504246e+33</v>
+      </c>
+      <c r="T18">
+        <v>-5.94109256816494e+35</v>
+      </c>
+      <c r="U18">
+        <v>8.136792594696465e+37</v>
+      </c>
+      <c r="V18">
+        <v>-1.114048558587578e+40</v>
+      </c>
+      <c r="W18">
+        <v>1.525168264762813e+42</v>
+      </c>
+      <c r="X18">
+        <v>-2.088171855171031e+44</v>
+      </c>
+      <c r="Y18">
+        <v>2.85957517363878e+46</v>
+      </c>
+      <c r="Z18">
+        <v>-3.917060256938532e+48</v>
+      </c>
+      <c r="AA18">
+        <v>5.367441580458533e+50</v>
+      </c>
+      <c r="AB18">
+        <v>-7.357639723433997e+52</v>
+      </c>
+      <c r="AC18">
+        <v>1.008979946225315e+55</v>
+      </c>
+      <c r="AD18">
+        <v>-1.38421192327712e+57</v>
+      </c>
+      <c r="AE18">
+        <v>1.89975512620835e+59</v>
+      </c>
+      <c r="AF18">
+        <v>-2.608334771771726e+61</v>
+      </c>
+      <c r="AG18">
+        <v>3.582555226902413e+63</v>
+      </c>
+      <c r="AH18">
+        <v>-4.922408451083732e+65</v>
+      </c>
+      <c r="AI18">
+        <v>6.765619635015819e+67</v>
+      </c>
+      <c r="AJ18">
+        <v>-9.301901418357505e+69</v>
+      </c>
+      <c r="AK18">
+        <v>1.279259202724099e+72</v>
+      </c>
+      <c r="AL18">
+        <v>-1.759770859720034e+74</v>
+      </c>
+      <c r="AM18">
+        <v>2.421321184359448e+76</v>
+      </c>
+      <c r="AN18">
+        <v>-3.332233042271392e+78</v>
+      </c>
+      <c r="AO18">
+        <v>4.586624034725627e+80</v>
+      </c>
+      <c r="AP18">
+        <v>-6.314138434815691e+82</v>
+      </c>
+      <c r="AQ18">
+        <v>8.693345078753218e+84</v>
+      </c>
+      <c r="AR18">
+        <v>-1.197017897062166e+87</v>
+      </c>
+      <c r="AS18">
+        <v>1.648332062392689e+89</v>
+      </c>
+      <c r="AT18">
+        <v>-2.269911618809902e+91</v>
+      </c>
+      <c r="AU18">
+        <v>3.125961486137703e+93</v>
+      </c>
+      <c r="AV18">
+        <v>-4.304863615790522e+95</v>
+      </c>
+      <c r="AW18">
+        <v>5.928261273155177e+97</v>
+      </c>
+      <c r="AX18">
+        <v>-8.163546870648909e+99</v>
+      </c>
+      <c r="AY18">
+        <v>1.124102406344412e+102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
+      <c r="A19">
+        <v>0.019125</v>
+      </c>
+      <c r="B19">
+        <v>0.06862500000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.2171249999999814</v>
+      </c>
+      <c r="D19">
+        <v>0.4646250000027309</v>
+      </c>
+      <c r="E19">
+        <v>-4198.228875000393</v>
+      </c>
+      <c r="F19">
+        <v>865003.4966250556</v>
+      </c>
+      <c r="G19">
+        <v>-136275642.3588828</v>
+      </c>
+      <c r="H19">
+        <v>19562042456.20571</v>
+      </c>
+      <c r="I19">
+        <v>-2695802575676.962</v>
+      </c>
+      <c r="J19">
+        <v>364256699889659.2</v>
+      </c>
+      <c r="K19">
+        <v>-4.874046002296241e+16</v>
+      </c>
+      <c r="L19">
+        <v>6.49175415696374e+18</v>
+      </c>
+      <c r="M19">
+        <v>-8.630643732857423e+20</v>
+      </c>
+      <c r="N19">
+        <v>1.147158358862436e+23</v>
+      </c>
+      <c r="O19">
+        <v>-1.525810360708462e+25</v>
+      </c>
+      <c r="P19">
+        <v>2.031906286915106e+27</v>
+      </c>
+      <c r="Q19">
+        <v>-2.709947334227899e+29</v>
+      </c>
+      <c r="R19">
+        <v>3.620251627138778e+31</v>
+      </c>
+      <c r="S19">
+        <v>-4.844690545681332e+33</v>
+      </c>
+      <c r="T19">
+        <v>6.494529274794724e+35</v>
+      </c>
+      <c r="U19">
+        <v>-8.721153346149873e+37</v>
+      </c>
+      <c r="V19">
+        <v>1.173075506291493e+40</v>
+      </c>
+      <c r="W19">
+        <v>-1.580445573573857e+42</v>
+      </c>
+      <c r="X19">
+        <v>2.132589302653759e+44</v>
+      </c>
+      <c r="Y19">
+        <v>-2.881906446483379e+46</v>
+      </c>
+      <c r="Z19">
+        <v>3.90002670016193e+48</v>
+      </c>
+      <c r="AA19">
+        <v>-5.284941663183027e+50</v>
+      </c>
+      <c r="AB19">
+        <v>7.170802089455608e+52</v>
+      </c>
+      <c r="AC19">
+        <v>-9.741381604689642e+54</v>
+      </c>
+      <c r="AD19">
+        <v>1.324858531066192e+57</v>
+      </c>
+      <c r="AE19">
+        <v>-1.803790128421839e+59</v>
+      </c>
+      <c r="AF19">
+        <v>2.458340863688837e+61</v>
+      </c>
+      <c r="AG19">
+        <v>-3.353594150582929e+63</v>
+      </c>
+      <c r="AH19">
+        <v>4.578936595579032e+65</v>
+      </c>
+      <c r="AI19">
+        <v>-6.25717965093235e+67</v>
+      </c>
+      <c r="AJ19">
+        <v>8.557115390141539e+69</v>
+      </c>
+      <c r="AK19">
+        <v>-1.171080113029391e+72</v>
+      </c>
+      <c r="AL19">
+        <v>1.60373558168918e+74</v>
+      </c>
+      <c r="AM19">
+        <v>-2.197572318487497e+76</v>
+      </c>
+      <c r="AN19">
+        <v>3.012978187047418e+78</v>
+      </c>
+      <c r="AO19">
+        <v>-4.133045596769034e+80</v>
+      </c>
+      <c r="AP19">
+        <v>5.67212317342523e+82</v>
+      </c>
+      <c r="AQ19">
+        <v>-7.787589693772649e+84</v>
+      </c>
+      <c r="AR19">
+        <v>1.069606355877851e+87</v>
+      </c>
+      <c r="AS19">
+        <v>-1.469571716798726e+89</v>
+      </c>
+      <c r="AT19">
+        <v>2.019699268338582e+91</v>
+      </c>
+      <c r="AU19">
+        <v>-2.776487777698008e+93</v>
+      </c>
+      <c r="AV19">
+        <v>3.817708479864172e+95</v>
+      </c>
+      <c r="AW19">
+        <v>-5.250410478012453e+97</v>
+      </c>
+      <c r="AX19">
+        <v>7.221934393826024e+99</v>
+      </c>
+      <c r="AY19">
+        <v>-9.935062125283266e+101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
+      <c r="A20">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="B20">
+        <v>0.07199999999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.261000000000004</v>
+      </c>
+      <c r="D20">
+        <v>-116.0640000000009</v>
+      </c>
+      <c r="E20">
+        <v>15864.05700000017</v>
+      </c>
+      <c r="F20">
+        <v>-1952435.376000028</v>
+      </c>
+      <c r="G20">
+        <v>236712017.6370042</v>
+      </c>
+      <c r="H20">
+        <v>-28827686804.90463</v>
+      </c>
+      <c r="I20">
+        <v>3543415991981.093</v>
+      </c>
+      <c r="J20">
+        <v>-439916189646758</v>
+      </c>
+      <c r="K20">
+        <v>5.513526706175317e+16</v>
+      </c>
+      <c r="L20">
+        <v>-6.969922384187855e+18</v>
+      </c>
+      <c r="M20">
+        <v>8.879232491187777e+20</v>
+      </c>
+      <c r="N20">
+        <v>-1.138962848760188e+23</v>
+      </c>
+      <c r="O20">
+        <v>1.469968595469319e+25</v>
+      </c>
+      <c r="P20">
+        <v>-1.907609226418228e+27</v>
+      </c>
+      <c r="Q20">
+        <v>2.487765037470702e+29</v>
+      </c>
+      <c r="R20">
+        <v>-3.25878853481873e+31</v>
+      </c>
+      <c r="S20">
+        <v>4.285939932997158e+33</v>
+      </c>
+      <c r="T20">
+        <v>-5.65742777307988e+35</v>
+      </c>
+      <c r="U20">
+        <v>7.492643998463263e+37</v>
+      </c>
+      <c r="V20">
+        <v>-9.953401378104026e+39</v>
+      </c>
+      <c r="W20">
+        <v>1.325928148300212e+42</v>
+      </c>
+      <c r="X20">
+        <v>-1.770861420337594e+44</v>
+      </c>
+      <c r="Y20">
+        <v>2.370717733455193e+46</v>
+      </c>
+      <c r="Z20">
+        <v>-3.180748531156812e+48</v>
+      </c>
+      <c r="AA20">
+        <v>4.27626099703454e+50</v>
+      </c>
+      <c r="AB20">
+        <v>-5.759995377224435e+52</v>
+      </c>
+      <c r="AC20">
+        <v>7.77224294771384e+54</v>
+      </c>
+      <c r="AD20">
+        <v>-1.050472994754968e+57</v>
+      </c>
+      <c r="AE20">
+        <v>1.421967817254586e+59</v>
+      </c>
+      <c r="AF20">
+        <v>-1.92759835326601e+61</v>
+      </c>
+      <c r="AG20">
+        <v>2.61651845159023e+63</v>
+      </c>
+      <c r="AH20">
+        <v>-3.556089864033174e+65</v>
+      </c>
+      <c r="AI20">
+        <v>4.838679054285433e+67</v>
+      </c>
+      <c r="AJ20">
+        <v>-6.591004345975633e+69</v>
+      </c>
+      <c r="AK20">
+        <v>8.986993353939782e+71</v>
+      </c>
+      <c r="AL20">
+        <v>-1.226547249492116e+74</v>
+      </c>
+      <c r="AM20">
+        <v>1.675450864708161e+76</v>
+      </c>
+      <c r="AN20">
+        <v>-2.290490910694414e+78</v>
+      </c>
+      <c r="AO20">
+        <v>3.133633058345514e+80</v>
+      </c>
+      <c r="AP20">
+        <v>-4.290074834447269e+82</v>
+      </c>
+      <c r="AQ20">
+        <v>5.876982658621792e+84</v>
+      </c>
+      <c r="AR20">
+        <v>-8.055519462188562e+86</v>
+      </c>
+      <c r="AS20">
+        <v>1.104740235426926e+89</v>
+      </c>
+      <c r="AT20">
+        <v>-1.515769622947543e+91</v>
+      </c>
+      <c r="AU20">
+        <v>2.080619084424521e+93</v>
+      </c>
+      <c r="AV20">
+        <v>-2.857059136668651e+95</v>
+      </c>
+      <c r="AW20">
+        <v>3.924596588137303e+97</v>
+      </c>
+      <c r="AX20">
+        <v>-5.392656158942342e+99</v>
+      </c>
+      <c r="AY20">
+        <v>7.411839439133414e+101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51">
+      <c r="A21">
+        <v>0.002375</v>
+      </c>
+      <c r="B21">
+        <v>0.07887499999999997</v>
+      </c>
+      <c r="C21">
+        <v>-2.931625</v>
+      </c>
+      <c r="D21">
+        <v>214.5308750000002</v>
+      </c>
+      <c r="E21">
+        <v>-19192.53362500004</v>
+      </c>
+      <c r="F21">
+        <v>1914368.874875009</v>
+      </c>
+      <c r="G21">
+        <v>-204274302.2436267</v>
+      </c>
+      <c r="H21">
+        <v>22818919423.11114</v>
+      </c>
+      <c r="I21">
+        <v>-2634916810292.103</v>
+      </c>
+      <c r="J21">
+        <v>311984333512343.4</v>
+      </c>
+      <c r="K21">
+        <v>-3.767325125633703e+16</v>
+      </c>
+      <c r="L21">
+        <v>4.621685217833193e+18</v>
+      </c>
+      <c r="M21">
+        <v>-5.743974978278299e+20</v>
+      </c>
+      <c r="N21">
+        <v>7.216844013100626e+22</v>
+      </c>
+      <c r="O21">
+        <v>-9.151482667209288e+24</v>
+      </c>
+      <c r="P21">
+        <v>1.169720312633474e+27</v>
+      </c>
+      <c r="Q21">
+        <v>-1.505452025527322e+29</v>
+      </c>
+      <c r="R21">
+        <v>1.949294859327315e+31</v>
+      </c>
+      <c r="S21">
+        <v>-2.53751972886131e+33</v>
+      </c>
+      <c r="T21">
+        <v>3.319007256595961e+35</v>
+      </c>
+      <c r="U21">
+        <v>-4.359725325953043e+37</v>
+      </c>
+      <c r="V21">
+        <v>5.748827666888246e+39</v>
+      </c>
+      <c r="W21">
+        <v>-7.606967890406625e+41</v>
+      </c>
+      <c r="X21">
+        <v>1.009764397439871e+44</v>
+      </c>
+      <c r="Y21">
+        <v>-1.34426911985054e+46</v>
+      </c>
+      <c r="Z21">
+        <v>1.794345791499503e+48</v>
+      </c>
+      <c r="AA21">
+        <v>-2.400977098354119e+50</v>
+      </c>
+      <c r="AB21">
+        <v>3.219958493201168e+52</v>
+      </c>
+      <c r="AC21">
+        <v>-4.327329183331778e+54</v>
+      </c>
+      <c r="AD21">
+        <v>5.826815893659907e+56</v>
+      </c>
+      <c r="AE21">
+        <v>-7.860041173761485e+58</v>
+      </c>
+      <c r="AF21">
+        <v>1.062053028216018e+61</v>
+      </c>
+      <c r="AG21">
+        <v>-1.437293926515239e+63</v>
+      </c>
+      <c r="AH21">
+        <v>1.947946185830328e+65</v>
+      </c>
+      <c r="AI21">
+        <v>-2.643610951740521e+67</v>
+      </c>
+      <c r="AJ21">
+        <v>3.592257331142538e+69</v>
+      </c>
+      <c r="AK21">
+        <v>-4.88707733525583e+71</v>
+      </c>
+      <c r="AL21">
+        <v>6.655912516364289e+73</v>
+      </c>
+      <c r="AM21">
+        <v>-9.074220151893093e+75</v>
+      </c>
+      <c r="AN21">
+        <v>1.238291162802291e+78</v>
+      </c>
+      <c r="AO21">
+        <v>-1.691289799610074e+80</v>
+      </c>
+      <c r="AP21">
+        <v>2.311886931615156e+82</v>
+      </c>
+      <c r="AQ21">
+        <v>-3.162578663551664e+84</v>
+      </c>
+      <c r="AR21">
+        <v>4.329287632896848e+86</v>
+      </c>
+      <c r="AS21">
+        <v>-5.930172091549321e+88</v>
+      </c>
+      <c r="AT21">
+        <v>8.127752382858169e+90</v>
+      </c>
+      <c r="AU21">
+        <v>-1.114560429340272e+93</v>
+      </c>
+      <c r="AV21">
+        <v>1.529133893407189e+95</v>
+      </c>
+      <c r="AW21">
+        <v>-2.098823558542812e+97</v>
+      </c>
+      <c r="AX21">
+        <v>2.881878349320057e+99</v>
+      </c>
+      <c r="AY21">
+        <v>-3.958461179387429e+101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
         <v>0</v>
       </c>
     </row>

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +529,7 @@
     </row>
     <row r="2" spans="1:51">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -684,3101 +684,7751 @@
     </row>
     <row r="3" spans="1:51">
       <c r="A3">
-        <v>0.045125</v>
+        <v>0.9921147013144779</v>
       </c>
       <c r="B3">
-        <v>-0.1213750000000002</v>
+        <v>0.9842915805643155</v>
       </c>
       <c r="C3">
-        <v>5.859125000000014</v>
+        <v>-0.03116910771311321</v>
       </c>
       <c r="D3">
-        <v>-429.1333750000003</v>
+        <v>-0.0461382405423838</v>
       </c>
       <c r="E3">
-        <v>38384.90112499993</v>
+        <v>-0.06037974575665206</v>
       </c>
       <c r="F3">
-        <v>-3828738.037374982</v>
+        <v>-0.07366902631122585</v>
       </c>
       <c r="G3">
-        <v>408548604.0511218</v>
+        <v>-0.08579650231312896</v>
       </c>
       <c r="H3">
-        <v>-45637838846.83287</v>
+        <v>-0.0965709162212075</v>
       </c>
       <c r="I3">
-        <v>5269833620583.235</v>
+        <v>-0.1058223490918084</v>
       </c>
       <c r="J3">
-        <v>-623968667024664.9</v>
+        <v>-0.1134049003020247</v>
       </c>
       <c r="K3">
-        <v>7.534650251267075e+16</v>
+        <v>-0.1191989884896738</v>
       </c>
       <c r="L3">
-        <v>-9.243370435665914e+18</v>
+        <v>-0.1231132374228168</v>
       </c>
       <c r="M3">
-        <v>1.148794995655593e+21</v>
+        <v>-0.125085917057519</v>
       </c>
       <c r="N3">
-        <v>-1.443368802620032e+23</v>
+        <v>-0.125085917057519</v>
       </c>
       <c r="O3">
-        <v>1.830296533441728e+25</v>
+        <v>-0.1231132374228169</v>
       </c>
       <c r="P3">
-        <v>-2.339440625266768e+27</v>
+        <v>-0.1191989884896738</v>
       </c>
       <c r="Q3">
-        <v>3.010904051054394e+29</v>
+        <v>-0.1134049003020249</v>
       </c>
       <c r="R3">
-        <v>-3.898589718654284e+31</v>
+        <v>-0.1058223490918083</v>
       </c>
       <c r="S3">
-        <v>5.075039457722145e+33</v>
+        <v>-0.09657091622120761</v>
       </c>
       <c r="T3">
-        <v>-6.638014513191269e+35</v>
+        <v>-0.08579650231312896</v>
       </c>
       <c r="U3">
-        <v>8.71945066193081e+37</v>
+        <v>-0.07366902631122585</v>
       </c>
       <c r="V3">
-        <v>-1.149765546671499e+40</v>
+        <v>-0.06037974575665195</v>
       </c>
       <c r="W3">
-        <v>1.521393673224099e+42</v>
+        <v>-0.04613824054238369</v>
       </c>
       <c r="X3">
-        <v>-2.019529282776632e+44</v>
+        <v>-0.03116910771311332</v>
       </c>
       <c r="Y3">
-        <v>2.688540248640553e+46</v>
+        <v>-0.01570841943568435</v>
       </c>
       <c r="Z3">
-        <v>-3.588698642759823e+48</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="AA3">
-        <v>4.801976182227678e+50</v>
+        <v>0.01570841943568468</v>
       </c>
       <c r="AB3">
-        <v>-6.439979212878506e+52</v>
+        <v>0.03116910771311354</v>
       </c>
       <c r="AC3">
-        <v>8.654821334429257e+54</v>
+        <v>0.04613824054238402</v>
       </c>
       <c r="AD3">
-        <v>-1.165403200102438e+57</v>
+        <v>0.06037974575665195</v>
       </c>
       <c r="AE3">
-        <v>1.57210133721051e+59</v>
+        <v>0.07366902631122629</v>
       </c>
       <c r="AF3">
-        <v>-2.124312865134791e+61</v>
+        <v>0.0857965023131283</v>
       </c>
       <c r="AG3">
-        <v>2.875029301811015e+63</v>
+        <v>0.0965709162212075</v>
       </c>
       <c r="AH3">
-        <v>-3.896802584623213e+65</v>
+        <v>0.1058223490918089</v>
       </c>
       <c r="AI3">
-        <v>5.289042479566959e+67</v>
+        <v>0.1134049003020251</v>
       </c>
       <c r="AJ3">
-        <v>-7.188059710664562e+69</v>
+        <v>0.119198988489674</v>
       </c>
       <c r="AK3">
-        <v>9.780895049105347e+71</v>
+        <v>0.1231132374228171</v>
       </c>
       <c r="AL3">
-        <v>-1.332437092619037e+74</v>
+        <v>0.1250859170575194</v>
       </c>
       <c r="AM3">
-        <v>1.817135015764713e+76</v>
+        <v>0.1250859170575191</v>
       </c>
       <c r="AN3">
-        <v>-2.480694437946984e+78</v>
+        <v>0.123113237422817</v>
       </c>
       <c r="AO3">
-        <v>3.389846355895637e+80</v>
+        <v>0.1191989884896736</v>
       </c>
       <c r="AP3">
-        <v>-4.63643493800372e+82</v>
+        <v>0.1134049003020235</v>
       </c>
       <c r="AQ3">
-        <v>6.346934454396618e+84</v>
+        <v>0.1058223490918083</v>
       </c>
       <c r="AR3">
-        <v>-8.695593215243772e+86</v>
+        <v>0.09657091622120761</v>
       </c>
       <c r="AS3">
-        <v>1.19225932591052e+89</v>
+        <v>0.08579650231312941</v>
       </c>
       <c r="AT3">
-        <v>-1.63591483346968e+91</v>
+        <v>0.07366902631122585</v>
       </c>
       <c r="AU3">
-        <v>2.246220237739278e+93</v>
+        <v>0.06037974575665161</v>
       </c>
       <c r="AV3">
-        <v>-3.086241580732294e+95</v>
+        <v>0.04613824054238402</v>
       </c>
       <c r="AW3">
-        <v>4.243054804460947e+97</v>
+        <v>0.03116910771311265</v>
       </c>
       <c r="AX3">
-        <v>-5.83693149809081e+99</v>
+        <v>0.01570841943568446</v>
       </c>
       <c r="AY3">
-        <v>8.034053261352285e+101</v>
+        <v>-0.9921147013144779</v>
       </c>
     </row>
     <row r="4" spans="1:51">
       <c r="A4">
-        <v>0.08099999999999999</v>
+        <v>0.9685831611286311</v>
       </c>
       <c r="B4">
-        <v>-0.07200000000000006</v>
+        <v>0.9609455936013647</v>
       </c>
       <c r="C4">
-        <v>-0.5309999999999824</v>
+        <v>0.9381533400219317</v>
       </c>
       <c r="D4">
-        <v>231.9839999999974</v>
+        <v>-0.09154885346976527</v>
       </c>
       <c r="E4">
-        <v>-31728.44699999962</v>
+        <v>-0.1198072668536097</v>
       </c>
       <c r="F4">
-        <v>3904870.175999945</v>
+        <v>-0.146176248069781</v>
       </c>
       <c r="G4">
-        <v>-473424036.1469923</v>
+        <v>-0.1702399425324334</v>
       </c>
       <c r="H4">
-        <v>57655373608.58292</v>
+        <v>-0.1916188514049374</v>
       </c>
       <c r="I4">
-        <v>-7086831983963.48</v>
+        <v>-0.2099758165232322</v>
       </c>
       <c r="J4">
-        <v>879832379293466.4</v>
+        <v>-0.2250213375814822</v>
       </c>
       <c r="K4">
-        <v>-1.102705341234996e+17</v>
+        <v>-0.2365181377248414</v>
       </c>
       <c r="L4">
-        <v>1.393984476837478e+19</v>
+        <v>-0.2442849055471928</v>
       </c>
       <c r="M4">
-        <v>-1.775846498237425e+21</v>
+        <v>-0.2481991544803358</v>
       </c>
       <c r="N4">
-        <v>2.277925697520197e+23</v>
+        <v>-0.2481991544803359</v>
       </c>
       <c r="O4">
-        <v>-2.93993719093839e+25</v>
+        <v>-0.2442849055471928</v>
       </c>
       <c r="P4">
-        <v>3.815218452836113e+27</v>
+        <v>-0.2365181377248418</v>
       </c>
       <c r="Q4">
-        <v>-4.975530074940931e+29</v>
+        <v>-0.2250213375814821</v>
       </c>
       <c r="R4">
-        <v>6.517577069636809e+31</v>
+        <v>-0.2099758165232325</v>
       </c>
       <c r="S4">
-        <v>-8.571879865993423e+33</v>
+        <v>-0.1916188514049373</v>
       </c>
       <c r="T4">
-        <v>1.131485557400748e+36</v>
+        <v>-0.1702399425324335</v>
       </c>
       <c r="U4">
-        <v>-1.498528834670763e+38</v>
+        <v>-0.1461762480697809</v>
       </c>
       <c r="V4">
-        <v>1.990680514057412e+40</v>
+        <v>-0.1198072668536095</v>
       </c>
       <c r="W4">
-        <v>-2.651857466873417e+42</v>
+        <v>-0.09154885346976527</v>
       </c>
       <c r="X4">
-        <v>3.541727472400646e+44</v>
+        <v>-0.06184665997806804</v>
       </c>
       <c r="Y4">
-        <v>-4.741451171221426e+46</v>
+        <v>-0.03116910771311299</v>
       </c>
       <c r="Z4">
-        <v>6.361544406446297e+48</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="AA4">
-        <v>-8.552652097731685e+50</v>
+        <v>0.03116910771311387</v>
       </c>
       <c r="AB4">
-        <v>1.152032245286813e+53</v>
+        <v>0.06184665997806871</v>
       </c>
       <c r="AC4">
-        <v>-1.554528073568107e+55</v>
+        <v>0.09154885346976549</v>
       </c>
       <c r="AD4">
-        <v>2.101126792644856e+57</v>
+        <v>0.1198072668536103</v>
       </c>
       <c r="AE4">
-        <v>-2.844329081687344e+59</v>
+        <v>0.1461762480697802</v>
       </c>
       <c r="AF4">
-        <v>3.856020850973284e+61</v>
+        <v>0.1702399425324338</v>
       </c>
       <c r="AG4">
-        <v>-5.234706957338933e+63</v>
+        <v>0.1916188514049372</v>
       </c>
       <c r="AH4">
-        <v>7.115467147946919e+65</v>
+        <v>0.2099758165232326</v>
       </c>
       <c r="AI4">
-        <v>-9.68366570896154e+67</v>
+        <v>0.2250213375814829</v>
       </c>
       <c r="AJ4">
-        <v>1.319383932191142e+70</v>
+        <v>0.2365181377248422</v>
       </c>
       <c r="AK4">
-        <v>-1.799573110496581e+72</v>
+        <v>0.2442849055471934</v>
       </c>
       <c r="AL4">
-        <v>2.45701905522744e+74</v>
+        <v>0.2481991544803362</v>
       </c>
       <c r="AM4">
-        <v>-3.357869918391519e+76</v>
+        <v>0.2481991544803364</v>
       </c>
       <c r="AN4">
-        <v>4.593172118984233e+78</v>
+        <v>0.2442849055471927</v>
       </c>
       <c r="AO4">
-        <v>-6.288307106446023e+80</v>
+        <v>0.2365181377248405</v>
       </c>
       <c r="AP4">
-        <v>8.616024951193346e+82</v>
+        <v>0.2250213375814819</v>
       </c>
       <c r="AQ4">
-        <v>-1.181445205738872e+85</v>
+        <v>0.2099758165232312</v>
       </c>
       <c r="AR4">
-        <v>1.621197972744446e+87</v>
+        <v>0.1916188514049377</v>
       </c>
       <c r="AS4">
-        <v>-2.2261673924013e+89</v>
+        <v>0.1702399425324335</v>
       </c>
       <c r="AT4">
-        <v>3.058886334008593e+91</v>
+        <v>0.146176248069781</v>
       </c>
       <c r="AU4">
-        <v>-4.205697238328182e+93</v>
+        <v>0.1198072668536099</v>
       </c>
       <c r="AV4">
-        <v>5.785861999922541e+95</v>
+        <v>0.09154885346976427</v>
       </c>
       <c r="AW4">
-        <v>-7.96417155312839e+97</v>
+        <v>0.06184665997806849</v>
       </c>
       <c r="AX4">
-        <v>1.096840421713657e+100</v>
+        <v>-0.9609455936013652</v>
       </c>
       <c r="AY4">
-        <v>-1.511350340450864e+102</v>
+        <v>-0.9685831611286307</v>
       </c>
     </row>
     <row r="5" spans="1:51">
       <c r="A5">
-        <v>0.108375</v>
+        <v>0.9297764858882515</v>
       </c>
       <c r="B5">
-        <v>-0.0311249999999994</v>
+        <v>0.9224449205862473</v>
       </c>
       <c r="C5">
-        <v>-0.449625000000052</v>
+        <v>0.9005658478447126</v>
       </c>
       <c r="D5">
-        <v>-1.147124999994166</v>
+        <v>0.8644843137107059</v>
       </c>
       <c r="E5">
-        <v>8395.956374999298</v>
+        <v>-0.1773453557828942</v>
       </c>
       <c r="F5">
-        <v>-1730007.859124911</v>
+        <v>-0.2163781830748172</v>
       </c>
       <c r="G5">
-        <v>272551283.4063634</v>
+        <v>-0.2519985971615895</v>
       </c>
       <c r="H5">
-        <v>-39124084914.24557</v>
+        <v>-0.283644842834458</v>
       </c>
       <c r="I5">
-        <v>5391605151350.969</v>
+        <v>-0.3108178398946112</v>
       </c>
       <c r="J5">
-        <v>-728513399779251.2</v>
+        <v>-0.3330890539460489</v>
       </c>
       <c r="K5">
-        <v>9.748092004591518e+16</v>
+        <v>-0.3501072546390013</v>
       </c>
       <c r="L5">
-        <v>-1.298350831392616e+19</v>
+        <v>-0.3616040547823605</v>
       </c>
       <c r="M5">
-        <v>1.726128746571303e+21</v>
+        <v>-0.3673981429700097</v>
       </c>
       <c r="N5">
-        <v>-2.294316717724624e+23</v>
+        <v>-0.3673981429700096</v>
       </c>
       <c r="O5">
-        <v>3.051620721416584e+25</v>
+        <v>-0.3616040547823608</v>
       </c>
       <c r="P5">
-        <v>-4.063812573829747e+27</v>
+        <v>-0.3501072546390012</v>
       </c>
       <c r="Q5">
-        <v>5.419894668455163e+29</v>
+        <v>-0.3330890539460494</v>
       </c>
       <c r="R5">
-        <v>-7.240503254276688e+31</v>
+        <v>-0.3108178398946111</v>
       </c>
       <c r="S5">
-        <v>9.689381168719667e+33</v>
+        <v>-0.2836448428344583</v>
       </c>
       <c r="T5">
-        <v>-1.298905946705592e+36</v>
+        <v>-0.2519985971615892</v>
       </c>
       <c r="U5">
-        <v>1.744231262539192e+38</v>
+        <v>-0.2163781830748172</v>
       </c>
       <c r="V5">
-        <v>-2.346153786430432e+40</v>
+        <v>-0.1773453557828942</v>
       </c>
       <c r="W5">
-        <v>3.160901642444399e+42</v>
+        <v>-0.1355156862892939</v>
       </c>
       <c r="X5">
-        <v>-4.265212734689094e+44</v>
+        <v>-0.09154885346976493</v>
       </c>
       <c r="Y5">
-        <v>5.763911860633165e+46</v>
+        <v>-0.04613824054238336</v>
       </c>
       <c r="Z5">
-        <v>-7.800315685952398e+48</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="AA5">
-        <v>1.057052975915174e+51</v>
+        <v>0.04613824054238436</v>
       </c>
       <c r="AB5">
-        <v>-1.434310490901914e+53</v>
+        <v>0.09154885346976582</v>
       </c>
       <c r="AC5">
-        <v>1.948607712034046e+55</v>
+        <v>0.135515686289295</v>
       </c>
       <c r="AD5">
-        <v>-2.650418410017846e+57</v>
+        <v>0.1773453557828938</v>
       </c>
       <c r="AE5">
-        <v>3.609011458543402e+59</v>
+        <v>0.2163781830748178</v>
       </c>
       <c r="AF5">
-        <v>-4.91951156421466e+61</v>
+        <v>0.2519985971615891</v>
       </c>
       <c r="AG5">
-        <v>6.712631475674442e+63</v>
+        <v>0.2836448428344589</v>
       </c>
       <c r="AH5">
-        <v>-9.168092348972429e+65</v>
+        <v>0.3108178398946112</v>
       </c>
       <c r="AI5">
-        <v>1.253313772141396e+68</v>
+        <v>0.3330890539460497</v>
       </c>
       <c r="AJ5">
-        <v>-1.714808458433189e+70</v>
+        <v>0.3501072546390023</v>
       </c>
       <c r="AK5">
-        <v>2.348159984736831e+72</v>
+        <v>0.3616040547823614</v>
       </c>
       <c r="AL5">
-        <v>-3.217942176945854e+74</v>
+        <v>0.3673981429700104</v>
       </c>
       <c r="AM5">
-        <v>4.413167423167766e+76</v>
+        <v>0.3673981429700098</v>
       </c>
       <c r="AN5">
-        <v>-6.056590034688847e+78</v>
+        <v>0.3616040547823599</v>
       </c>
       <c r="AO5">
-        <v>8.317568349362774e+80</v>
+        <v>0.3501072546390011</v>
       </c>
       <c r="AP5">
-        <v>-1.142985234606301e+83</v>
+        <v>0.3330890539460482</v>
       </c>
       <c r="AQ5">
-        <v>1.571619023940191e+85</v>
+        <v>0.3108178398946113</v>
       </c>
       <c r="AR5">
-        <v>-2.162237778477741e+87</v>
+        <v>0.283644842834457</v>
       </c>
       <c r="AS5">
-        <v>2.976438671658806e+89</v>
+        <v>0.2519985971615893</v>
       </c>
       <c r="AT5">
-        <v>-4.099361336700897e+91</v>
+        <v>0.2163781830748175</v>
       </c>
       <c r="AU5">
-        <v>5.648723711500208e+93</v>
+        <v>0.1773453557828937</v>
       </c>
       <c r="AV5">
-        <v>-7.78733820511894e+95</v>
+        <v>0.1355156862892943</v>
       </c>
       <c r="AW5">
-        <v>1.074045274039096e+98</v>
+        <v>-0.9005658478447136</v>
       </c>
       <c r="AX5">
-        <v>-1.481978202876574e+100</v>
+        <v>-0.9224449205862467</v>
       </c>
       <c r="AY5">
-        <v>2.045681742858737e+102</v>
+        <v>-0.9297764858882522</v>
       </c>
     </row>
     <row r="6" spans="1:51">
       <c r="A6">
-        <v>0.128</v>
+        <v>0.8763066800438636</v>
       </c>
       <c r="B6">
-        <v>0.00199999999999978</v>
+        <v>0.8693967401315994</v>
       </c>
       <c r="C6">
-        <v>-0.3759999999999567</v>
+        <v>0.8487758942750213</v>
       </c>
       <c r="D6">
-        <v>-1.006000000005579</v>
+        <v>0.8147693455315836</v>
       </c>
       <c r="E6">
-        <v>-1.887999999277985</v>
+        <v>0.7679133974894984</v>
       </c>
       <c r="F6">
-        <v>302327.857999904</v>
+        <v>-0.2831677048747027</v>
       </c>
       <c r="G6">
-        <v>-83443327.28798702</v>
+        <v>-0.3297830833768418</v>
       </c>
       <c r="H6">
-        <v>16044397464.67223</v>
+        <v>-0.3711975856512633</v>
       </c>
       <c r="I6">
-        <v>-2667061440192.013</v>
+        <v>-0.4067580802572748</v>
       </c>
       <c r="J6">
-        <v>411566889220948.6</v>
+        <v>-0.4359037569521302</v>
       </c>
       <c r="K6">
-        <v>-6.08564776573857e+16</v>
+        <v>-0.458174971003568</v>
       </c>
       <c r="L6">
-        <v>8.765173162639623e+18</v>
+        <v>-0.4732204920618182</v>
       </c>
       <c r="M6">
-        <v>-1.241254696784383e+21</v>
+        <v>-0.4808030432720343</v>
       </c>
       <c r="N6">
-        <v>1.738106613268706e+23</v>
+        <v>-0.4808030432720346</v>
       </c>
       <c r="O6">
-        <v>-2.415361421589141e+25</v>
+        <v>-0.4732204920618179</v>
       </c>
       <c r="P6">
-        <v>3.339034405070782e+27</v>
+        <v>-0.4581749710035684</v>
       </c>
       <c r="Q6">
-        <v>-4.599423723990895e+29</v>
+        <v>-0.4359037569521301</v>
       </c>
       <c r="R6">
-        <v>6.320119819787722e+31</v>
+        <v>-0.4067580802572752</v>
       </c>
       <c r="S6">
-        <v>-8.670388743110967e+33</v>
+        <v>-0.371197585651263</v>
       </c>
       <c r="T6">
-        <v>1.188219980535266e+36</v>
+        <v>-0.329783083376842</v>
       </c>
       <c r="U6">
-        <v>-1.62736503546165e+38</v>
+        <v>-0.2831677048747026</v>
       </c>
       <c r="V6">
-        <v>2.228120638913005e+40</v>
+        <v>-0.2320866025105015</v>
       </c>
       <c r="W6">
-        <v>-3.050409756339522e+42</v>
+        <v>-0.1773453557828939</v>
       </c>
       <c r="X6">
-        <v>4.176547629030032e+44</v>
+        <v>-0.1198072668536092</v>
       </c>
       <c r="Y6">
-        <v>-5.719670786508159e+46</v>
+        <v>-0.06037974575665139</v>
       </c>
       <c r="Z6">
-        <v>7.835358844029066e+48</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="AA6">
-        <v>-1.073766487221696e+51</v>
+        <v>0.0603797457566525</v>
       </c>
       <c r="AB6">
-        <v>1.472123514991794e+53</v>
+        <v>0.1198072668536106</v>
       </c>
       <c r="AC6">
-        <v>-2.019184267107182e+55</v>
+        <v>0.1773453557828941</v>
       </c>
       <c r="AD6">
-        <v>2.770854963749902e+57</v>
+        <v>0.2320866025105025</v>
       </c>
       <c r="AE6">
-        <v>-3.804194765743992e+59</v>
+        <v>0.2831677048747027</v>
       </c>
       <c r="AF6">
-        <v>5.225463265332367e+61</v>
+        <v>0.3297830833768429</v>
       </c>
       <c r="AG6">
-        <v>-7.181243784763127e+63</v>
+        <v>0.3711975856512632</v>
       </c>
       <c r="AH6">
-        <v>9.873822686166498e+65</v>
+        <v>0.406758080257276</v>
       </c>
       <c r="AI6">
-        <v>-1.358245925930795e+68</v>
+        <v>0.4359037569521306</v>
       </c>
       <c r="AJ6">
-        <v>1.869281054505559e+70</v>
+        <v>0.4581749710035689</v>
       </c>
       <c r="AK6">
-        <v>-2.573764857492074e+72</v>
+        <v>0.4732204920618193</v>
       </c>
       <c r="AL6">
-        <v>3.5453218206174e+74</v>
+        <v>0.4808030432720349</v>
       </c>
       <c r="AM6">
-        <v>-4.885726283522662e+76</v>
+        <v>0.4808030432720339</v>
       </c>
       <c r="AN6">
-        <v>6.735707441634926e+78</v>
+        <v>0.4732204920618182</v>
       </c>
       <c r="AO6">
-        <v>-9.289915561644358e+80</v>
+        <v>0.4581749710035675</v>
       </c>
       <c r="AP6">
-        <v>1.281765658767539e+83</v>
+        <v>0.4359037569521305</v>
       </c>
       <c r="AQ6">
-        <v>-1.769162461602982e+85</v>
+        <v>0.406758080257274</v>
       </c>
       <c r="AR6">
-        <v>2.442772551218834e+87</v>
+        <v>0.3711975856512629</v>
       </c>
       <c r="AS6">
-        <v>-3.374028414036422e+89</v>
+        <v>0.329783083376841</v>
       </c>
       <c r="AT6">
-        <v>4.66185927620459e+91</v>
+        <v>0.283167704874702</v>
       </c>
       <c r="AU6">
-        <v>-6.44330704834533e+93</v>
+        <v>0.2320866025105019</v>
       </c>
       <c r="AV6">
-        <v>8.908251525574279e+95</v>
+        <v>-0.8147693455315842</v>
       </c>
       <c r="AW6">
-        <v>-1.231983912551765e+98</v>
+        <v>-0.8487758942750209</v>
       </c>
       <c r="AX6">
-        <v>1.704282926543395e+100</v>
+        <v>-0.8693967401316006</v>
       </c>
       <c r="AY6">
-        <v>-2.358293372275322e+102</v>
+        <v>-0.8763066800438636</v>
       </c>
     </row>
     <row r="7" spans="1:51">
       <c r="A7">
-        <v>0.140625</v>
+        <v>0.8090169943749475</v>
       </c>
       <c r="B7">
-        <v>0.02812500000000018</v>
+        <v>0.8026376537326376</v>
       </c>
       <c r="C7">
-        <v>-0.3093750000000188</v>
+        <v>0.7836002378184705</v>
       </c>
       <c r="D7">
-        <v>-0.8718749999966251</v>
+        <v>0.7522049780538138</v>
       </c>
       <c r="E7">
-        <v>-1.659375000559391</v>
+        <v>0.7089469964397752</v>
       </c>
       <c r="F7">
-        <v>-2.671874914712357</v>
+        <v>0.6545084971874737</v>
       </c>
       <c r="G7">
-        <v>10883907.77061263</v>
+        <v>-0.4023666933643765</v>
       </c>
       <c r="H7">
-        <v>-3765833446.650129</v>
+        <v>-0.4528963207996586</v>
       </c>
       <c r="I7">
-        <v>855301315453.818</v>
+        <v>-0.4962835027087823</v>
       </c>
       <c r="J7">
-        <v>-161749446702956.7</v>
+        <v>-0.5318439973147938</v>
       </c>
       <c r="K7">
-        <v>2.767550477385832e+16</v>
+        <v>-0.5590169943749471</v>
       </c>
       <c r="L7">
-        <v>-4.454087015997912e+18</v>
+        <v>-0.5773739594932418</v>
       </c>
       <c r="M7">
-        <v>6.886378569044311e+20</v>
+        <v>-0.586625392363843</v>
       </c>
       <c r="N7">
-        <v>-1.035713609416282e+23</v>
+        <v>-0.5866253923638426</v>
       </c>
       <c r="O7">
-        <v>1.527421558082609e+25</v>
+        <v>-0.5773739594932422</v>
       </c>
       <c r="P7">
-        <v>-2.220468472235548e+27</v>
+        <v>-0.5590169943749469</v>
       </c>
       <c r="Q7">
-        <v>3.193597321640955e+29</v>
+        <v>-0.5318439973147943</v>
       </c>
       <c r="R7">
-        <v>-4.556065666923203e+31</v>
+        <v>-0.4962835027087821</v>
       </c>
       <c r="S7">
-        <v>6.459395767827449e+33</v>
+        <v>-0.4528963207996589</v>
       </c>
       <c r="T7">
-        <v>-9.113655893343936e+35</v>
+        <v>-0.4023666933643764</v>
       </c>
       <c r="U7">
-        <v>1.28100189326054e+38</v>
+        <v>-0.3454915028125264</v>
       </c>
       <c r="V7">
-        <v>-1.795201895802803e+40</v>
+        <v>-0.2831677048747022</v>
       </c>
       <c r="W7">
-        <v>2.509886167711874e+42</v>
+        <v>-0.2163781830748168</v>
       </c>
       <c r="X7">
-        <v>-3.502544174096378e+44</v>
+        <v>-0.1461762480697804</v>
       </c>
       <c r="Y7">
-        <v>4.88055188446755e+46</v>
+        <v>-0.07366902631122518</v>
       </c>
       <c r="Z7">
-        <v>-6.792700004256676e+48</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="AA7">
-        <v>9.445173783210667e+50</v>
+        <v>0.07366902631122696</v>
       </c>
       <c r="AB7">
-        <v>-1.312370573713777e+53</v>
+        <v>0.1461762480697808</v>
       </c>
       <c r="AC7">
-        <v>1.822428924428103e+55</v>
+        <v>0.2163781830748182</v>
       </c>
       <c r="AD7">
-        <v>-2.529576616498186e+57</v>
+        <v>0.283167704874703</v>
       </c>
       <c r="AE7">
-        <v>3.509888582589787e+59</v>
+        <v>0.3454915028125276</v>
       </c>
       <c r="AF7">
-        <v>-4.868821542749351e+61</v>
+        <v>0.4023666933643767</v>
       </c>
       <c r="AG7">
-        <v>6.752575699766788e+63</v>
+        <v>0.45289632079966</v>
       </c>
       <c r="AH7">
-        <v>-9.363856271499457e+65</v>
+        <v>0.4962835027087825</v>
       </c>
       <c r="AI7">
-        <v>1.298374129472114e+68</v>
+        <v>0.5318439973147951</v>
       </c>
       <c r="AJ7">
-        <v>-1.800202496930076e+70</v>
+        <v>0.5590169943749476</v>
       </c>
       <c r="AK7">
-        <v>2.495932649925389e+72</v>
+        <v>0.5773739594932424</v>
       </c>
       <c r="AL7">
-        <v>-3.460553338543676e+74</v>
+        <v>0.5866253923638428</v>
       </c>
       <c r="AM7">
-        <v>4.798092508363135e+76</v>
+        <v>0.5866253923638433</v>
       </c>
       <c r="AN7">
-        <v>-6.652879201778545e+78</v>
+        <v>0.5773739594932416</v>
       </c>
       <c r="AO7">
-        <v>9.225179609716394e+80</v>
+        <v>0.5590169943749476</v>
       </c>
       <c r="AP7">
-        <v>-1.279290875452924e+83</v>
+        <v>0.5318439973147934</v>
       </c>
       <c r="AQ7">
-        <v>1.774178211233762e+85</v>
+        <v>0.4962835027087821</v>
       </c>
       <c r="AR7">
-        <v>-2.460719289381697e+87</v>
+        <v>0.452896320799658</v>
       </c>
       <c r="AS7">
-        <v>3.413238171769574e+89</v>
+        <v>0.4023666933643756</v>
       </c>
       <c r="AT7">
-        <v>-4.734924657308881e+91</v>
+        <v>0.3454915028125255</v>
       </c>
       <c r="AU7">
-        <v>6.569061782000262e+93</v>
+        <v>-0.7089469964397759</v>
       </c>
       <c r="AV7">
-        <v>-9.114626762437985e+95</v>
+        <v>-0.7522049780538133</v>
       </c>
       <c r="AW7">
-        <v>1.26479714338428e+98</v>
+        <v>-0.7836002378184712</v>
       </c>
       <c r="AX7">
-        <v>-1.755295469585094e+100</v>
+        <v>-0.8026376537326377</v>
       </c>
       <c r="AY7">
-        <v>2.436282665358059e+102</v>
+        <v>-0.809016994374949</v>
       </c>
     </row>
     <row r="8" spans="1:51">
       <c r="A8">
-        <v>0.147</v>
+        <v>0.7289686274214116</v>
       </c>
       <c r="B8">
-        <v>0.04800000000000004</v>
+        <v>0.7232204920618186</v>
       </c>
       <c r="C8">
-        <v>-0.2489999999999861</v>
+        <v>0.7060667375114302</v>
       </c>
       <c r="D8">
-        <v>-0.7440000000033979</v>
+        <v>0.6777778887266621</v>
       </c>
       <c r="E8">
-        <v>-1.436999999440525</v>
+        <v>0.638800077751789</v>
       </c>
       <c r="F8">
-        <v>-2.328000081937743</v>
+        <v>0.5897480079501014</v>
       </c>
       <c r="G8">
-        <v>-3.41698853531455</v>
+        <v>0.531395259764657</v>
       </c>
       <c r="H8">
-        <v>391820815.7744278</v>
+        <v>-0.5274526104218955</v>
       </c>
       <c r="I8">
-        <v>-162997461325.6554</v>
+        <v>-0.5779822378571776</v>
       </c>
       <c r="J8">
-        <v>42708077611462.74</v>
+        <v>-0.6193967401315992</v>
       </c>
       <c r="K8">
-        <v>-9059173211351320</v>
+        <v>-0.6510429858044676</v>
       </c>
       <c r="L8">
-        <v>1.703700206509019e+18</v>
+        <v>-0.672421894676972</v>
       </c>
       <c r="M8">
-        <v>-2.96833221141562e+20</v>
+        <v>-0.6831963085850502</v>
       </c>
       <c r="N8">
-        <v>4.910347625004678e+22</v>
+        <v>-0.6831963085850505</v>
       </c>
       <c r="O8">
-        <v>-7.829078921293665e+24</v>
+        <v>-0.6724218946769714</v>
       </c>
       <c r="P8">
-        <v>1.214915965017775e+27</v>
+        <v>-0.6510429858044682</v>
       </c>
       <c r="Q8">
-        <v>-1.847158466625101e+29</v>
+        <v>-0.6193967401315988</v>
       </c>
       <c r="R8">
-        <v>2.764516737749416e+31</v>
+        <v>-0.5779822378571779</v>
       </c>
       <c r="S8">
-        <v>-4.086651430309626e+33</v>
+        <v>-0.5274526104218954</v>
       </c>
       <c r="T8">
-        <v>5.981982824762427e+35</v>
+        <v>-0.4686047402353433</v>
       </c>
       <c r="U8">
-        <v>-8.68723039758789e+37</v>
+        <v>-0.402366693364376</v>
       </c>
       <c r="V8">
-        <v>1.253470863418213e+40</v>
+        <v>-0.3297830833768417</v>
       </c>
       <c r="W8">
-        <v>-1.799044068348383e+42</v>
+        <v>-0.2519985971615887</v>
       </c>
       <c r="X8">
-        <v>2.570735568794568e+44</v>
+        <v>-0.1702399425324328</v>
       </c>
       <c r="Y8">
-        <v>-3.659951267788512e+46</v>
+        <v>-0.08579650231312841</v>
       </c>
       <c r="Z8">
-        <v>5.194562921024933e+48</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="AA8">
-        <v>-7.353344458035076e+50</v>
+        <v>0.08579650231312885</v>
       </c>
       <c r="AB8">
-        <v>1.038609747692349e+53</v>
+        <v>0.1702399425324345</v>
       </c>
       <c r="AC8">
-        <v>-1.464170195270277e+55</v>
+        <v>0.2519985971615897</v>
       </c>
       <c r="AD8">
-        <v>2.060720574954263e+57</v>
+        <v>0.3297830833768433</v>
       </c>
       <c r="AE8">
-        <v>-2.896228824806422e+59</v>
+        <v>0.402366693364377</v>
       </c>
       <c r="AF8">
-        <v>4.065513425502356e+61</v>
+        <v>0.4686047402353447</v>
       </c>
       <c r="AG8">
-        <v>-5.700812225839596e+63</v>
+        <v>0.5274526104218961</v>
       </c>
       <c r="AH8">
-        <v>7.986502764504339e+65</v>
+        <v>0.5779822378571792</v>
       </c>
       <c r="AI8">
-        <v>-1.117960309797847e+68</v>
+        <v>0.6193967401315995</v>
       </c>
       <c r="AJ8">
-        <v>1.563832110736894e+70</v>
+        <v>0.6510429858044687</v>
       </c>
       <c r="AK8">
-        <v>-2.186180986523472e+72</v>
+        <v>0.6724218946769712</v>
       </c>
       <c r="AL8">
-        <v>3.054552525625809e+74</v>
+        <v>0.6831963085850509</v>
       </c>
       <c r="AM8">
-        <v>-4.265830664416796e+76</v>
+        <v>0.6831963085850504</v>
       </c>
       <c r="AN8">
-        <v>5.954970274260208e+78</v>
+        <v>0.6724218946769726</v>
       </c>
       <c r="AO8">
-        <v>-8.309940870711019e+80</v>
+        <v>0.6510429858044674</v>
       </c>
       <c r="AP8">
-        <v>1.159253369601385e+83</v>
+        <v>0.6193967401315991</v>
       </c>
       <c r="AQ8">
-        <v>-1.616733290079266e+85</v>
+        <v>0.5779822378571774</v>
       </c>
       <c r="AR8">
-        <v>2.254205468290914e+87</v>
+        <v>0.5274526104218947</v>
       </c>
       <c r="AS8">
-        <v>-3.14237161096113e+89</v>
+        <v>0.4686047402353425</v>
       </c>
       <c r="AT8">
-        <v>4.37968473963214e+91</v>
+        <v>-0.5897480079501023</v>
       </c>
       <c r="AU8">
-        <v>-6.103240194720039e+93</v>
+        <v>-0.6388000777517897</v>
       </c>
       <c r="AV8">
-        <v>8.503941825299086e+95</v>
+        <v>-0.6777778887266628</v>
       </c>
       <c r="AW8">
-        <v>-1.184762241569686e+98</v>
+        <v>-0.70606673751143</v>
       </c>
       <c r="AX8">
-        <v>1.650445730020025e+100</v>
+        <v>-0.7232204920618195</v>
       </c>
       <c r="AY8">
-        <v>-2.298992958901733e+102</v>
+        <v>-0.7289686274214109</v>
       </c>
     </row>
     <row r="9" spans="1:51">
       <c r="A9">
-        <v>0.147875</v>
+        <v>0.6374239897486896</v>
       </c>
       <c r="B9">
-        <v>0.06237500000000029</v>
+        <v>0.632397711200204</v>
       </c>
       <c r="C9">
-        <v>-0.1941250000000485</v>
+        <v>0.6173981429700101</v>
       </c>
       <c r="D9">
-        <v>-0.6216249999944408</v>
+        <v>0.5926618372094056</v>
       </c>
       <c r="E9">
-        <v>-1.220125000628884</v>
+        <v>0.5585789002369882</v>
       </c>
       <c r="F9">
-        <v>-1.989624926132007</v>
+        <v>0.5156868403289722</v>
       </c>
       <c r="G9">
-        <v>-2.930134005303727</v>
+        <v>0.4646620908925824</v>
       </c>
       <c r="H9">
-        <v>-4.040494640186881</v>
+        <v>0.4063093427071379</v>
       </c>
       <c r="I9">
-        <v>14105549531.81087</v>
+        <v>-0.6505658478447125</v>
       </c>
       <c r="J9">
-        <v>-6855297075105.953</v>
+        <v>-0.6971812263468515</v>
       </c>
       <c r="K9">
-        <v>2035628275920522</v>
+        <v>-0.7328016404336239</v>
       </c>
       <c r="L9">
-        <v>-4.787814800893668e+17</v>
+        <v>-0.7568653348962759</v>
       </c>
       <c r="M9">
-        <v>9.821921171623394e+19</v>
+        <v>-0.7689928108981794</v>
       </c>
       <c r="N9">
-        <v>-1.843231730869214e+22</v>
+        <v>-0.7689928108981792</v>
       </c>
       <c r="O9">
-        <v>3.251605085936909e+24</v>
+        <v>-0.7568653348962766</v>
       </c>
       <c r="P9">
-        <v>-5.484081441585397e+26</v>
+        <v>-0.7328016404336233</v>
       </c>
       <c r="Q9">
-        <v>8.942562969933404e+28</v>
+        <v>-0.697181226346852</v>
       </c>
       <c r="R9">
-        <v>-1.420807748998178e+31</v>
+        <v>-0.6505658478447121</v>
       </c>
       <c r="S9">
-        <v>2.211724441115508e+33</v>
+        <v>-0.5936906572928622</v>
       </c>
       <c r="T9">
-        <v>-3.387041566092795e+35</v>
+        <v>-0.5274526104218951</v>
       </c>
       <c r="U9">
-        <v>5.118440940042035e+37</v>
+        <v>-0.4528963207996586</v>
       </c>
       <c r="V9">
-        <v>-7.650795938072243e+39</v>
+        <v>-0.3711975856512625</v>
       </c>
       <c r="W9">
-        <v>1.133252910168797e+42</v>
+        <v>-0.2836448428344577</v>
       </c>
       <c r="X9">
-        <v>-1.665834364901258e+44</v>
+        <v>-0.1916188514049367</v>
       </c>
       <c r="Y9">
-        <v>2.432931746448712e+46</v>
+        <v>-0.0965709162212065</v>
       </c>
       <c r="Z9">
-        <v>-3.533734463644438e+48</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="AA9">
-        <v>5.10837014065332e+50</v>
+        <v>0.09657091622120861</v>
       </c>
       <c r="AB9">
-        <v>-7.354541633145931e+52</v>
+        <v>0.1916188514049377</v>
       </c>
       <c r="AC9">
-        <v>1.055085795682558e+55</v>
+        <v>0.2836448428344596</v>
       </c>
       <c r="AD9">
-        <v>-1.508953492829492e+57</v>
+        <v>0.3711975856512637</v>
       </c>
       <c r="AE9">
-        <v>2.152220640175093e+59</v>
+        <v>0.4528963207996604</v>
       </c>
       <c r="AF9">
-        <v>-3.062407487446279e+61</v>
+        <v>0.5274526104218964</v>
       </c>
       <c r="AG9">
-        <v>4.348370849564245e+63</v>
+        <v>0.5936906572928637</v>
       </c>
       <c r="AH9">
-        <v>-6.162869406411705e+65</v>
+        <v>0.6505658478447129</v>
       </c>
       <c r="AI9">
-        <v>8.720140897113486e+67</v>
+        <v>0.6971812263468529</v>
       </c>
       <c r="AJ9">
-        <v>-1.23204835039944e+70</v>
+        <v>0.7328016404336233</v>
       </c>
       <c r="AK9">
-        <v>1.738462400825866e+72</v>
+        <v>0.7568653348962771</v>
       </c>
       <c r="AL9">
-        <v>-2.450175868615721e+74</v>
+        <v>0.7689928108981787</v>
       </c>
       <c r="AM9">
-        <v>3.449669337250793e+76</v>
+        <v>0.7689928108981801</v>
       </c>
       <c r="AN9">
-        <v>-4.852365969875107e+78</v>
+        <v>0.7568653348962764</v>
       </c>
       <c r="AO9">
-        <v>6.819738677904605e+80</v>
+        <v>0.7328016404336242</v>
       </c>
       <c r="AP9">
-        <v>-9.577619877887536e+82</v>
+        <v>0.6971812263468515</v>
       </c>
       <c r="AQ9">
-        <v>1.34417759591176e+85</v>
+        <v>0.6505658478447118</v>
       </c>
       <c r="AR9">
-        <v>-1.885362534191908e+87</v>
+        <v>0.593690657292862</v>
       </c>
       <c r="AS9">
-        <v>2.643011918525367e+89</v>
+        <v>-0.4646620908925831</v>
       </c>
       <c r="AT9">
-        <v>-3.703339548631778e+91</v>
+        <v>-0.5156868403289727</v>
       </c>
       <c r="AU9">
-        <v>5.186803933191465e+93</v>
+        <v>-0.5585789002369892</v>
       </c>
       <c r="AV9">
-        <v>-7.2616884098036e+95</v>
+        <v>-0.5926618372094064</v>
       </c>
       <c r="AW9">
-        <v>1.016306190892103e+98</v>
+        <v>-0.6173981429700111</v>
       </c>
       <c r="AX9">
-        <v>-1.421925152947884e+100</v>
+        <v>-0.6323977112002033</v>
       </c>
       <c r="AY9">
-        <v>1.988880224541244e+102</v>
+        <v>-0.6374239897486906</v>
       </c>
     </row>
     <row r="10" spans="1:51">
       <c r="A10">
-        <v>0.144</v>
+        <v>0.5358267949789965</v>
       </c>
       <c r="B10">
-        <v>0.07199999999999918</v>
+        <v>0.5316016406568811</v>
       </c>
       <c r="C10">
-        <v>-0.1439999999999538</v>
+        <v>0.5189928108981794</v>
       </c>
       <c r="D10">
-        <v>-0.5040000000032627</v>
+        <v>0.4981991544803361</v>
       </c>
       <c r="E10">
-        <v>-1.007999999730261</v>
+        <v>0.4695485997865887</v>
       </c>
       <c r="F10">
-        <v>-1.656000024594842</v>
+        <v>0.4334929831794692</v>
       </c>
       <c r="G10">
-        <v>-2.447997574062667</v>
+        <v>0.3906009232714531</v>
       </c>
       <c r="H10">
-        <v>-3.384258118879391</v>
+        <v>0.3415488534697654</v>
       </c>
       <c r="I10">
-        <v>-4.434349674462853</v>
+        <v>0.287110354217464</v>
       </c>
       <c r="J10">
-        <v>507799783332.7264</v>
+        <v>-0.7639707481467373</v>
       </c>
       <c r="K10">
-        <v>-282336679537720.6</v>
+        <v>-0.80300357543866</v>
       </c>
       <c r="L10">
-        <v>9.370378622026381e+16</v>
+        <v>-0.8293725566548313</v>
       </c>
       <c r="M10">
-        <v>-2.420709191498951e+19</v>
+        <v>-0.8426618372094048</v>
       </c>
       <c r="N10">
-        <v>5.380998570513663e+21</v>
+        <v>-0.8426618372094055</v>
       </c>
       <c r="O10">
-        <v>-1.082427202602577e+24</v>
+        <v>-0.8293725566548311</v>
       </c>
       <c r="P10">
-        <v>2.028704575745089e+26</v>
+        <v>-0.8030035754386604</v>
       </c>
       <c r="Q10">
-        <v>-3.608503720339424e+28</v>
+        <v>-0.7639707481467364</v>
       </c>
       <c r="R10">
-        <v>6.167289357130353e+30</v>
+        <v>-0.7128896457825362</v>
       </c>
       <c r="S10">
-        <v>-1.021616731042707e+33</v>
+        <v>-0.6505658478447118</v>
       </c>
       <c r="T10">
-        <v>1.650608886963103e+35</v>
+        <v>-0.5779822378571775</v>
       </c>
       <c r="U10">
-        <v>-2.613397336299407e+37</v>
+        <v>-0.4962835027087815</v>
       </c>
       <c r="V10">
-        <v>4.069413002293999e+39</v>
+        <v>-0.4067580802572746</v>
       </c>
       <c r="W10">
-        <v>-6.249388087140632e+41</v>
+        <v>-0.3108178398946105</v>
       </c>
       <c r="X10">
-        <v>9.486005876188989e+43</v>
+        <v>-0.2099758165232314</v>
       </c>
       <c r="Y10">
-        <v>-1.425739911563793e+46</v>
+        <v>-0.1058223490918084</v>
       </c>
       <c r="Z10">
-        <v>2.12487960474412e+48</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="AA10">
-        <v>-3.143977509006511e+50</v>
+        <v>0.1058223490918088</v>
       </c>
       <c r="AB10">
-        <v>4.622762663736226e+52</v>
+        <v>0.2099758165232337</v>
       </c>
       <c r="AC10">
-        <v>-6.760158638075919e+54</v>
+        <v>0.3108178398946118</v>
       </c>
       <c r="AD10">
-        <v>9.838869355291166e+56</v>
+        <v>0.4067580802572767</v>
       </c>
       <c r="AE10">
-        <v>-1.426004327063014e+59</v>
+        <v>0.4962835027087831</v>
       </c>
       <c r="AF10">
-        <v>2.059211103430609e+61</v>
+        <v>0.5779822378571794</v>
       </c>
       <c r="AG10">
-        <v>-2.963954586564508e+63</v>
+        <v>0.6505658478447134</v>
       </c>
       <c r="AH10">
-        <v>4.253961540246351e+65</v>
+        <v>0.7128896457825374</v>
       </c>
       <c r="AI10">
-        <v>-6.089844576898201e+67</v>
+        <v>0.7639707481467368</v>
       </c>
       <c r="AJ10">
-        <v>8.698227696942981e+69</v>
+        <v>0.8030035754386612</v>
       </c>
       <c r="AK10">
-        <v>-1.239861771456125e+72</v>
+        <v>0.8293725566548309</v>
       </c>
       <c r="AL10">
-        <v>1.764114350651609e+74</v>
+        <v>0.8426618372094062</v>
       </c>
       <c r="AM10">
-        <v>-2.505953922767684e+76</v>
+        <v>0.8426618372094046</v>
       </c>
       <c r="AN10">
-        <v>3.554550464422445e+78</v>
+        <v>0.8293725566548317</v>
       </c>
       <c r="AO10">
-        <v>-5.035303684709258e+80</v>
+        <v>0.8030035754386604</v>
       </c>
       <c r="AP10">
-        <v>7.124477466386464e+82</v>
+        <v>0.7639707481467369</v>
       </c>
       <c r="AQ10">
-        <v>-1.006972246733109e+85</v>
+        <v>0.712889645782536</v>
       </c>
       <c r="AR10">
-        <v>1.421884982683038e+87</v>
+        <v>-0.341548853469766</v>
       </c>
       <c r="AS10">
-        <v>-2.006016561031759e+89</v>
+        <v>-0.3906009232714532</v>
       </c>
       <c r="AT10">
-        <v>2.827900122426398e+91</v>
+        <v>-0.43349298317947</v>
       </c>
       <c r="AU10">
-        <v>-3.983693112292286e+93</v>
+        <v>-0.4695485997865895</v>
       </c>
       <c r="AV10">
-        <v>5.608276792622664e+95</v>
+        <v>-0.4981991544803375</v>
       </c>
       <c r="AW10">
-        <v>-7.89080636784508e+97</v>
+        <v>-0.5189928108981797</v>
       </c>
       <c r="AX10">
-        <v>1.109649403582238e+100</v>
+        <v>-0.5316016406568822</v>
       </c>
       <c r="AY10">
-        <v>-1.559712052700059e+102</v>
+        <v>-0.535826794978996</v>
       </c>
     </row>
     <row r="11" spans="1:51">
       <c r="A11">
-        <v>0.136125</v>
+        <v>0.4257792915650727</v>
       </c>
       <c r="B11">
-        <v>0.07762499999999939</v>
+        <v>0.4224218946769719</v>
       </c>
       <c r="C11">
-        <v>-0.09787499999995236</v>
+        <v>0.4124026521672071</v>
       </c>
       <c r="D11">
-        <v>-0.3903750000044095</v>
+        <v>0.3958795734753625</v>
       </c>
       <c r="E11">
-        <v>-0.7998749995299048</v>
+        <v>0.3731132374228171</v>
       </c>
       <c r="F11">
-        <v>-1.326375054296657</v>
+        <v>0.3444626827290696</v>
       </c>
       <c r="G11">
-        <v>-1.969868448247965</v>
+        <v>0.3103797457566522</v>
       </c>
       <c r="H11">
-        <v>-2.731183570093199</v>
+        <v>0.2714019347817792</v>
       </c>
       <c r="I11">
-        <v>-3.50704619849536</v>
+        <v>0.2281439531677406</v>
       </c>
       <c r="J11">
-        <v>-17.21846655629245</v>
+        <v>0.1812880051256556</v>
       </c>
       <c r="K11">
-        <v>18280792201886.45</v>
+        <v>-0.8605416643679447</v>
       </c>
       <c r="L11">
-        <v>-1.14437759175936e+16</v>
+        <v>-0.8888000777517888</v>
       </c>
       <c r="M11">
-        <v>4.186228290727639e+18</v>
+        <v>-0.9030415829660574</v>
       </c>
       <c r="N11">
-        <v>-1.17272462904495e+21</v>
+        <v>-0.9030415829660567</v>
       </c>
       <c r="O11">
-        <v>2.791153138102867e+23</v>
+        <v>-0.8888000777517893</v>
       </c>
       <c r="P11">
-        <v>-5.951373362982756e+25</v>
+        <v>-0.8605416643679442</v>
       </c>
       <c r="Q11">
-        <v>1.172824872706401e+28</v>
+        <v>-0.8187119948743447</v>
       </c>
       <c r="R11">
-        <v>-2.179215873373371e+30</v>
+        <v>-0.7639707481467362</v>
       </c>
       <c r="S11">
-        <v>3.869945814588808e+32</v>
+        <v>-0.6971812263468515</v>
       </c>
       <c r="T11">
-        <v>-6.631619814025915e+34</v>
+        <v>-0.6193967401315983</v>
       </c>
       <c r="U11">
-        <v>1.104336637105494e+37</v>
+        <v>-0.5318439973147935</v>
       </c>
       <c r="V11">
-        <v>-1.796593854340154e+39</v>
+        <v>-0.4359037569521296</v>
       </c>
       <c r="W11">
-        <v>2.867029666341956e+41</v>
+        <v>-0.3330890539460483</v>
       </c>
       <c r="X11">
-        <v>-4.502267298527281e+43</v>
+        <v>-0.2250213375814822</v>
       </c>
       <c r="Y11">
-        <v>6.975030499630293e+45</v>
+        <v>-0.1134049003020239</v>
       </c>
       <c r="Z11">
-        <v>-1.068222091013295e+48</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="AA11">
-        <v>1.619937902102632e+50</v>
+        <v>0.1134049003020261</v>
       </c>
       <c r="AB11">
-        <v>-2.435844953552568e+52</v>
+        <v>0.2250213375814828</v>
       </c>
       <c r="AC11">
-        <v>3.635865890131074e+54</v>
+        <v>0.3330890539460508</v>
       </c>
       <c r="AD11">
-        <v>-5.392439343344346e+56</v>
+        <v>0.4359037569521311</v>
       </c>
       <c r="AE11">
-        <v>7.952973131028284e+58</v>
+        <v>0.5318439973147957</v>
       </c>
       <c r="AF11">
-        <v>-1.167174219764242e+61</v>
+        <v>0.6193967401316001</v>
       </c>
       <c r="AG11">
-        <v>1.705515958106693e+63</v>
+        <v>0.6971812263468531</v>
       </c>
       <c r="AH11">
-        <v>-2.48259696632277e+65</v>
+        <v>0.7639707481467373</v>
       </c>
       <c r="AI11">
-        <v>3.601419906409476e+67</v>
+        <v>0.8187119948743458</v>
       </c>
       <c r="AJ11">
-        <v>-5.208592360335732e+69</v>
+        <v>0.8605416643679444</v>
       </c>
       <c r="AK11">
-        <v>7.512545239221655e+71</v>
+        <v>0.8888000777517904</v>
       </c>
       <c r="AL11">
-        <v>-1.080929307741789e+74</v>
+        <v>0.9030415829660567</v>
       </c>
       <c r="AM11">
-        <v>1.551883801416237e+76</v>
+        <v>0.9030415829660579</v>
       </c>
       <c r="AN11">
-        <v>-2.223658905141069e+78</v>
+        <v>0.8888000777517886</v>
       </c>
       <c r="AO11">
-        <v>3.180595605807688e+80</v>
+        <v>0.8605416643679444</v>
       </c>
       <c r="AP11">
-        <v>-4.542079486637564e+82</v>
+        <v>0.8187119948743449</v>
       </c>
       <c r="AQ11">
-        <v>6.476992228230338e+84</v>
+        <v>-0.2281439531677409</v>
       </c>
       <c r="AR11">
-        <v>-9.22409050192276e+86</v>
+        <v>-0.2714019347817792</v>
       </c>
       <c r="AS11">
-        <v>1.312073409814728e+89</v>
+        <v>-0.3103797457566529</v>
       </c>
       <c r="AT11">
-        <v>-1.864337196506862e+91</v>
+        <v>-0.34446268272907</v>
       </c>
       <c r="AU11">
-        <v>2.646458300226051e+93</v>
+        <v>-0.3731132374228183</v>
       </c>
       <c r="AV11">
-        <v>-3.753342096642078e+95</v>
+        <v>-0.3958795734753628</v>
       </c>
       <c r="AW11">
-        <v>5.318855885551419e+97</v>
+        <v>-0.4124026521672086</v>
       </c>
       <c r="AX11">
-        <v>-7.531758977637024e+99</v>
+        <v>-0.4224218946769726</v>
       </c>
       <c r="AY11">
-        <v>1.065812713861922e+102</v>
+        <v>-0.4257792915650739</v>
       </c>
     </row>
     <row r="12" spans="1:51">
       <c r="A12">
-        <v>0.125</v>
+        <v>0.3090169943749473</v>
       </c>
       <c r="B12">
-        <v>0.08000000000000096</v>
+        <v>0.3065803030753986</v>
       </c>
       <c r="C12">
-        <v>-0.05500000000007609</v>
+        <v>0.299308657254155</v>
       </c>
       <c r="D12">
-        <v>-0.2799999999922518</v>
+        <v>0.287316735109688</v>
       </c>
       <c r="E12">
-        <v>-0.5950000008640277</v>
+        <v>0.2707936564178434</v>
       </c>
       <c r="F12">
-        <v>-0.9999998989758199</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="G12">
-        <v>-1.495012148208096</v>
+        <v>0.2252636942393956</v>
       </c>
       <c r="H12">
-        <v>-2.078513118711366</v>
+        <v>0.1969748454546274</v>
       </c>
       <c r="I12">
-        <v>-2.939063770566614</v>
+        <v>0.1655795856899708</v>
       </c>
       <c r="J12">
-        <v>19.4304098679493</v>
+        <v>0.1315730369465332</v>
       </c>
       <c r="K12">
-        <v>-2878.507426894078</v>
+        <v>0.09549150281252672</v>
       </c>
       <c r="L12">
-        <v>329054259966428.7</v>
+        <v>-0.9342106906791707</v>
       </c>
       <c r="M12">
-        <v>-2.290217647308624e+17</v>
+        <v>-0.9491798235084409</v>
       </c>
       <c r="N12">
-        <v>9.202298519275094e+19</v>
+        <v>-0.9491798235084412</v>
       </c>
       <c r="O12">
-        <v>-2.804041927899385e+22</v>
+        <v>-0.9342106906791697</v>
       </c>
       <c r="P12">
-        <v>7.200833766877036e+24</v>
+        <v>-0.9045084971874735</v>
       </c>
       <c r="Q12">
-        <v>-1.645462135842408e+27</v>
+        <v>-0.8605416643679439</v>
       </c>
       <c r="R12">
-        <v>3.455217142994234e+29</v>
+        <v>-0.80300357543866</v>
       </c>
       <c r="S12">
-        <v>-6.807095379092853e+31</v>
+        <v>-0.7328016404336225</v>
       </c>
       <c r="T12">
-        <v>1.276187507641895e+34</v>
+        <v>-0.6510429858044675</v>
       </c>
       <c r="U12">
-        <v>-2.300041208240604e+36</v>
+        <v>-0.5590169943749465</v>
       </c>
       <c r="V12">
-        <v>4.014881142825536e+38</v>
+        <v>-0.4581749710035672</v>
       </c>
       <c r="W12">
-        <v>-6.826291113964426e+40</v>
+        <v>-0.3501072546390013</v>
       </c>
       <c r="X12">
-        <v>1.135466606110537e+43</v>
+        <v>-0.2365181377248408</v>
       </c>
       <c r="Y12">
-        <v>-1.854128070810955e+45</v>
+        <v>-0.1191989884896734</v>
       </c>
       <c r="Z12">
-        <v>2.980431416401083e+47</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="AA12">
-        <v>-4.726759473541189e+49</v>
+        <v>0.1191989884896745</v>
       </c>
       <c r="AB12">
-        <v>7.409496041373481e+51</v>
+        <v>0.2365181377248432</v>
       </c>
       <c r="AC12">
-        <v>-1.149776930668384e+54</v>
+        <v>0.3501072546390022</v>
       </c>
       <c r="AD12">
-        <v>1.768433914920654e+56</v>
+        <v>0.4581749710035699</v>
       </c>
       <c r="AE12">
-        <v>-2.698846312305842e+58</v>
+        <v>0.5590169943749481</v>
       </c>
       <c r="AF12">
-        <v>4.090487132444854e+60</v>
+        <v>0.6510429858044693</v>
       </c>
       <c r="AG12">
-        <v>-6.161912830745532e+62</v>
+        <v>0.7328016404336239</v>
       </c>
       <c r="AH12">
-        <v>9.23184519696281e+64</v>
+        <v>0.8030035754386613</v>
       </c>
       <c r="AI12">
-        <v>-1.376396216284386e+67</v>
+        <v>0.8605416643679449</v>
       </c>
       <c r="AJ12">
-        <v>2.043135439105033e+69</v>
+        <v>0.9045084971874748</v>
       </c>
       <c r="AK12">
-        <v>-3.020916366546428e+71</v>
+        <v>0.9342106906791703</v>
       </c>
       <c r="AL12">
-        <v>4.450756811522153e+73</v>
+        <v>0.9491798235084421</v>
       </c>
       <c r="AM12">
-        <v>-6.536247913447534e+75</v>
+        <v>0.9491798235084408</v>
       </c>
       <c r="AN12">
-        <v>9.570872038805583e+77</v>
+        <v>0.9342106906791707</v>
       </c>
       <c r="AO12">
-        <v>-1.3977100054649e+80</v>
+        <v>0.9045084971874731</v>
       </c>
       <c r="AP12">
-        <v>2.036229886793047e+82</v>
+        <v>-0.1315730369465334</v>
       </c>
       <c r="AQ12">
-        <v>-2.959861282974984e+84</v>
+        <v>-0.1655795856899703</v>
       </c>
       <c r="AR12">
-        <v>4.293701412125655e+86</v>
+        <v>-0.1969748454546278</v>
       </c>
       <c r="AS12">
-        <v>-6.217002460281623e+88</v>
+        <v>-0.225263694239396</v>
       </c>
       <c r="AT12">
-        <v>8.986372942742383e+90</v>
+        <v>-0.2500000000000012</v>
       </c>
       <c r="AU12">
-        <v>-1.296883888272973e+93</v>
+        <v>-0.2707936564178434</v>
       </c>
       <c r="AV12">
-        <v>1.86889282885508e+95</v>
+        <v>-0.2873167351096895</v>
       </c>
       <c r="AW12">
-        <v>-2.689569165379072e+97</v>
+        <v>-0.2993086572541557</v>
       </c>
       <c r="AX12">
-        <v>3.865805241571684e+99</v>
+        <v>-0.3065803030754003</v>
       </c>
       <c r="AY12">
-        <v>-5.550039978378399e+101</v>
+        <v>-0.309016994374948</v>
       </c>
     </row>
     <row r="13" spans="1:51">
       <c r="A13">
-        <v>0.111375</v>
+        <v>0.1873813145857246</v>
       </c>
       <c r="B13">
-        <v>0.07987500000000036</v>
+        <v>0.1859037569521304</v>
       </c>
       <c r="C13">
-        <v>-0.01462499999998033</v>
+        <v>0.1814943860178796</v>
       </c>
       <c r="D13">
-        <v>-0.1721250000045274</v>
+        <v>0.1742227401966359</v>
       </c>
       <c r="E13">
-        <v>-0.3926249993437068</v>
+        <v>0.1642034976868711</v>
       </c>
       <c r="F13">
-        <v>-0.6761250867416635</v>
+        <v>0.1515946679281694</v>
       </c>
       <c r="G13">
-        <v>-1.022613868203531</v>
+        <v>0.1365950996979754</v>
       </c>
       <c r="H13">
-        <v>-1.433538491811532</v>
+        <v>0.1194413451475872</v>
       </c>
       <c r="I13">
-        <v>-1.725802890127558</v>
+        <v>0.10040392923342</v>
       </c>
       <c r="J13">
-        <v>-25.04036121893513</v>
+        <v>0.07978308337684184</v>
       </c>
       <c r="K13">
-        <v>-9140396097304.428</v>
+        <v>0.05790401063530717</v>
       </c>
       <c r="L13">
-        <v>5721887958337621</v>
+        <v>0.03511175705587469</v>
       </c>
       <c r="M13">
-        <v>-2.075345215287346e+18</v>
+        <v>-0.9803489312215544</v>
       </c>
       <c r="N13">
-        <v>5.727513141208946e+20</v>
+        <v>-0.9803489312215539</v>
       </c>
       <c r="O13">
-        <v>-1.336126349121572e+23</v>
+        <v>-0.9648882429441253</v>
       </c>
       <c r="P13">
-        <v>2.780729439148605e+25</v>
+        <v>-0.9342106906791694</v>
       </c>
       <c r="Q13">
-        <v>-5.329733015280077e+27</v>
+        <v>-0.8888000777517889</v>
       </c>
       <c r="R13">
-        <v>9.601581163704613e+29</v>
+        <v>-0.8293725566548302</v>
       </c>
       <c r="S13">
-        <v>-1.648486416597626e+32</v>
+        <v>-0.7568653348962758</v>
       </c>
       <c r="T13">
-        <v>2.723903081122949e+34</v>
+        <v>-0.6724218946769707</v>
       </c>
       <c r="U13">
-        <v>-4.362866604921944e+36</v>
+        <v>-0.5773739594932411</v>
       </c>
       <c r="V13">
-        <v>6.810093215325497e+38</v>
+        <v>-0.4732204920618182</v>
       </c>
       <c r="W13">
-        <v>-1.040178619274023e+41</v>
+        <v>-0.3616040547823597</v>
       </c>
       <c r="X13">
-        <v>1.559573661180841e+43</v>
+        <v>-0.2442849055471924</v>
       </c>
       <c r="Y13">
-        <v>-2.300987962146889e+45</v>
+        <v>-0.1231132374228157</v>
       </c>
       <c r="Z13">
-        <v>3.347101757723195e+47</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="AA13">
-        <v>-4.807538873703297e+49</v>
+        <v>0.1231132374228183</v>
       </c>
       <c r="AB13">
-        <v>6.826241886443012e+51</v>
+        <v>0.2442849055471938</v>
       </c>
       <c r="AC13">
-        <v>-9.590210056499663e+53</v>
+        <v>0.3616040547823622</v>
       </c>
       <c r="AD13">
-        <v>1.333946150137536e+56</v>
+        <v>0.4732204920618192</v>
       </c>
       <c r="AE13">
-        <v>-1.837774360966463e+58</v>
+        <v>0.5773739594932435</v>
       </c>
       <c r="AF13">
-        <v>2.508292968016406e+60</v>
+        <v>0.6724218946769721</v>
       </c>
       <c r="AG13">
-        <v>-3.391506069527538e+62</v>
+        <v>0.7568653348962774</v>
       </c>
       <c r="AH13">
-        <v>4.541839895858355e+64</v>
+        <v>0.8293725566548317</v>
       </c>
       <c r="AI13">
-        <v>-6.021132226374421e+66</v>
+        <v>0.8888000777517905</v>
       </c>
       <c r="AJ13">
-        <v>7.895390303509167e+68</v>
+        <v>0.9342106906791706</v>
       </c>
       <c r="AK13">
-        <v>-1.022768382322864e+71</v>
+        <v>0.9648882429441265</v>
       </c>
       <c r="AL13">
-        <v>1.306459085699329e+73</v>
+        <v>0.9803489312215542</v>
       </c>
       <c r="AM13">
-        <v>-1.641216972291646e+75</v>
+        <v>0.9803489312215551</v>
       </c>
       <c r="AN13">
-        <v>2.019524461753912e+77</v>
+        <v>0.9648882429441251</v>
       </c>
       <c r="AO13">
-        <v>-2.419050733410095e+79</v>
+        <v>-0.05790401063530715</v>
       </c>
       <c r="AP13">
-        <v>2.791902276920133e+81</v>
+        <v>-0.07978308337684215</v>
       </c>
       <c r="AQ13">
-        <v>-3.047640698085441e+83</v>
+        <v>-0.1004039292334203</v>
       </c>
       <c r="AR13">
-        <v>3.026808965839776e+85</v>
+        <v>-0.1194413451475871</v>
       </c>
       <c r="AS13">
-        <v>-2.460102351293398e+87</v>
+        <v>-0.1365950996979761</v>
       </c>
       <c r="AT13">
-        <v>9.059551213503346e+88</v>
+        <v>-0.1515946679281693</v>
       </c>
       <c r="AU13">
-        <v>2.344161864457787e+91</v>
+        <v>-0.1642034976868724</v>
       </c>
       <c r="AV13">
-        <v>-8.408532993943156e+93</v>
+        <v>-0.1742227401966362</v>
       </c>
       <c r="AW13">
-        <v>1.902933230297441e+96</v>
+        <v>-0.1814943860178811</v>
       </c>
       <c r="AX13">
-        <v>-3.689223173484123e+98</v>
+        <v>-0.1859037569521311</v>
       </c>
       <c r="AY13">
-        <v>6.610146261368962e+100</v>
+        <v>-0.187381314585726</v>
       </c>
     </row>
     <row r="14" spans="1:51">
       <c r="A14">
-        <v>0.09599999999999999</v>
+        <v>0.06279051952931343</v>
       </c>
       <c r="B14">
-        <v>0.07800000000000029</v>
+        <v>0.0622953975282056</v>
       </c>
       <c r="C14">
-        <v>0.02399999999998857</v>
+        <v>0.06081783989461127</v>
       </c>
       <c r="D14">
-        <v>-0.06599999999832051</v>
+        <v>0.05838114859506267</v>
       </c>
       <c r="E14">
-        <v>-0.192000000269463</v>
+        <v>0.05502375170696196</v>
       </c>
       <c r="F14">
-        <v>-0.3539999604537269</v>
+        <v>0.0507985973848463</v>
       </c>
       <c r="G14">
-        <v>-0.5520054727030262</v>
+        <v>0.04577231883636103</v>
       </c>
       <c r="H14">
-        <v>-0.7852677475424772</v>
+        <v>0.04002418347676798</v>
       </c>
       <c r="I14">
-        <v>-1.152050174424378</v>
+        <v>0.0336448428344583</v>
       </c>
       <c r="J14">
-        <v>-253899891659.9577</v>
+        <v>0.02673490292219397</v>
       </c>
       <c r="K14">
-        <v>141168339767497.6</v>
+        <v>0.01940333762018982</v>
       </c>
       <c r="L14">
-        <v>-4.685189310996115e+16</v>
+        <v>0.0117657700929235</v>
       </c>
       <c r="M14">
-        <v>1.210354595747361e+19</v>
+        <v>0.003942649342761624</v>
       </c>
       <c r="N14">
-        <v>-2.689859603773581e+21</v>
+        <v>-0.9960573506572385</v>
       </c>
       <c r="O14">
-        <v>5.406788275831373e+23</v>
+        <v>-0.9803489312215535</v>
       </c>
       <c r="P14">
-        <v>-1.011829454477372e+26</v>
+        <v>-0.9491798235084408</v>
       </c>
       <c r="Q14">
-        <v>1.79539235968215e+28</v>
+        <v>-0.9030415829660557</v>
       </c>
       <c r="R14">
-        <v>-3.057824582267356e+30</v>
+        <v>-0.8426618372094048</v>
       </c>
       <c r="S14">
-        <v>5.04198344156553e+32</v>
+        <v>-0.7689928108981784</v>
       </c>
       <c r="T14">
-        <v>-8.099241109801728e+34</v>
+        <v>-0.6831963085850494</v>
       </c>
       <c r="U14">
-        <v>1.273437171431907e+37</v>
+        <v>-0.5866253923638424</v>
       </c>
       <c r="V14">
-        <v>-1.966809566691687e+39</v>
+        <v>-0.4808030432720336</v>
       </c>
       <c r="W14">
-        <v>2.992397802010825e+41</v>
+        <v>-0.3673981429700093</v>
       </c>
       <c r="X14">
-        <v>-4.494884431616726e+43</v>
+        <v>-0.2481991544803346</v>
       </c>
       <c r="Y14">
-        <v>6.677922908551208e+45</v>
+        <v>-0.1250859170575184</v>
       </c>
       <c r="Z14">
-        <v>-9.827091811104628e+47</v>
+        <v>1.443289932012704e-15</v>
       </c>
       <c r="AA14">
-        <v>1.434147998750362e+50</v>
+        <v>0.12508591705752</v>
       </c>
       <c r="AB14">
-        <v>-2.077705573547605e+52</v>
+        <v>0.2481991544803374</v>
       </c>
       <c r="AC14">
-        <v>2.990609454561228e+54</v>
+        <v>0.3673981429700108</v>
       </c>
       <c r="AD14">
-        <v>-4.279844909283857e+56</v>
+        <v>0.4808030432720359</v>
       </c>
       <c r="AE14">
-        <v>6.093247173291662e+58</v>
+        <v>0.5866253923638433</v>
       </c>
       <c r="AF14">
-        <v>-8.634611491756382e+60</v>
+        <v>0.6831963085850515</v>
       </c>
       <c r="AG14">
-        <v>1.218423637653964e+63</v>
+        <v>0.7689928108981797</v>
       </c>
       <c r="AH14">
-        <v>-1.712679922440871e+65</v>
+        <v>0.8426618372094067</v>
       </c>
       <c r="AI14">
-        <v>2.398910641016791e+67</v>
+        <v>0.9030415829660575</v>
       </c>
       <c r="AJ14">
-        <v>-3.349111195770271e+69</v>
+        <v>0.949179823508442</v>
       </c>
       <c r="AK14">
-        <v>4.661472399814093e+71</v>
+        <v>0.9803489312215544</v>
       </c>
       <c r="AL14">
-        <v>-6.469639836912008e+73</v>
+        <v>0.9960573506572395</v>
       </c>
       <c r="AM14">
-        <v>8.95514576638734e+75</v>
+        <v>0.9960573506572387</v>
       </c>
       <c r="AN14">
-        <v>-1.236406018291554e+78</v>
+        <v>-0.01176577009292279</v>
       </c>
       <c r="AO14">
-        <v>1.702923537681356e+80</v>
+        <v>-0.01940333762019009</v>
       </c>
       <c r="AP14">
-        <v>-2.339994056047127e+82</v>
+        <v>-0.02673490292219405</v>
       </c>
       <c r="AQ14">
-        <v>3.208122301699334e+84</v>
+        <v>-0.0336448428344589</v>
       </c>
       <c r="AR14">
-        <v>-4.388601645257701e+86</v>
+        <v>-0.04002418347676862</v>
       </c>
       <c r="AS14">
-        <v>5.990387503709829e+88</v>
+        <v>-0.04577231883636046</v>
       </c>
       <c r="AT14">
-        <v>-8.159127265195746e+90</v>
+        <v>-0.05079859738484727</v>
       </c>
       <c r="AU14">
-        <v>1.108896969014346e+93</v>
+        <v>-0.05502375170696217</v>
       </c>
       <c r="AV14">
-        <v>-1.50379300598284e+95</v>
+        <v>-0.05838114859506405</v>
       </c>
       <c r="AW14">
-        <v>2.034776388266335e+97</v>
+        <v>-0.06081783989461165</v>
       </c>
       <c r="AX14">
-        <v>-2.746949593445821e+99</v>
+        <v>-0.0622953975282069</v>
       </c>
       <c r="AY14">
-        <v>3.699594872398669e+101</v>
+        <v>-0.06279051952931403</v>
       </c>
     </row>
     <row r="15" spans="1:51">
       <c r="A15">
-        <v>0.07962499999999999</v>
+        <v>-0.06279051952931343</v>
       </c>
       <c r="B15">
-        <v>0.07512499999999989</v>
+        <v>-0.06229539752820568</v>
       </c>
       <c r="C15">
-        <v>0.06162500000000477</v>
+        <v>-0.06081783989461136</v>
       </c>
       <c r="D15">
-        <v>0.03912500000030761</v>
+        <v>-0.05838114859506267</v>
       </c>
       <c r="E15">
-        <v>0.007624999918305272</v>
+        <v>-0.0550237517069621</v>
       </c>
       <c r="F15">
-        <v>-0.03287498838981917</v>
+        <v>-0.05079859738484644</v>
       </c>
       <c r="G15">
-        <v>-0.08237643171891433</v>
+        <v>-0.04577231883636108</v>
       </c>
       <c r="H15">
-        <v>-0.1407058963857122</v>
+        <v>-0.0400241834767679</v>
       </c>
       <c r="I15">
-        <v>-7052774768.868266</v>
+        <v>-0.03364484283445805</v>
       </c>
       <c r="J15">
-        <v>3427648537561.134</v>
+        <v>-0.02673490292219372</v>
       </c>
       <c r="K15">
-        <v>-1017814137961806</v>
+        <v>-0.0194033376201897</v>
       </c>
       <c r="L15">
-        <v>2.393907400448872e+17</v>
+        <v>-0.01176577009292325</v>
       </c>
       <c r="M15">
-        <v>-4.910960585814428e+19</v>
+        <v>-0.003942649342760708</v>
       </c>
       <c r="N15">
-        <v>9.216158654349774e+21</v>
+        <v>0.003942649342761957</v>
       </c>
       <c r="O15">
-        <v>-1.625779514435658e+24</v>
+        <v>-0.9803489312215541</v>
       </c>
       <c r="P15">
-        <v>2.741832082281663e+26</v>
+        <v>-0.94917982350844</v>
       </c>
       <c r="Q15">
-        <v>-4.470224235792267e+28</v>
+        <v>-0.9030415829660565</v>
       </c>
       <c r="R15">
-        <v>7.100080142558282e+30</v>
+        <v>-0.8426618372094038</v>
       </c>
       <c r="S15">
-        <v>-1.104639825885816e+33</v>
+        <v>-0.7689928108981785</v>
       </c>
       <c r="T15">
-        <v>1.690222785166043e+35</v>
+        <v>-0.68319630858505</v>
       </c>
       <c r="U15">
-        <v>-2.55117039256461e+37</v>
+        <v>-0.5866253923638418</v>
       </c>
       <c r="V15">
-        <v>3.807208592477973e+39</v>
+        <v>-0.4808030432720335</v>
       </c>
       <c r="W15">
-        <v>-5.62760652285325e+41</v>
+        <v>-0.3673981429700085</v>
       </c>
       <c r="X15">
-        <v>8.250990356040553e+43</v>
+        <v>-0.2481991544803352</v>
       </c>
       <c r="Y15">
-        <v>-1.201288776996962e+46</v>
+        <v>-0.1250859170575175</v>
       </c>
       <c r="Z15">
-        <v>1.738396355344691e+48</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="AA15">
-        <v>-2.50230234968651e+50</v>
+        <v>0.1250859170575205</v>
       </c>
       <c r="AB15">
-        <v>3.585039611016199e+52</v>
+        <v>0.248199154480337</v>
       </c>
       <c r="AC15">
-        <v>-5.114940276706567e+54</v>
+        <v>0.3673981429700111</v>
       </c>
       <c r="AD15">
-        <v>7.270650510246961e+56</v>
+        <v>0.4808030432720349</v>
       </c>
       <c r="AE15">
-        <v>-1.030046579165339e+59</v>
+        <v>0.5866253923638439</v>
       </c>
       <c r="AF15">
-        <v>1.454897830150444e+61</v>
+        <v>0.6831963085850508</v>
       </c>
       <c r="AG15">
-        <v>-2.049376399152841e+63</v>
+        <v>0.7689928108981808</v>
       </c>
       <c r="AH15">
-        <v>2.879584170614014e+65</v>
+        <v>0.8426618372094057</v>
       </c>
       <c r="AI15">
-        <v>-4.036900708059118e+67</v>
+        <v>0.9030415829660582</v>
       </c>
       <c r="AJ15">
-        <v>5.647501119201875e+69</v>
+        <v>0.9491798235084412</v>
       </c>
       <c r="AK15">
-        <v>-7.885409584793027e+71</v>
+        <v>0.9803489312215551</v>
       </c>
       <c r="AL15">
-        <v>1.099038543593655e+74</v>
+        <v>0.996057350657239</v>
       </c>
       <c r="AM15">
-        <v>-1.529240833445307e+76</v>
+        <v>0.003942649342761673</v>
       </c>
       <c r="AN15">
-        <v>2.124516654754977e+78</v>
+        <v>0.01176577009292346</v>
       </c>
       <c r="AO15">
-        <v>-2.947181649636786e+80</v>
+        <v>0.01940333762019031</v>
       </c>
       <c r="AP15">
-        <v>4.082745202363856e+82</v>
+        <v>0.02673490292219316</v>
       </c>
       <c r="AQ15">
-        <v>-5.648430467618598e+84</v>
+        <v>0.03364484283445768</v>
       </c>
       <c r="AR15">
-        <v>7.804783448581601e+86</v>
+        <v>0.04002418347676773</v>
       </c>
       <c r="AS15">
-        <v>-1.077147552254675e+89</v>
+        <v>0.04577231883636024</v>
       </c>
       <c r="AT15">
-        <v>1.484879238580056e+91</v>
+        <v>0.05079859738484671</v>
       </c>
       <c r="AU15">
-        <v>-2.044682504604161e+93</v>
+        <v>0.05502375170696105</v>
       </c>
       <c r="AV15">
-        <v>2.812508034870678e+95</v>
+        <v>0.05838114859506238</v>
       </c>
       <c r="AW15">
-        <v>-3.864616936807479e+97</v>
+        <v>0.0608178398946102</v>
       </c>
       <c r="AX15">
-        <v>5.304849080196802e+99</v>
+        <v>0.06229539752820545</v>
       </c>
       <c r="AY15">
-        <v>-7.274450725624655e+101</v>
+        <v>0.06279051952931203</v>
       </c>
     </row>
     <row r="16" spans="1:51">
       <c r="A16">
-        <v>0.063</v>
+        <v>-0.1873813145857248</v>
       </c>
       <c r="B16">
-        <v>0.07199999999999962</v>
+        <v>-0.1859037569521304</v>
       </c>
       <c r="C16">
-        <v>0.09900000000002923</v>
+        <v>-0.1814943860178796</v>
       </c>
       <c r="D16">
-        <v>0.1439999999966495</v>
+        <v>-0.1742227401966361</v>
       </c>
       <c r="E16">
-        <v>0.2070000004331257</v>
+        <v>-0.1642034976868711</v>
       </c>
       <c r="F16">
-        <v>0.2879999432568394</v>
+        <v>-0.1515946679281695</v>
       </c>
       <c r="G16">
-        <v>0.3870073864502614</v>
+        <v>-0.1365950996979754</v>
       </c>
       <c r="H16">
-        <v>-195910409.736956</v>
+        <v>-0.1194413451475871</v>
       </c>
       <c r="I16">
-        <v>81498730660.60246</v>
+        <v>-0.1004039292334199</v>
       </c>
       <c r="J16">
-        <v>-21354038805764.92</v>
+        <v>-0.07978308337684173</v>
       </c>
       <c r="K16">
-        <v>4529586605679677</v>
+        <v>-0.05790401063530679</v>
       </c>
       <c r="L16">
-        <v>-8.518501032550428e+17</v>
+        <v>-0.03511175705587391</v>
       </c>
       <c r="M16">
-        <v>1.484166105708519e+20</v>
+        <v>-0.01176577009292291</v>
       </c>
       <c r="N16">
-        <v>-2.455173812503286e+22</v>
+        <v>0.01176577009292375</v>
       </c>
       <c r="O16">
-        <v>3.914539460648102e+24</v>
+        <v>0.0351117570558755</v>
       </c>
       <c r="P16">
-        <v>-6.074571534818591e+26</v>
+        <v>-0.93421069067917</v>
       </c>
       <c r="Q16">
-        <v>9.235711420073191e+28</v>
+        <v>-0.8888000777517882</v>
       </c>
       <c r="R16">
-        <v>-1.382214536631859e+31</v>
+        <v>-0.8293725566548301</v>
       </c>
       <c r="S16">
-        <v>2.043151399863997e+33</v>
+        <v>-0.7568653348962753</v>
       </c>
       <c r="T16">
-        <v>-2.990422852716963e+35</v>
+        <v>-0.672421894676971</v>
       </c>
       <c r="U16">
-        <v>4.342002661793821e+37</v>
+        <v>-0.5773739594932412</v>
       </c>
       <c r="V16">
-        <v>-6.263233836524774e+39</v>
+        <v>-0.4732204920618167</v>
       </c>
       <c r="W16">
-        <v>8.985509172718413e+41</v>
+        <v>-0.3616040547823595</v>
       </c>
       <c r="X16">
-        <v>-1.283221912780972e+44</v>
+        <v>-0.2442849055471914</v>
       </c>
       <c r="Y16">
-        <v>1.825476379562595e+46</v>
+        <v>-0.1231132374228159</v>
       </c>
       <c r="Z16">
-        <v>-2.588249235064331e+48</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="AA16">
-        <v>3.659190350891794e+50</v>
+        <v>0.123113237422818</v>
       </c>
       <c r="AB16">
-        <v>-5.16024659098072e+52</v>
+        <v>0.2442849055471942</v>
       </c>
       <c r="AC16">
-        <v>7.26092060242062e+54</v>
+        <v>0.3616040547823611</v>
       </c>
       <c r="AD16">
-        <v>-1.019660489212777e+57</v>
+        <v>0.473220492061819</v>
       </c>
       <c r="AE16">
-        <v>1.42939175833697e+59</v>
+        <v>0.5773739594932423</v>
       </c>
       <c r="AF16">
-        <v>-2.000569191672827e+61</v>
+        <v>0.6724218946769733</v>
       </c>
       <c r="AG16">
-        <v>2.795926865096148e+63</v>
+        <v>0.7568653348962768</v>
       </c>
       <c r="AH16">
-        <v>-3.902310983862526e+65</v>
+        <v>0.8293725566548322</v>
       </c>
       <c r="AI16">
-        <v>5.439863197809749e+67</v>
+        <v>0.8888000777517893</v>
       </c>
       <c r="AJ16">
-        <v>-7.574673502625615e+69</v>
+        <v>0.9342106906791712</v>
       </c>
       <c r="AK16">
-        <v>1.053620392433411e+72</v>
+        <v>0.9648882429441259</v>
       </c>
       <c r="AL16">
-        <v>-1.464126869157678e+74</v>
+        <v>-0.01176577009292279</v>
       </c>
       <c r="AM16">
-        <v>2.032702021132438e+76</v>
+        <v>0.01176577009292379</v>
       </c>
       <c r="AN16">
-        <v>-2.819629857796353e+78</v>
+        <v>0.03511175705587477</v>
       </c>
       <c r="AO16">
-        <v>3.907994515884144e+80</v>
+        <v>0.0579040106353067</v>
       </c>
       <c r="AP16">
-        <v>-5.412238010977492e+82</v>
+        <v>0.07978308337684203</v>
       </c>
       <c r="AQ16">
-        <v>7.489906575436268e+84</v>
+        <v>0.1004039292334198</v>
       </c>
       <c r="AR16">
-        <v>-1.035776488692672e+87</v>
+        <v>0.1194413451475865</v>
       </c>
       <c r="AS16">
-        <v>1.431389026951987e+89</v>
+        <v>0.1365950996979749</v>
       </c>
       <c r="AT16">
-        <v>-1.97679491890639e+91</v>
+        <v>0.1515946679281686</v>
       </c>
       <c r="AU16">
-        <v>2.728266279795719e+93</v>
+        <v>0.1642034976868713</v>
       </c>
       <c r="AV16">
-        <v>-3.763056384707339e+95</v>
+        <v>0.1742227401966353</v>
       </c>
       <c r="AW16">
-        <v>5.187163820719926e+97</v>
+        <v>0.1814943860178795</v>
       </c>
       <c r="AX16">
-        <v>-7.145947159833551e+99</v>
+        <v>0.1859037569521291</v>
       </c>
       <c r="AY16">
-        <v>9.838627662712091e+101</v>
+        <v>0.1873813145857246</v>
       </c>
     </row>
     <row r="17" spans="1:51">
       <c r="A17">
-        <v>0.04687499999999999</v>
+        <v>-0.3090169943749473</v>
       </c>
       <c r="B17">
-        <v>0.06937500000000019</v>
+        <v>-0.3065803030753987</v>
       </c>
       <c r="C17">
-        <v>0.136874999999959</v>
+        <v>-0.2993086572541551</v>
       </c>
       <c r="D17">
-        <v>0.2493750000052095</v>
+        <v>-0.287316735109688</v>
       </c>
       <c r="E17">
-        <v>0.4068749993475915</v>
+        <v>-0.2707936564178435</v>
       </c>
       <c r="F17">
-        <v>0.609375083247101</v>
+        <v>-0.25</v>
       </c>
       <c r="G17">
-        <v>-5441954.983135764</v>
+        <v>-0.2252636942393955</v>
       </c>
       <c r="H17">
-        <v>1882916721.790777</v>
+        <v>-0.1969748454546274</v>
       </c>
       <c r="I17">
-        <v>-427650657729.2563</v>
+        <v>-0.1655795856899708</v>
       </c>
       <c r="J17">
-        <v>80874723351516.47</v>
+        <v>-0.131573036946533</v>
       </c>
       <c r="K17">
-        <v>-1.383775238693461e+16</v>
+        <v>-0.09549150281252594</v>
       </c>
       <c r="L17">
-        <v>2.227043507999686e+18</v>
+        <v>-0.05790401063530645</v>
       </c>
       <c r="M17">
-        <v>-3.443189284523134e+20</v>
+        <v>-0.01940333762018945</v>
       </c>
       <c r="N17">
-        <v>5.178568047082725e+22</v>
+        <v>0.01940333762019063</v>
       </c>
       <c r="O17">
-        <v>-7.637107790414814e+24</v>
+        <v>0.05790401063530789</v>
       </c>
       <c r="P17">
-        <v>1.110234236118012e+27</v>
+        <v>0.09549150281252734</v>
       </c>
       <c r="Q17">
-        <v>-1.596798362371007e+29</v>
+        <v>-0.8605416643679437</v>
       </c>
       <c r="R17">
-        <v>2.278029711677216e+31</v>
+        <v>-0.8030035754386595</v>
       </c>
       <c r="S17">
-        <v>-3.229679880408151e+33</v>
+        <v>-0.7328016404336225</v>
       </c>
       <c r="T17">
-        <v>4.556752159367105e+35</v>
+        <v>-0.6510429858044666</v>
       </c>
       <c r="U17">
-        <v>-6.404749095086417e+37</v>
+        <v>-0.559016994374946</v>
       </c>
       <c r="V17">
-        <v>8.975234983681058e+39</v>
+        <v>-0.4581749710035672</v>
       </c>
       <c r="W17">
-        <v>-1.254736300573143e+42</v>
+        <v>-0.3501072546389996</v>
       </c>
       <c r="X17">
-        <v>1.750764563583839e+44</v>
+        <v>-0.2365181377248401</v>
       </c>
       <c r="Y17">
-        <v>-2.439111477341351e+46</v>
+        <v>-0.1191989884896724</v>
       </c>
       <c r="Z17">
-        <v>3.393821516835083e+48</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="AA17">
-        <v>-4.717342567757856e+50</v>
+        <v>0.1191989884896753</v>
       </c>
       <c r="AB17">
-        <v>6.551387910564933e+52</v>
+        <v>0.2365181377248421</v>
       </c>
       <c r="AC17">
-        <v>-9.091938876327976e+54</v>
+        <v>0.3501072546390022</v>
       </c>
       <c r="AD17">
-        <v>1.260996129792108e+57</v>
+        <v>0.4581749710035685</v>
       </c>
       <c r="AE17">
-        <v>-1.748000439962076e+59</v>
+        <v>0.5590169943749485</v>
       </c>
       <c r="AF17">
-        <v>2.421967086796789e+61</v>
+        <v>0.6510429858044684</v>
       </c>
       <c r="AG17">
-        <v>-3.354407587553795e+63</v>
+        <v>0.7328016404336247</v>
       </c>
       <c r="AH17">
-        <v>4.644096667698459e+65</v>
+        <v>0.8030035754386604</v>
       </c>
       <c r="AI17">
-        <v>-6.427431223210819e+67</v>
+        <v>0.8605416643679452</v>
       </c>
       <c r="AJ17">
-        <v>8.89271126639801e+69</v>
+        <v>0.9045084971874739</v>
       </c>
       <c r="AK17">
-        <v>-1.229982211491021e+72</v>
+        <v>-0.0579040106353067</v>
       </c>
       <c r="AL17">
-        <v>1.700735275187754e+74</v>
+        <v>-0.01940333762018931</v>
       </c>
       <c r="AM17">
-        <v>-2.350994876806255e+76</v>
+        <v>0.01940333762019031</v>
       </c>
       <c r="AN17">
-        <v>3.248974694213939e+78</v>
+        <v>0.05790401063530703</v>
       </c>
       <c r="AO17">
-        <v>-4.488717830486465e+80</v>
+        <v>0.0954915028125265</v>
       </c>
       <c r="AP17">
-        <v>6.199840262090622e+82</v>
+        <v>0.1315730369465333</v>
       </c>
       <c r="AQ17">
-        <v>-8.560934832165932e+84</v>
+        <v>0.1655795856899709</v>
       </c>
       <c r="AR17">
-        <v>1.181800499399816e+87</v>
+        <v>0.196974845454627</v>
       </c>
       <c r="AS17">
-        <v>-1.630980719103291e+89</v>
+        <v>0.2252636942393949</v>
       </c>
       <c r="AT17">
-        <v>2.250267915486448e+91</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="AU17">
-        <v>-3.103838796346468e+93</v>
+        <v>0.2707936564178428</v>
       </c>
       <c r="AV17">
-        <v>4.279984126387011e+95</v>
+        <v>0.2873167351096884</v>
       </c>
       <c r="AW17">
-        <v>-5.900129704770502e+97</v>
+        <v>0.2993086572541542</v>
       </c>
       <c r="AX17">
-        <v>8.13121582872175e+99</v>
+        <v>0.3065803030753986</v>
       </c>
       <c r="AY17">
-        <v>-1.120267891810843e+102</v>
+        <v>0.309016994374946</v>
       </c>
     </row>
     <row r="18" spans="1:51">
       <c r="A18">
-        <v>0.032</v>
+        <v>-0.4257792915650727</v>
       </c>
       <c r="B18">
-        <v>0.06799999999999962</v>
+        <v>-0.4224218946769721</v>
       </c>
       <c r="C18">
-        <v>0.1760000000000357</v>
+        <v>-0.4124026521672072</v>
       </c>
       <c r="D18">
-        <v>0.3559999999953565</v>
+        <v>-0.3958795734753625</v>
       </c>
       <c r="E18">
-        <v>0.6080000006108666</v>
+        <v>-0.373113237422817</v>
       </c>
       <c r="F18">
-        <v>-151164.5080000804</v>
+        <v>-0.3444626827290695</v>
       </c>
       <c r="G18">
-        <v>41721662.76801062</v>
+        <v>-0.3103797457566521</v>
       </c>
       <c r="H18">
-        <v>-8022198733.56541</v>
+        <v>-0.2714019347817792</v>
       </c>
       <c r="I18">
-        <v>1333530720094.684</v>
+        <v>-0.2281439531677405</v>
       </c>
       <c r="J18">
-        <v>-205783444610518.2</v>
+        <v>-0.181288005125655</v>
       </c>
       <c r="K18">
-        <v>3.04282388286985e+16</v>
+        <v>-0.1315730369465327</v>
       </c>
       <c r="L18">
-        <v>-4.382586581320578e+18</v>
+        <v>-0.07978308337684148</v>
       </c>
       <c r="M18">
-        <v>6.206273483922951e+20</v>
+        <v>-0.02673490292219291</v>
       </c>
       <c r="N18">
-        <v>-8.690533066344935e+22</v>
+        <v>0.02673490292219469</v>
       </c>
       <c r="O18">
-        <v>1.207680710794761e+25</v>
+        <v>0.07978308337684246</v>
       </c>
       <c r="P18">
-        <v>-1.669517202535649e+27</v>
+        <v>0.1315730369465342</v>
       </c>
       <c r="Q18">
-        <v>2.299711861995798e+29</v>
+        <v>0.1812880051256561</v>
       </c>
       <c r="R18">
-        <v>-3.160059802452411e+31</v>
+        <v>-0.7639707481467359</v>
       </c>
       <c r="S18">
-        <v>4.335193172504246e+33</v>
+        <v>-0.6971812263468509</v>
       </c>
       <c r="T18">
-        <v>-5.94109256816494e+35</v>
+        <v>-0.6193967401315976</v>
       </c>
       <c r="U18">
-        <v>8.136792594696465e+37</v>
+        <v>-0.5318439973147926</v>
       </c>
       <c r="V18">
-        <v>-1.114048558587578e+40</v>
+        <v>-0.4359037569521289</v>
       </c>
       <c r="W18">
-        <v>1.525168264762813e+42</v>
+        <v>-0.3330890539460478</v>
       </c>
       <c r="X18">
-        <v>-2.088171855171031e+44</v>
+        <v>-0.2250213375814806</v>
       </c>
       <c r="Y18">
-        <v>2.85957517363878e+46</v>
+        <v>-0.1134049003020231</v>
       </c>
       <c r="Z18">
-        <v>-3.917060256938532e+48</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="AA18">
-        <v>5.367441580458533e+50</v>
+        <v>0.1134049003020252</v>
       </c>
       <c r="AB18">
-        <v>-7.357639723433997e+52</v>
+        <v>0.2250213375814832</v>
       </c>
       <c r="AC18">
-        <v>1.008979946225315e+55</v>
+        <v>0.3330890539460495</v>
       </c>
       <c r="AD18">
-        <v>-1.38421192327712e+57</v>
+        <v>0.4359037569521316</v>
       </c>
       <c r="AE18">
-        <v>1.89975512620835e+59</v>
+        <v>0.5318439973147947</v>
       </c>
       <c r="AF18">
-        <v>-2.608334771771726e+61</v>
+        <v>0.6193967401315998</v>
       </c>
       <c r="AG18">
-        <v>3.582555226902413e+63</v>
+        <v>0.6971812263468519</v>
       </c>
       <c r="AH18">
-        <v>-4.922408451083732e+65</v>
+        <v>0.7639707481467377</v>
       </c>
       <c r="AI18">
-        <v>6.765619635015819e+67</v>
+        <v>0.818711994874345</v>
       </c>
       <c r="AJ18">
-        <v>-9.301901418357505e+69</v>
+        <v>-0.1315730369465327</v>
       </c>
       <c r="AK18">
-        <v>1.279259202724099e+72</v>
+        <v>-0.07978308337684126</v>
       </c>
       <c r="AL18">
-        <v>-1.759770859720034e+74</v>
+        <v>-0.0267349029221936</v>
       </c>
       <c r="AM18">
-        <v>2.421321184359448e+76</v>
+        <v>0.02673490292219394</v>
       </c>
       <c r="AN18">
-        <v>-3.332233042271392e+78</v>
+        <v>0.07978308337684203</v>
       </c>
       <c r="AO18">
-        <v>4.586624034725627e+80</v>
+        <v>0.1315730369465337</v>
       </c>
       <c r="AP18">
-        <v>-6.314138434815691e+82</v>
+        <v>0.1812880051256553</v>
       </c>
       <c r="AQ18">
-        <v>8.693345078753218e+84</v>
+        <v>0.2281439531677405</v>
       </c>
       <c r="AR18">
-        <v>-1.197017897062166e+87</v>
+        <v>0.2714019347817792</v>
       </c>
       <c r="AS18">
-        <v>1.648332062392689e+89</v>
+        <v>0.3103797457566515</v>
       </c>
       <c r="AT18">
-        <v>-2.269911618809902e+91</v>
+        <v>0.3444626827290691</v>
       </c>
       <c r="AU18">
-        <v>3.125961486137703e+93</v>
+        <v>0.3731132374228165</v>
       </c>
       <c r="AV18">
-        <v>-4.304863615790522e+95</v>
+        <v>0.3958795734753617</v>
       </c>
       <c r="AW18">
-        <v>5.928261273155177e+97</v>
+        <v>0.4124026521672075</v>
       </c>
       <c r="AX18">
-        <v>-8.163546870648909e+99</v>
+        <v>0.4224218946769711</v>
       </c>
       <c r="AY18">
-        <v>1.124102406344412e+102</v>
+        <v>0.4257792915650722</v>
       </c>
     </row>
     <row r="19" spans="1:51">
       <c r="A19">
-        <v>0.019125</v>
+        <v>-0.5358267949789968</v>
       </c>
       <c r="B19">
-        <v>0.06862500000000005</v>
+        <v>-0.5316016406568811</v>
       </c>
       <c r="C19">
-        <v>0.2171249999999814</v>
+        <v>-0.5189928108981794</v>
       </c>
       <c r="D19">
-        <v>0.4646250000027309</v>
+        <v>-0.4981991544803361</v>
       </c>
       <c r="E19">
-        <v>-4198.228875000393</v>
+        <v>-0.4695485997865885</v>
       </c>
       <c r="F19">
-        <v>865003.4966250556</v>
+        <v>-0.433492983179469</v>
       </c>
       <c r="G19">
-        <v>-136275642.3588828</v>
+        <v>-0.3906009232714531</v>
       </c>
       <c r="H19">
-        <v>19562042456.20571</v>
+        <v>-0.3415488534697652</v>
       </c>
       <c r="I19">
-        <v>-2695802575676.962</v>
+        <v>-0.2871103542174633</v>
       </c>
       <c r="J19">
-        <v>364256699889659.2</v>
+        <v>-0.2281439531677402</v>
       </c>
       <c r="K19">
-        <v>-4.874046002296241e+16</v>
+        <v>-0.1655795856899705</v>
       </c>
       <c r="L19">
-        <v>6.49175415696374e+18</v>
+        <v>-0.1004039292334191</v>
       </c>
       <c r="M19">
-        <v>-8.630643732857423e+20</v>
+        <v>-0.03364484283445734</v>
       </c>
       <c r="N19">
-        <v>1.147158358862436e+23</v>
+        <v>0.03364484283445893</v>
       </c>
       <c r="O19">
-        <v>-1.525810360708462e+25</v>
+        <v>0.100403929233421</v>
       </c>
       <c r="P19">
-        <v>2.031906286915106e+27</v>
+        <v>0.1655795856899712</v>
       </c>
       <c r="Q19">
-        <v>-2.709947334227899e+29</v>
+        <v>0.2281439531677419</v>
       </c>
       <c r="R19">
-        <v>3.620251627138778e+31</v>
+        <v>0.2871103542174648</v>
       </c>
       <c r="S19">
-        <v>-4.844690545681332e+33</v>
+        <v>-0.6505658478447109</v>
       </c>
       <c r="T19">
-        <v>6.494529274794724e+35</v>
+        <v>-0.5779822378571768</v>
       </c>
       <c r="U19">
-        <v>-8.721153346149873e+37</v>
+        <v>-0.4962835027087806</v>
       </c>
       <c r="V19">
-        <v>1.173075506291493e+40</v>
+        <v>-0.4067580802572732</v>
       </c>
       <c r="W19">
-        <v>-1.580445573573857e+42</v>
+        <v>-0.3108178398946099</v>
       </c>
       <c r="X19">
-        <v>2.132589302653759e+44</v>
+        <v>-0.2099758165232308</v>
       </c>
       <c r="Y19">
-        <v>-2.881906446483379e+46</v>
+        <v>-0.1058223490918069</v>
       </c>
       <c r="Z19">
-        <v>3.90002670016193e+48</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="AA19">
-        <v>-5.284941663183027e+50</v>
+        <v>0.1058223490918093</v>
       </c>
       <c r="AB19">
-        <v>7.170802089455608e+52</v>
+        <v>0.2099758165232326</v>
       </c>
       <c r="AC19">
-        <v>-9.741381604689642e+54</v>
+        <v>0.3108178398946126</v>
       </c>
       <c r="AD19">
-        <v>1.324858531066192e+57</v>
+        <v>0.4067580802572757</v>
       </c>
       <c r="AE19">
-        <v>-1.803790128421839e+59</v>
+        <v>0.4962835027087831</v>
       </c>
       <c r="AF19">
-        <v>2.458340863688837e+61</v>
+        <v>0.5779822378571782</v>
       </c>
       <c r="AG19">
-        <v>-3.353594150582929e+63</v>
+        <v>0.6505658478447129</v>
       </c>
       <c r="AH19">
-        <v>4.578936595579032e+65</v>
+        <v>0.7128896457825364</v>
       </c>
       <c r="AI19">
-        <v>-6.25717965093235e+67</v>
+        <v>-0.2281439531677402</v>
       </c>
       <c r="AJ19">
-        <v>8.557115390141539e+69</v>
+        <v>-0.1655795856899702</v>
       </c>
       <c r="AK19">
-        <v>-1.171080113029391e+72</v>
+        <v>-0.1004039292334196</v>
       </c>
       <c r="AL19">
-        <v>1.60373558168918e+74</v>
+        <v>-0.03364484283445801</v>
       </c>
       <c r="AM19">
-        <v>-2.197572318487497e+76</v>
+        <v>0.03364484283445812</v>
       </c>
       <c r="AN19">
-        <v>3.012978187047418e+78</v>
+        <v>0.1004039292334206</v>
       </c>
       <c r="AO19">
-        <v>-4.133045596769034e+80</v>
+        <v>0.1655795856899709</v>
       </c>
       <c r="AP19">
-        <v>5.67212317342523e+82</v>
+        <v>0.2281439531677408</v>
       </c>
       <c r="AQ19">
-        <v>-7.787589693772649e+84</v>
+        <v>0.2871103542174637</v>
       </c>
       <c r="AR19">
-        <v>1.069606355877851e+87</v>
+        <v>0.341548853469765</v>
       </c>
       <c r="AS19">
-        <v>-1.469571716798726e+89</v>
+        <v>0.3906009232714535</v>
       </c>
       <c r="AT19">
-        <v>2.019699268338582e+91</v>
+        <v>0.4334929831794686</v>
       </c>
       <c r="AU19">
-        <v>-2.776487777698008e+93</v>
+        <v>0.469548599786588</v>
       </c>
       <c r="AV19">
-        <v>3.817708479864172e+95</v>
+        <v>0.4981991544803357</v>
       </c>
       <c r="AW19">
-        <v>-5.250410478012453e+97</v>
+        <v>0.5189928108981786</v>
       </c>
       <c r="AX19">
-        <v>7.221934393826024e+99</v>
+        <v>0.5316016406568811</v>
       </c>
       <c r="AY19">
-        <v>-9.935062125283266e+101</v>
+        <v>0.5358267949789958</v>
       </c>
     </row>
     <row r="20" spans="1:51">
       <c r="A20">
-        <v>0.008999999999999999</v>
+        <v>-0.6374239897486896</v>
       </c>
       <c r="B20">
-        <v>0.07199999999999995</v>
+        <v>-0.6323977112002042</v>
       </c>
       <c r="C20">
-        <v>0.261000000000004</v>
+        <v>-0.6173981429700101</v>
       </c>
       <c r="D20">
-        <v>-116.0640000000009</v>
+        <v>-0.5926618372094055</v>
       </c>
       <c r="E20">
-        <v>15864.05700000017</v>
+        <v>-0.5585789002369882</v>
       </c>
       <c r="F20">
-        <v>-1952435.376000028</v>
+        <v>-0.5156868403289721</v>
       </c>
       <c r="G20">
-        <v>236712017.6370042</v>
+        <v>-0.4646620908925821</v>
       </c>
       <c r="H20">
-        <v>-28827686804.90463</v>
+        <v>-0.4063093427071374</v>
       </c>
       <c r="I20">
-        <v>3543415991981.093</v>
+        <v>-0.3415488534697648</v>
       </c>
       <c r="J20">
-        <v>-439916189646758</v>
+        <v>-0.2714019347817789</v>
       </c>
       <c r="K20">
-        <v>5.513526706175317e+16</v>
+        <v>-0.1969748454546266</v>
       </c>
       <c r="L20">
-        <v>-6.969922384187855e+18</v>
+        <v>-0.1194413451475864</v>
       </c>
       <c r="M20">
-        <v>8.879232491187777e+20</v>
+        <v>-0.04002418347676728</v>
       </c>
       <c r="N20">
-        <v>-1.138962848760188e+23</v>
+        <v>0.04002418347676895</v>
       </c>
       <c r="O20">
-        <v>1.469968595469319e+25</v>
+        <v>0.1194413451475877</v>
       </c>
       <c r="P20">
-        <v>-1.907609226418228e+27</v>
+        <v>0.1969748454546287</v>
       </c>
       <c r="Q20">
-        <v>2.487765037470702e+29</v>
+        <v>0.2714019347817799</v>
       </c>
       <c r="R20">
-        <v>-3.25878853481873e+31</v>
+        <v>0.3415488534697669</v>
       </c>
       <c r="S20">
-        <v>4.285939932997158e+33</v>
+        <v>0.4063093427071388</v>
       </c>
       <c r="T20">
-        <v>-5.65742777307988e+35</v>
+        <v>-0.5274526104218941</v>
       </c>
       <c r="U20">
-        <v>7.492643998463263e+37</v>
+        <v>-0.4528963207996575</v>
       </c>
       <c r="V20">
-        <v>-9.953401378104026e+39</v>
+        <v>-0.3711975856512616</v>
       </c>
       <c r="W20">
-        <v>1.325928148300212e+42</v>
+        <v>-0.2836448428344562</v>
       </c>
       <c r="X20">
-        <v>-1.770861420337594e+44</v>
+        <v>-0.1916188514049362</v>
       </c>
       <c r="Y20">
-        <v>2.370717733455193e+46</v>
+        <v>-0.09657091622120673</v>
       </c>
       <c r="Z20">
-        <v>-3.180748531156812e+48</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="AA20">
-        <v>4.27626099703454e+50</v>
+        <v>0.09657091622120839</v>
       </c>
       <c r="AB20">
-        <v>-5.759995377224435e+52</v>
+        <v>0.1916188514049387</v>
       </c>
       <c r="AC20">
-        <v>7.77224294771384e+54</v>
+        <v>0.2836448428344588</v>
       </c>
       <c r="AD20">
-        <v>-1.050472994754968e+57</v>
+        <v>0.3711975856512642</v>
       </c>
       <c r="AE20">
-        <v>1.421967817254586e+59</v>
+        <v>0.4528963207996591</v>
       </c>
       <c r="AF20">
-        <v>-1.92759835326601e+61</v>
+        <v>0.5274526104218961</v>
       </c>
       <c r="AG20">
-        <v>2.61651845159023e+63</v>
+        <v>0.5936906572928627</v>
       </c>
       <c r="AH20">
-        <v>-3.556089864033174e+65</v>
+        <v>-0.3415488534697649</v>
       </c>
       <c r="AI20">
-        <v>4.838679054285433e+67</v>
+        <v>-0.2714019347817788</v>
       </c>
       <c r="AJ20">
-        <v>-6.591004345975633e+69</v>
+        <v>-0.1969748454546271</v>
       </c>
       <c r="AK20">
-        <v>8.986993353939782e+71</v>
+        <v>-0.119441345147587</v>
       </c>
       <c r="AL20">
-        <v>-1.226547249492116e+74</v>
+        <v>-0.04002418347676784</v>
       </c>
       <c r="AM20">
-        <v>1.675450864708161e+76</v>
+        <v>0.04002418347676862</v>
       </c>
       <c r="AN20">
-        <v>-2.290490910694414e+78</v>
+        <v>0.119441345147587</v>
       </c>
       <c r="AO20">
-        <v>3.133633058345514e+80</v>
+        <v>0.1969748454546277</v>
       </c>
       <c r="AP20">
-        <v>-4.290074834447269e+82</v>
+        <v>0.2714019347817792</v>
       </c>
       <c r="AQ20">
-        <v>5.876982658621792e+84</v>
+        <v>0.3415488534697654</v>
       </c>
       <c r="AR20">
-        <v>-8.055519462188562e+86</v>
+        <v>0.4063093427071379</v>
       </c>
       <c r="AS20">
-        <v>1.104740235426926e+89</v>
+        <v>0.4646620908925821</v>
       </c>
       <c r="AT20">
-        <v>-1.515769622947543e+91</v>
+        <v>0.5156868403289724</v>
       </c>
       <c r="AU20">
-        <v>2.080619084424521e+93</v>
+        <v>0.5585789002369878</v>
       </c>
       <c r="AV20">
-        <v>-2.857059136668651e+95</v>
+        <v>0.5926618372094049</v>
       </c>
       <c r="AW20">
-        <v>3.924596588137303e+97</v>
+        <v>0.6173981429700094</v>
       </c>
       <c r="AX20">
-        <v>-5.392656158942342e+99</v>
+        <v>0.6323977112002034</v>
       </c>
       <c r="AY20">
-        <v>7.411839439133414e+101</v>
+        <v>0.6374239897486892</v>
       </c>
     </row>
     <row r="21" spans="1:51">
       <c r="A21">
-        <v>0.002375</v>
+        <v>-0.7289686274214116</v>
       </c>
       <c r="B21">
-        <v>0.07887499999999997</v>
+        <v>-0.7232204920618186</v>
       </c>
       <c r="C21">
-        <v>-2.931625</v>
+        <v>-0.7060667375114302</v>
       </c>
       <c r="D21">
-        <v>214.5308750000002</v>
+        <v>-0.6777778887266621</v>
       </c>
       <c r="E21">
-        <v>-19192.53362500004</v>
+        <v>-0.638800077751789</v>
       </c>
       <c r="F21">
-        <v>1914368.874875009</v>
+        <v>-0.5897480079501014</v>
       </c>
       <c r="G21">
-        <v>-204274302.2436267</v>
+        <v>-0.5313952597646563</v>
       </c>
       <c r="H21">
-        <v>22818919423.11114</v>
+        <v>-0.4646620908925818</v>
       </c>
       <c r="I21">
-        <v>-2634916810292.103</v>
+        <v>-0.3906009232714529</v>
       </c>
       <c r="J21">
-        <v>311984333512343.4</v>
+        <v>-0.3103797457566513</v>
       </c>
       <c r="K21">
-        <v>-3.767325125633703e+16</v>
+        <v>-0.2252636942393947</v>
       </c>
       <c r="L21">
-        <v>4.621685217833193e+18</v>
+        <v>-0.1365950996979748</v>
       </c>
       <c r="M21">
-        <v>-5.743974978278299e+20</v>
+        <v>-0.04577231883636007</v>
       </c>
       <c r="N21">
-        <v>7.216844013100626e+22</v>
+        <v>0.04577231883636146</v>
       </c>
       <c r="O21">
-        <v>-9.151482667209288e+24</v>
+        <v>0.1365950996979767</v>
       </c>
       <c r="P21">
-        <v>1.169720312633474e+27</v>
+        <v>0.2252636942393963</v>
       </c>
       <c r="Q21">
-        <v>-1.505452025527322e+29</v>
+        <v>0.3103797457566537</v>
       </c>
       <c r="R21">
-        <v>1.949294859327315e+31</v>
+        <v>0.3906009232714539</v>
       </c>
       <c r="S21">
-        <v>-2.53751972886131e+33</v>
+        <v>0.4646620908925838</v>
       </c>
       <c r="T21">
-        <v>3.319007256595961e+35</v>
+        <v>0.5313952597646582</v>
       </c>
       <c r="U21">
-        <v>-4.359725325953043e+37</v>
+        <v>-0.402366693364375</v>
       </c>
       <c r="V21">
-        <v>5.748827666888246e+39</v>
+        <v>-0.3297830833768405</v>
       </c>
       <c r="W21">
-        <v>-7.606967890406625e+41</v>
+        <v>-0.2519985971615879</v>
       </c>
       <c r="X21">
-        <v>1.009764397439871e+44</v>
+        <v>-0.1702399425324321</v>
       </c>
       <c r="Y21">
-        <v>-1.34426911985054e+46</v>
+        <v>-0.08579650231312819</v>
       </c>
       <c r="Z21">
-        <v>1.794345791499503e+48</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="AA21">
-        <v>-2.400977098354119e+50</v>
+        <v>0.08579650231313052</v>
       </c>
       <c r="AB21">
-        <v>3.219958493201168e+52</v>
+        <v>0.1702399425324346</v>
       </c>
       <c r="AC21">
-        <v>-4.327329183331778e+54</v>
+        <v>0.2519985971615902</v>
       </c>
       <c r="AD21">
-        <v>5.826815893659907e+56</v>
+        <v>0.3297830833768423</v>
       </c>
       <c r="AE21">
-        <v>-7.860041173761485e+58</v>
+        <v>0.4023666933643771</v>
       </c>
       <c r="AF21">
-        <v>1.062053028216018e+61</v>
+        <v>0.4686047402353437</v>
       </c>
       <c r="AG21">
-        <v>-1.437293926515239e+63</v>
+        <v>-0.4646620908925818</v>
       </c>
       <c r="AH21">
-        <v>1.947946185830328e+65</v>
+        <v>-0.3906009232714525</v>
       </c>
       <c r="AI21">
-        <v>-2.643610951740521e+67</v>
+        <v>-0.3103797457566518</v>
       </c>
       <c r="AJ21">
-        <v>3.592257331142538e+69</v>
+        <v>-0.2252636942393955</v>
       </c>
       <c r="AK21">
-        <v>-4.88707733525583e+71</v>
+        <v>-0.1365950996979753</v>
       </c>
       <c r="AL21">
-        <v>6.655912516364289e+73</v>
+        <v>-0.04577231883636035</v>
       </c>
       <c r="AM21">
-        <v>-9.074220151893093e+75</v>
+        <v>0.04577231883636101</v>
       </c>
       <c r="AN21">
-        <v>1.238291162802291e+78</v>
+        <v>0.1365950996979758</v>
       </c>
       <c r="AO21">
-        <v>-1.691289799610074e+80</v>
+        <v>0.2252636942393953</v>
       </c>
       <c r="AP21">
-        <v>2.311886931615156e+82</v>
+        <v>0.3103797457566523</v>
       </c>
       <c r="AQ21">
-        <v>-3.162578663551664e+84</v>
+        <v>0.3906009232714535</v>
       </c>
       <c r="AR21">
-        <v>4.329287632896848e+86</v>
+        <v>0.4646620908925825</v>
       </c>
       <c r="AS21">
-        <v>-5.930172091549321e+88</v>
+        <v>0.5313952597646568</v>
       </c>
       <c r="AT21">
-        <v>8.127752382858169e+90</v>
+        <v>0.5897480079501012</v>
       </c>
       <c r="AU21">
-        <v>-1.114560429340272e+93</v>
+        <v>0.6388000777517892</v>
       </c>
       <c r="AV21">
-        <v>1.529133893407189e+95</v>
+        <v>0.6777778887266614</v>
       </c>
       <c r="AW21">
-        <v>-2.098823558542812e+97</v>
+        <v>0.7060667375114297</v>
       </c>
       <c r="AX21">
-        <v>2.881878349320057e+99</v>
+        <v>0.7232204920618175</v>
       </c>
       <c r="AY21">
-        <v>-3.958461179387429e+101</v>
+        <v>0.7289686274214108</v>
       </c>
     </row>
     <row r="22" spans="1:51">
       <c r="A22">
-        <v>0</v>
+        <v>-0.8090169943749475</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.8026376537326376</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.7836002378184705</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.7522049780538138</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.7089469964397752</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-0.6545084971874733</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-0.5897480079501012</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-0.5156868403289718</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-0.4334929831794683</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0.3444626827290688</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.2499999999999994</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.1515946679281684</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-0.05079859738484604</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.05079859738484765</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.1515946679281701</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2500000000000017</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.3444626827290703</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.4334929831794706</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.5156868403289733</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.5897480079501028</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.6545084971874752</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>-0.2831677048747013</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-0.2163781830748164</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-0.1461762480697799</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>-0.07366902631122474</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.221245327087672e-15</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>0.07366902631122685</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.146176248069782</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>0.216378183074818</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>0.2831677048747032</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>0.3454915028125268</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-0.5897480079501007</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>-0.5156868403289715</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>-0.4334929831794687</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>-0.3444626827290692</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>-0.2500000000000001</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>-0.1515946679281689</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>-0.05079859738484649</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>0.05079859738484682</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.1515946679281693</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.3444626827290695</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.4334929831794694</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>0.5156868403289724</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>0.5897480079501014</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.6545084971874736</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>0.708946996439775</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>0.7522049780538139</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>0.7836002378184694</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>0.8026376537326371</v>
       </c>
       <c r="AY22">
+        <v>0.8090169943749468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51">
+      <c r="A23">
+        <v>-0.8763066800438636</v>
+      </c>
+      <c r="B23">
+        <v>-0.8693967401315994</v>
+      </c>
+      <c r="C23">
+        <v>-0.8487758942750213</v>
+      </c>
+      <c r="D23">
+        <v>-0.8147693455315836</v>
+      </c>
+      <c r="E23">
+        <v>-0.7679133974894979</v>
+      </c>
+      <c r="F23">
+        <v>-0.708946996439775</v>
+      </c>
+      <c r="G23">
+        <v>-0.6388000777517887</v>
+      </c>
+      <c r="H23">
+        <v>-0.5585789002369876</v>
+      </c>
+      <c r="I23">
+        <v>-0.4695485997865877</v>
+      </c>
+      <c r="J23">
+        <v>-0.3731132374228164</v>
+      </c>
+      <c r="K23">
+        <v>-0.2707936564178425</v>
+      </c>
+      <c r="L23">
+        <v>-0.1642034976868707</v>
+      </c>
+      <c r="M23">
+        <v>-0.05502375170696072</v>
+      </c>
+      <c r="N23">
+        <v>0.05502375170696261</v>
+      </c>
+      <c r="O23">
+        <v>0.1642034976868726</v>
+      </c>
+      <c r="P23">
+        <v>0.2707936564178441</v>
+      </c>
+      <c r="Q23">
+        <v>0.3731132374228186</v>
+      </c>
+      <c r="R23">
+        <v>0.4695485997865897</v>
+      </c>
+      <c r="S23">
+        <v>0.5585789002369896</v>
+      </c>
+      <c r="T23">
+        <v>0.6388000777517903</v>
+      </c>
+      <c r="U23">
+        <v>0.7089469964397765</v>
+      </c>
+      <c r="V23">
+        <v>0.7679133974894993</v>
+      </c>
+      <c r="W23">
+        <v>-0.1773453557828933</v>
+      </c>
+      <c r="X23">
+        <v>-0.119807266853609</v>
+      </c>
+      <c r="Y23">
+        <v>-0.0603797457566505</v>
+      </c>
+      <c r="Z23">
+        <v>1.443289932012704e-15</v>
+      </c>
+      <c r="AA23">
+        <v>0.06037974575665273</v>
+      </c>
+      <c r="AB23">
+        <v>0.1198072668536103</v>
+      </c>
+      <c r="AC23">
+        <v>0.177345355782895</v>
+      </c>
+      <c r="AD23">
+        <v>0.2320866025105026</v>
+      </c>
+      <c r="AE23">
+        <v>-0.7089469964397747</v>
+      </c>
+      <c r="AF23">
+        <v>-0.6388000777517884</v>
+      </c>
+      <c r="AG23">
+        <v>-0.5585789002369875</v>
+      </c>
+      <c r="AH23">
+        <v>-0.4695485997865882</v>
+      </c>
+      <c r="AI23">
+        <v>-0.373113237422817</v>
+      </c>
+      <c r="AJ23">
+        <v>-0.2707936564178426</v>
+      </c>
+      <c r="AK23">
+        <v>-0.1642034976868713</v>
+      </c>
+      <c r="AL23">
+        <v>-0.05502375170696172</v>
+      </c>
+      <c r="AM23">
+        <v>0.05502375170696183</v>
+      </c>
+      <c r="AN23">
+        <v>0.1642034976868714</v>
+      </c>
+      <c r="AO23">
+        <v>0.2707936564178436</v>
+      </c>
+      <c r="AP23">
+        <v>0.3731132374228174</v>
+      </c>
+      <c r="AQ23">
+        <v>0.4695485997865885</v>
+      </c>
+      <c r="AR23">
+        <v>0.5585789002369883</v>
+      </c>
+      <c r="AS23">
+        <v>0.6388000777517893</v>
+      </c>
+      <c r="AT23">
+        <v>0.7089469964397752</v>
+      </c>
+      <c r="AU23">
+        <v>0.7679133974894983</v>
+      </c>
+      <c r="AV23">
+        <v>0.814769345531583</v>
+      </c>
+      <c r="AW23">
+        <v>0.8487758942750214</v>
+      </c>
+      <c r="AX23">
+        <v>0.8693967401315987</v>
+      </c>
+      <c r="AY23">
+        <v>0.876306680043863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51">
+      <c r="A24">
+        <v>-0.9297764858882515</v>
+      </c>
+      <c r="B24">
+        <v>-0.9224449205862474</v>
+      </c>
+      <c r="C24">
+        <v>-0.9005658478447126</v>
+      </c>
+      <c r="D24">
+        <v>-0.8644843137107056</v>
+      </c>
+      <c r="E24">
+        <v>-0.8147693455315835</v>
+      </c>
+      <c r="F24">
+        <v>-0.7522049780538135</v>
+      </c>
+      <c r="G24">
+        <v>-0.6777778887266616</v>
+      </c>
+      <c r="H24">
+        <v>-0.5926618372094047</v>
+      </c>
+      <c r="I24">
+        <v>-0.4981991544803358</v>
+      </c>
+      <c r="J24">
+        <v>-0.3958795734753614</v>
+      </c>
+      <c r="K24">
+        <v>-0.2873167351096877</v>
+      </c>
+      <c r="L24">
+        <v>-0.1742227401966348</v>
+      </c>
+      <c r="M24">
+        <v>-0.05838114859506205</v>
+      </c>
+      <c r="N24">
+        <v>0.05838114859506427</v>
+      </c>
+      <c r="O24">
+        <v>0.1742227401966366</v>
+      </c>
+      <c r="P24">
+        <v>0.2873167351096895</v>
+      </c>
+      <c r="Q24">
+        <v>0.3958795734753635</v>
+      </c>
+      <c r="R24">
+        <v>0.4981991544803376</v>
+      </c>
+      <c r="S24">
+        <v>0.5926618372094067</v>
+      </c>
+      <c r="T24">
+        <v>0.6777778887266634</v>
+      </c>
+      <c r="U24">
+        <v>0.7522049780538144</v>
+      </c>
+      <c r="V24">
+        <v>0.8147693455315845</v>
+      </c>
+      <c r="W24">
+        <v>0.8644843137107067</v>
+      </c>
+      <c r="X24">
+        <v>-0.09154885346976394</v>
+      </c>
+      <c r="Y24">
+        <v>-0.0461382405423828</v>
+      </c>
+      <c r="Z24">
+        <v>9.992007221626409e-16</v>
+      </c>
+      <c r="AA24">
+        <v>0.04613824054238491</v>
+      </c>
+      <c r="AB24">
+        <v>0.09154885346976571</v>
+      </c>
+      <c r="AC24">
+        <v>0.1355156862892949</v>
+      </c>
+      <c r="AD24">
+        <v>-0.8147693455315829</v>
+      </c>
+      <c r="AE24">
+        <v>-0.7522049780538126</v>
+      </c>
+      <c r="AF24">
+        <v>-0.6777778887266616</v>
+      </c>
+      <c r="AG24">
+        <v>-0.5926618372094051</v>
+      </c>
+      <c r="AH24">
+        <v>-0.4981991544803358</v>
+      </c>
+      <c r="AI24">
+        <v>-0.3958795734753616</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.2873167351096881</v>
+      </c>
+      <c r="AK24">
+        <v>-0.1742227401966354</v>
+      </c>
+      <c r="AL24">
+        <v>-0.05838114859506294</v>
+      </c>
+      <c r="AM24">
+        <v>0.05838114859506283</v>
+      </c>
+      <c r="AN24">
+        <v>0.1742227401966361</v>
+      </c>
+      <c r="AO24">
+        <v>0.2873167351096885</v>
+      </c>
+      <c r="AP24">
+        <v>0.3958795734753625</v>
+      </c>
+      <c r="AQ24">
+        <v>0.4981991544803364</v>
+      </c>
+      <c r="AR24">
+        <v>0.5926618372094055</v>
+      </c>
+      <c r="AS24">
+        <v>0.6777778887266621</v>
+      </c>
+      <c r="AT24">
+        <v>0.7522049780538138</v>
+      </c>
+      <c r="AU24">
+        <v>0.8147693455315832</v>
+      </c>
+      <c r="AV24">
+        <v>0.8644843137107059</v>
+      </c>
+      <c r="AW24">
+        <v>0.9005658478447123</v>
+      </c>
+      <c r="AX24">
+        <v>0.9224449205862473</v>
+      </c>
+      <c r="AY24">
+        <v>0.9297764858882502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51">
+      <c r="A25">
+        <v>-0.9685831611286312</v>
+      </c>
+      <c r="B25">
+        <v>-0.9609455936013647</v>
+      </c>
+      <c r="C25">
+        <v>-0.9381533400219316</v>
+      </c>
+      <c r="D25">
+        <v>-0.9005658478447125</v>
+      </c>
+      <c r="E25">
+        <v>-0.8487758942750211</v>
+      </c>
+      <c r="F25">
+        <v>-0.7836002378184701</v>
+      </c>
+      <c r="G25">
+        <v>-0.7060667375114295</v>
+      </c>
+      <c r="H25">
+        <v>-0.6173981429700097</v>
+      </c>
+      <c r="I25">
+        <v>-0.5189928108981784</v>
+      </c>
+      <c r="J25">
+        <v>-0.4124026521672071</v>
+      </c>
+      <c r="K25">
+        <v>-0.2993086572541537</v>
+      </c>
+      <c r="L25">
+        <v>-0.181494386017879</v>
+      </c>
+      <c r="M25">
+        <v>-0.06081783989460976</v>
+      </c>
+      <c r="N25">
+        <v>0.06081783989461198</v>
+      </c>
+      <c r="O25">
+        <v>0.1814943860178811</v>
+      </c>
+      <c r="P25">
+        <v>0.299308657254156</v>
+      </c>
+      <c r="Q25">
+        <v>0.4124026521672085</v>
+      </c>
+      <c r="R25">
+        <v>0.5189928108981805</v>
+      </c>
+      <c r="S25">
+        <v>0.6173981429700116</v>
+      </c>
+      <c r="T25">
+        <v>0.7060667375114309</v>
+      </c>
+      <c r="U25">
+        <v>0.7836002378184713</v>
+      </c>
+      <c r="V25">
+        <v>0.8487758942750219</v>
+      </c>
+      <c r="W25">
+        <v>0.9005658478447139</v>
+      </c>
+      <c r="X25">
+        <v>0.9381533400219328</v>
+      </c>
+      <c r="Y25">
+        <v>-0.03116910771311243</v>
+      </c>
+      <c r="Z25">
+        <v>6.661338147750939e-16</v>
+      </c>
+      <c r="AA25">
+        <v>0.03116910771311399</v>
+      </c>
+      <c r="AB25">
+        <v>0.06184665997806948</v>
+      </c>
+      <c r="AC25">
+        <v>-0.9005658478447122</v>
+      </c>
+      <c r="AD25">
+        <v>-0.8487758942750203</v>
+      </c>
+      <c r="AE25">
+        <v>-0.7836002378184698</v>
+      </c>
+      <c r="AF25">
+        <v>-0.7060667375114293</v>
+      </c>
+      <c r="AG25">
+        <v>-0.6173981429700098</v>
+      </c>
+      <c r="AH25">
+        <v>-0.5189928108981785</v>
+      </c>
+      <c r="AI25">
+        <v>-0.412402652167207</v>
+      </c>
+      <c r="AJ25">
+        <v>-0.2993086572541545</v>
+      </c>
+      <c r="AK25">
+        <v>-0.1814943860178798</v>
+      </c>
+      <c r="AL25">
+        <v>-0.06081783989461087</v>
+      </c>
+      <c r="AM25">
+        <v>0.06081783989461131</v>
+      </c>
+      <c r="AN25">
+        <v>0.1814943860178799</v>
+      </c>
+      <c r="AO25">
+        <v>0.299308657254155</v>
+      </c>
+      <c r="AP25">
+        <v>0.4124026521672074</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5189928108981795</v>
+      </c>
+      <c r="AR25">
+        <v>0.6173981429700101</v>
+      </c>
+      <c r="AS25">
+        <v>0.7060667375114301</v>
+      </c>
+      <c r="AT25">
+        <v>0.7836002378184702</v>
+      </c>
+      <c r="AU25">
+        <v>0.8487758942750213</v>
+      </c>
+      <c r="AV25">
+        <v>0.9005658478447124</v>
+      </c>
+      <c r="AW25">
+        <v>0.9381533400219318</v>
+      </c>
+      <c r="AX25">
+        <v>0.9609455936013639</v>
+      </c>
+      <c r="AY25">
+        <v>0.968583161128631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51">
+      <c r="A26">
+        <v>-0.9921147013144778</v>
+      </c>
+      <c r="B26">
+        <v>-0.9842915805643155</v>
+      </c>
+      <c r="C26">
+        <v>-0.9609455936013647</v>
+      </c>
+      <c r="D26">
+        <v>-0.9224449205862473</v>
+      </c>
+      <c r="E26">
+        <v>-0.8693967401315992</v>
+      </c>
+      <c r="F26">
+        <v>-0.8026376537326372</v>
+      </c>
+      <c r="G26">
+        <v>-0.7232204920618184</v>
+      </c>
+      <c r="H26">
+        <v>-0.6323977112002033</v>
+      </c>
+      <c r="I26">
+        <v>-0.5316016406568809</v>
+      </c>
+      <c r="J26">
+        <v>-0.4224218946769707</v>
+      </c>
+      <c r="K26">
+        <v>-0.3065803030753984</v>
+      </c>
+      <c r="L26">
+        <v>-0.1859037569521287</v>
+      </c>
+      <c r="M26">
+        <v>-0.06229539752820501</v>
+      </c>
+      <c r="N26">
+        <v>0.06229539752820712</v>
+      </c>
+      <c r="O26">
+        <v>0.1859037569521313</v>
+      </c>
+      <c r="P26">
+        <v>0.3065803030754002</v>
+      </c>
+      <c r="Q26">
+        <v>0.422421894676973</v>
+      </c>
+      <c r="R26">
+        <v>0.5316016406568825</v>
+      </c>
+      <c r="S26">
+        <v>0.6323977112002047</v>
+      </c>
+      <c r="T26">
+        <v>0.7232204920618196</v>
+      </c>
+      <c r="U26">
+        <v>0.8026376537326384</v>
+      </c>
+      <c r="V26">
+        <v>0.8693967401316006</v>
+      </c>
+      <c r="W26">
+        <v>0.9224449205862481</v>
+      </c>
+      <c r="X26">
+        <v>0.9609455936013654</v>
+      </c>
+      <c r="Y26">
+        <v>0.9842915805643163</v>
+      </c>
+      <c r="Z26">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="AA26">
+        <v>0.01570841943568524</v>
+      </c>
+      <c r="AB26">
+        <v>-0.9609455936013639</v>
+      </c>
+      <c r="AC26">
+        <v>-0.9224449205862457</v>
+      </c>
+      <c r="AD26">
+        <v>-0.8693967401315991</v>
+      </c>
+      <c r="AE26">
+        <v>-0.802637653732637</v>
+      </c>
+      <c r="AF26">
+        <v>-0.723220492061818</v>
+      </c>
+      <c r="AG26">
+        <v>-0.6323977112002028</v>
+      </c>
+      <c r="AH26">
+        <v>-0.531601640656881</v>
+      </c>
+      <c r="AI26">
+        <v>-0.4224218946769713</v>
+      </c>
+      <c r="AJ26">
+        <v>-0.3065803030753986</v>
+      </c>
+      <c r="AK26">
+        <v>-0.1859037569521299</v>
+      </c>
+      <c r="AL26">
+        <v>-0.06229539752820556</v>
+      </c>
+      <c r="AM26">
+        <v>0.06229539752820623</v>
+      </c>
+      <c r="AN26">
+        <v>0.1859037569521302</v>
+      </c>
+      <c r="AO26">
+        <v>0.3065803030753989</v>
+      </c>
+      <c r="AP26">
+        <v>0.422421894676972</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5316016406568811</v>
+      </c>
+      <c r="AR26">
+        <v>0.6323977112002042</v>
+      </c>
+      <c r="AS26">
+        <v>0.7232204920618182</v>
+      </c>
+      <c r="AT26">
+        <v>0.8026376537326376</v>
+      </c>
+      <c r="AU26">
+        <v>0.8693967401315994</v>
+      </c>
+      <c r="AV26">
+        <v>0.9224449205862473</v>
+      </c>
+      <c r="AW26">
+        <v>0.960945593601364</v>
+      </c>
+      <c r="AX26">
+        <v>0.9842915805643155</v>
+      </c>
+      <c r="AY26">
+        <v>0.9921147013144771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>-0.9921147013144778</v>
+      </c>
+      <c r="C27">
+        <v>-0.9685831611286311</v>
+      </c>
+      <c r="D27">
+        <v>-0.9297764858882513</v>
+      </c>
+      <c r="E27">
+        <v>-0.8763066800438635</v>
+      </c>
+      <c r="F27">
+        <v>-0.8090169943749475</v>
+      </c>
+      <c r="G27">
+        <v>-0.7289686274214109</v>
+      </c>
+      <c r="H27">
+        <v>-0.6374239897486895</v>
+      </c>
+      <c r="I27">
+        <v>-0.5358267949789957</v>
+      </c>
+      <c r="J27">
+        <v>-0.4257792915650722</v>
+      </c>
+      <c r="K27">
+        <v>-0.3090169943749457</v>
+      </c>
+      <c r="L27">
+        <v>-0.1873813145857244</v>
+      </c>
+      <c r="M27">
+        <v>-0.06279051952931181</v>
+      </c>
+      <c r="N27">
+        <v>0.06279051952931436</v>
+      </c>
+      <c r="O27">
+        <v>0.1873813145857262</v>
+      </c>
+      <c r="P27">
+        <v>0.3090169943749483</v>
+      </c>
+      <c r="Q27">
+        <v>0.4257792915650742</v>
+      </c>
+      <c r="R27">
+        <v>0.5358267949789972</v>
+      </c>
+      <c r="S27">
+        <v>0.6374239897486906</v>
+      </c>
+      <c r="T27">
+        <v>0.7289686274214122</v>
+      </c>
+      <c r="U27">
+        <v>0.8090169943749488</v>
+      </c>
+      <c r="V27">
+        <v>0.8763066800438646</v>
+      </c>
+      <c r="W27">
+        <v>0.9297764858882522</v>
+      </c>
+      <c r="X27">
+        <v>0.9685831611286315</v>
+      </c>
+      <c r="Y27">
+        <v>0.9921147013144784</v>
+      </c>
+      <c r="Z27">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>-0.9921147013144773</v>
+      </c>
+      <c r="AB27">
+        <v>-0.96858316112863</v>
+      </c>
+      <c r="AC27">
+        <v>-0.9297764858882507</v>
+      </c>
+      <c r="AD27">
+        <v>-0.8763066800438624</v>
+      </c>
+      <c r="AE27">
+        <v>-0.8090169943749472</v>
+      </c>
+      <c r="AF27">
+        <v>-0.7289686274214104</v>
+      </c>
+      <c r="AG27">
+        <v>-0.6374239897486891</v>
+      </c>
+      <c r="AH27">
+        <v>-0.5358267949789957</v>
+      </c>
+      <c r="AI27">
+        <v>-0.4257792915650727</v>
+      </c>
+      <c r="AJ27">
+        <v>-0.3090169943749468</v>
+      </c>
+      <c r="AK27">
+        <v>-0.1873813145857244</v>
+      </c>
+      <c r="AL27">
+        <v>-0.0627905195293128</v>
+      </c>
+      <c r="AM27">
+        <v>0.06279051952931336</v>
+      </c>
+      <c r="AN27">
+        <v>0.1873813145857252</v>
+      </c>
+      <c r="AO27">
+        <v>0.3090169943749472</v>
+      </c>
+      <c r="AP27">
+        <v>0.4257792915650725</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5358267949789968</v>
+      </c>
+      <c r="AR27">
+        <v>0.6374239897486892</v>
+      </c>
+      <c r="AS27">
+        <v>0.7289686274214116</v>
+      </c>
+      <c r="AT27">
+        <v>0.8090169943749473</v>
+      </c>
+      <c r="AU27">
+        <v>0.8763066800438635</v>
+      </c>
+      <c r="AV27">
+        <v>0.929776485888251</v>
+      </c>
+      <c r="AW27">
+        <v>0.9685831611286309</v>
+      </c>
+      <c r="AX27">
+        <v>0.9921147013144772</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51">
+      <c r="A28">
+        <v>-0.9921147013144778</v>
+      </c>
+      <c r="B28">
+        <v>-0.9842915805643155</v>
+      </c>
+      <c r="C28">
+        <v>-0.9609455936013644</v>
+      </c>
+      <c r="D28">
+        <v>-0.9224449205862473</v>
+      </c>
+      <c r="E28">
+        <v>-0.8693967401315996</v>
+      </c>
+      <c r="F28">
+        <v>-0.8026376537326372</v>
+      </c>
+      <c r="G28">
+        <v>-0.7232204920618186</v>
+      </c>
+      <c r="H28">
+        <v>-0.6323977112002033</v>
+      </c>
+      <c r="I28">
+        <v>-0.5316016406568809</v>
+      </c>
+      <c r="J28">
+        <v>-0.4224218946769707</v>
+      </c>
+      <c r="K28">
+        <v>-0.3065803030753982</v>
+      </c>
+      <c r="L28">
+        <v>-0.1859037569521288</v>
+      </c>
+      <c r="M28">
+        <v>-0.06229539752820501</v>
+      </c>
+      <c r="N28">
+        <v>0.06229539752820723</v>
+      </c>
+      <c r="O28">
+        <v>0.1859037569521313</v>
+      </c>
+      <c r="P28">
+        <v>0.3065803030754002</v>
+      </c>
+      <c r="Q28">
+        <v>0.4224218946769726</v>
+      </c>
+      <c r="R28">
+        <v>0.5316016406568824</v>
+      </c>
+      <c r="S28">
+        <v>0.6323977112002047</v>
+      </c>
+      <c r="T28">
+        <v>0.7232204920618197</v>
+      </c>
+      <c r="U28">
+        <v>0.8026376537326384</v>
+      </c>
+      <c r="V28">
+        <v>0.8693967401316005</v>
+      </c>
+      <c r="W28">
+        <v>0.9224449205862481</v>
+      </c>
+      <c r="X28">
+        <v>0.9609455936013653</v>
+      </c>
+      <c r="Y28">
+        <v>0.9842915805643161</v>
+      </c>
+      <c r="Z28">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="AA28">
+        <v>0.01570841943568568</v>
+      </c>
+      <c r="AB28">
+        <v>-0.9609455936013642</v>
+      </c>
+      <c r="AC28">
+        <v>-0.9224449205862466</v>
+      </c>
+      <c r="AD28">
+        <v>-0.8693967401315987</v>
+      </c>
+      <c r="AE28">
+        <v>-0.8026376537326358</v>
+      </c>
+      <c r="AF28">
+        <v>-0.7232204920618184</v>
+      </c>
+      <c r="AG28">
+        <v>-0.6323977112002033</v>
+      </c>
+      <c r="AH28">
+        <v>-0.5316016406568806</v>
+      </c>
+      <c r="AI28">
+        <v>-0.4224218946769711</v>
+      </c>
+      <c r="AJ28">
+        <v>-0.3065803030753984</v>
+      </c>
+      <c r="AK28">
+        <v>-0.1859037569521297</v>
+      </c>
+      <c r="AL28">
+        <v>-0.06229539752820545</v>
+      </c>
+      <c r="AM28">
+        <v>0.06229539752820612</v>
+      </c>
+      <c r="AN28">
+        <v>0.1859037569521304</v>
+      </c>
+      <c r="AO28">
+        <v>0.3065803030753989</v>
+      </c>
+      <c r="AP28">
+        <v>0.422421894676972</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5316016406568806</v>
+      </c>
+      <c r="AR28">
+        <v>0.6323977112002042</v>
+      </c>
+      <c r="AS28">
+        <v>0.7232204920618184</v>
+      </c>
+      <c r="AT28">
+        <v>0.8026376537326374</v>
+      </c>
+      <c r="AU28">
+        <v>0.869396740131599</v>
+      </c>
+      <c r="AV28">
+        <v>0.9224449205862471</v>
+      </c>
+      <c r="AW28">
+        <v>0.9609455936013642</v>
+      </c>
+      <c r="AX28">
+        <v>0.9842915805643155</v>
+      </c>
+      <c r="AY28">
+        <v>0.9921147013144767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51">
+      <c r="A29">
+        <v>-0.9685831611286311</v>
+      </c>
+      <c r="B29">
+        <v>-0.9609455936013644</v>
+      </c>
+      <c r="C29">
+        <v>-0.9381533400219317</v>
+      </c>
+      <c r="D29">
+        <v>-0.9005658478447127</v>
+      </c>
+      <c r="E29">
+        <v>-0.848775894275021</v>
+      </c>
+      <c r="F29">
+        <v>-0.7836002378184708</v>
+      </c>
+      <c r="G29">
+        <v>-0.7060667375114296</v>
+      </c>
+      <c r="H29">
+        <v>-0.6173981429700099</v>
+      </c>
+      <c r="I29">
+        <v>-0.5189928108981783</v>
+      </c>
+      <c r="J29">
+        <v>-0.4124026521672068</v>
+      </c>
+      <c r="K29">
+        <v>-0.2993086572541538</v>
+      </c>
+      <c r="L29">
+        <v>-0.1814943860178788</v>
+      </c>
+      <c r="M29">
+        <v>-0.06081783989460976</v>
+      </c>
+      <c r="N29">
+        <v>0.06081783989461198</v>
+      </c>
+      <c r="O29">
+        <v>0.1814943860178813</v>
+      </c>
+      <c r="P29">
+        <v>0.2993086572541556</v>
+      </c>
+      <c r="Q29">
+        <v>0.4124026521672084</v>
+      </c>
+      <c r="R29">
+        <v>0.5189928108981801</v>
+      </c>
+      <c r="S29">
+        <v>0.6173981429700115</v>
+      </c>
+      <c r="T29">
+        <v>0.7060667375114309</v>
+      </c>
+      <c r="U29">
+        <v>0.7836002378184714</v>
+      </c>
+      <c r="V29">
+        <v>0.8487758942750219</v>
+      </c>
+      <c r="W29">
+        <v>0.9005658478447136</v>
+      </c>
+      <c r="X29">
+        <v>0.9381533400219326</v>
+      </c>
+      <c r="Y29">
+        <v>-0.03116910771311254</v>
+      </c>
+      <c r="Z29">
+        <v>7.771561172376096e-16</v>
+      </c>
+      <c r="AA29">
+        <v>0.03116910771311365</v>
+      </c>
+      <c r="AB29">
+        <v>0.06184665997806904</v>
+      </c>
+      <c r="AC29">
+        <v>-0.9005658478447123</v>
+      </c>
+      <c r="AD29">
+        <v>-0.8487758942750201</v>
+      </c>
+      <c r="AE29">
+        <v>-0.7836002378184699</v>
+      </c>
+      <c r="AF29">
+        <v>-0.7060667375114287</v>
+      </c>
+      <c r="AG29">
+        <v>-0.6173981429700099</v>
+      </c>
+      <c r="AH29">
+        <v>-0.5189928108981787</v>
+      </c>
+      <c r="AI29">
+        <v>-0.4124026521672064</v>
+      </c>
+      <c r="AJ29">
+        <v>-0.299308657254154</v>
+      </c>
+      <c r="AK29">
+        <v>-0.1814943860178795</v>
+      </c>
+      <c r="AL29">
+        <v>-0.06081783989461076</v>
+      </c>
+      <c r="AM29">
+        <v>0.06081783989461154</v>
+      </c>
+      <c r="AN29">
+        <v>0.1814943860178798</v>
+      </c>
+      <c r="AO29">
+        <v>0.2993086572541551</v>
+      </c>
+      <c r="AP29">
+        <v>0.412402652167207</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5189928108981794</v>
+      </c>
+      <c r="AR29">
+        <v>0.6173981429700098</v>
+      </c>
+      <c r="AS29">
+        <v>0.70606673751143</v>
+      </c>
+      <c r="AT29">
+        <v>0.78360023781847</v>
+      </c>
+      <c r="AU29">
+        <v>0.848775894275021</v>
+      </c>
+      <c r="AV29">
+        <v>0.9005658478447122</v>
+      </c>
+      <c r="AW29">
+        <v>0.9381533400219317</v>
+      </c>
+      <c r="AX29">
+        <v>0.9609455936013637</v>
+      </c>
+      <c r="AY29">
+        <v>0.9685831611286304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51">
+      <c r="A30">
+        <v>-0.9297764858882512</v>
+      </c>
+      <c r="B30">
+        <v>-0.9224449205862474</v>
+      </c>
+      <c r="C30">
+        <v>-0.9005658478447126</v>
+      </c>
+      <c r="D30">
+        <v>-0.8644843137107056</v>
+      </c>
+      <c r="E30">
+        <v>-0.8147693455315838</v>
+      </c>
+      <c r="F30">
+        <v>-0.7522049780538135</v>
+      </c>
+      <c r="G30">
+        <v>-0.677777888726662</v>
+      </c>
+      <c r="H30">
+        <v>-0.5926618372094047</v>
+      </c>
+      <c r="I30">
+        <v>-0.498199154480336</v>
+      </c>
+      <c r="J30">
+        <v>-0.3958795734753614</v>
+      </c>
+      <c r="K30">
+        <v>-0.2873167351096875</v>
+      </c>
+      <c r="L30">
+        <v>-0.1742227401966348</v>
+      </c>
+      <c r="M30">
+        <v>-0.05838114859506183</v>
+      </c>
+      <c r="N30">
+        <v>0.05838114859506427</v>
+      </c>
+      <c r="O30">
+        <v>0.1742227401966362</v>
+      </c>
+      <c r="P30">
+        <v>0.2873167351096895</v>
+      </c>
+      <c r="Q30">
+        <v>0.3958795734753631</v>
+      </c>
+      <c r="R30">
+        <v>0.4981991544803374</v>
+      </c>
+      <c r="S30">
+        <v>0.5926618372094064</v>
+      </c>
+      <c r="T30">
+        <v>0.6777778887266632</v>
+      </c>
+      <c r="U30">
+        <v>0.7522049780538143</v>
+      </c>
+      <c r="V30">
+        <v>0.8147693455315845</v>
+      </c>
+      <c r="W30">
+        <v>0.8644843137107063</v>
+      </c>
+      <c r="X30">
+        <v>-0.09154885346976427</v>
+      </c>
+      <c r="Y30">
+        <v>-0.04613824054238269</v>
+      </c>
+      <c r="Z30">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="AA30">
+        <v>0.04613824054238413</v>
+      </c>
+      <c r="AB30">
+        <v>0.0915488534697656</v>
+      </c>
+      <c r="AC30">
+        <v>0.1355156862892956</v>
+      </c>
+      <c r="AD30">
+        <v>-0.8147693455315833</v>
+      </c>
+      <c r="AE30">
+        <v>-0.7522049780538128</v>
+      </c>
+      <c r="AF30">
+        <v>-0.6777778887266616</v>
+      </c>
+      <c r="AG30">
+        <v>-0.592661837209404</v>
+      </c>
+      <c r="AH30">
+        <v>-0.4981991544803356</v>
+      </c>
+      <c r="AI30">
+        <v>-0.3958795734753616</v>
+      </c>
+      <c r="AJ30">
+        <v>-0.2873167351096875</v>
+      </c>
+      <c r="AK30">
+        <v>-0.1742227401966351</v>
+      </c>
+      <c r="AL30">
+        <v>-0.05838114859506249</v>
+      </c>
+      <c r="AM30">
+        <v>0.05838114859506294</v>
+      </c>
+      <c r="AN30">
+        <v>0.1742227401966363</v>
+      </c>
+      <c r="AO30">
+        <v>0.2873167351096879</v>
+      </c>
+      <c r="AP30">
+        <v>0.3958795734753625</v>
+      </c>
+      <c r="AQ30">
+        <v>0.4981991544803362</v>
+      </c>
+      <c r="AR30">
+        <v>0.5926618372094052</v>
+      </c>
+      <c r="AS30">
+        <v>0.6777778887266613</v>
+      </c>
+      <c r="AT30">
+        <v>0.7522049780538136</v>
+      </c>
+      <c r="AU30">
+        <v>0.8147693455315831</v>
+      </c>
+      <c r="AV30">
+        <v>0.8644843137107057</v>
+      </c>
+      <c r="AW30">
+        <v>0.9005658478447115</v>
+      </c>
+      <c r="AX30">
+        <v>0.9224449205862466</v>
+      </c>
+      <c r="AY30">
+        <v>0.929776485888251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51">
+      <c r="A31">
+        <v>-0.8763066800438637</v>
+      </c>
+      <c r="B31">
+        <v>-0.8693967401315994</v>
+      </c>
+      <c r="C31">
+        <v>-0.8487758942750212</v>
+      </c>
+      <c r="D31">
+        <v>-0.8147693455315836</v>
+      </c>
+      <c r="E31">
+        <v>-0.7679133974894981</v>
+      </c>
+      <c r="F31">
+        <v>-0.708946996439775</v>
+      </c>
+      <c r="G31">
+        <v>-0.6388000777517886</v>
+      </c>
+      <c r="H31">
+        <v>-0.5585789002369881</v>
+      </c>
+      <c r="I31">
+        <v>-0.4695485997865878</v>
+      </c>
+      <c r="J31">
+        <v>-0.3731132374228167</v>
+      </c>
+      <c r="K31">
+        <v>-0.2707936564178424</v>
+      </c>
+      <c r="L31">
+        <v>-0.1642034976868705</v>
+      </c>
+      <c r="M31">
+        <v>-0.05502375170696072</v>
+      </c>
+      <c r="N31">
+        <v>0.05502375170696239</v>
+      </c>
+      <c r="O31">
+        <v>0.1642034976868725</v>
+      </c>
+      <c r="P31">
+        <v>0.2707936564178437</v>
+      </c>
+      <c r="Q31">
+        <v>0.3731132374228185</v>
+      </c>
+      <c r="R31">
+        <v>0.4695485997865894</v>
+      </c>
+      <c r="S31">
+        <v>0.5585789002369892</v>
+      </c>
+      <c r="T31">
+        <v>0.6388000777517897</v>
+      </c>
+      <c r="U31">
+        <v>0.7089469964397763</v>
+      </c>
+      <c r="V31">
+        <v>0.7679133974894987</v>
+      </c>
+      <c r="W31">
+        <v>-0.1773453557828933</v>
+      </c>
+      <c r="X31">
+        <v>-0.119807266853609</v>
+      </c>
+      <c r="Y31">
+        <v>-0.06037974575665117</v>
+      </c>
+      <c r="Z31">
+        <v>6.661338147750939e-16</v>
+      </c>
+      <c r="AA31">
+        <v>0.0603797457566525</v>
+      </c>
+      <c r="AB31">
+        <v>0.1198072668536106</v>
+      </c>
+      <c r="AC31">
+        <v>0.1773453557828946</v>
+      </c>
+      <c r="AD31">
+        <v>0.2320866025105028</v>
+      </c>
+      <c r="AE31">
+        <v>-0.7089469964397749</v>
+      </c>
+      <c r="AF31">
+        <v>-0.6388000777517882</v>
+      </c>
+      <c r="AG31">
+        <v>-0.5585789002369871</v>
+      </c>
+      <c r="AH31">
+        <v>-0.4695485997865869</v>
+      </c>
+      <c r="AI31">
+        <v>-0.3731132374228167</v>
+      </c>
+      <c r="AJ31">
+        <v>-0.2707936564178427</v>
+      </c>
+      <c r="AK31">
+        <v>-0.1642034976868705</v>
+      </c>
+      <c r="AL31">
+        <v>-0.05502375170696139</v>
+      </c>
+      <c r="AM31">
+        <v>0.05502375170696228</v>
+      </c>
+      <c r="AN31">
+        <v>0.164203497686871</v>
+      </c>
+      <c r="AO31">
+        <v>0.2707936564178437</v>
+      </c>
+      <c r="AP31">
+        <v>0.3731132374228172</v>
+      </c>
+      <c r="AQ31">
+        <v>0.4695485997865884</v>
+      </c>
+      <c r="AR31">
+        <v>0.5585789002369879</v>
+      </c>
+      <c r="AS31">
+        <v>0.6388000777517889</v>
+      </c>
+      <c r="AT31">
+        <v>0.7089469964397745</v>
+      </c>
+      <c r="AU31">
+        <v>0.7679133974894982</v>
+      </c>
+      <c r="AV31">
+        <v>0.8147693455315825</v>
+      </c>
+      <c r="AW31">
+        <v>0.8487758942750206</v>
+      </c>
+      <c r="AX31">
+        <v>0.869396740131599</v>
+      </c>
+      <c r="AY31">
+        <v>0.8763066800438625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51">
+      <c r="A32">
+        <v>-0.8090169943749475</v>
+      </c>
+      <c r="B32">
+        <v>-0.8026376537326376</v>
+      </c>
+      <c r="C32">
+        <v>-0.7836002378184705</v>
+      </c>
+      <c r="D32">
+        <v>-0.7522049780538136</v>
+      </c>
+      <c r="E32">
+        <v>-0.7089469964397748</v>
+      </c>
+      <c r="F32">
+        <v>-0.6545084971874733</v>
+      </c>
+      <c r="G32">
+        <v>-0.5897480079501012</v>
+      </c>
+      <c r="H32">
+        <v>-0.5156868403289718</v>
+      </c>
+      <c r="I32">
+        <v>-0.4334929831794687</v>
+      </c>
+      <c r="J32">
+        <v>-0.3444626827290688</v>
+      </c>
+      <c r="K32">
+        <v>-0.2499999999999997</v>
+      </c>
+      <c r="L32">
+        <v>-0.1515946679281683</v>
+      </c>
+      <c r="M32">
+        <v>-0.05079859738484627</v>
+      </c>
+      <c r="N32">
+        <v>0.05079859738484754</v>
+      </c>
+      <c r="O32">
+        <v>0.1515946679281699</v>
+      </c>
+      <c r="P32">
+        <v>0.2500000000000016</v>
+      </c>
+      <c r="Q32">
+        <v>0.34446268272907</v>
+      </c>
+      <c r="R32">
+        <v>0.4334929831794703</v>
+      </c>
+      <c r="S32">
+        <v>0.5156868403289728</v>
+      </c>
+      <c r="T32">
+        <v>0.5897480079501023</v>
+      </c>
+      <c r="U32">
+        <v>0.6545084971874741</v>
+      </c>
+      <c r="V32">
+        <v>-0.2831677048747016</v>
+      </c>
+      <c r="W32">
+        <v>-0.2163781830748166</v>
+      </c>
+      <c r="X32">
+        <v>-0.1461762480697802</v>
+      </c>
+      <c r="Y32">
+        <v>-0.07366902631122563</v>
+      </c>
+      <c r="Z32">
+        <v>7.771561172376096e-16</v>
+      </c>
+      <c r="AA32">
+        <v>0.07366902631122718</v>
+      </c>
+      <c r="AB32">
+        <v>0.1461762480697815</v>
+      </c>
+      <c r="AC32">
+        <v>0.2163781830748179</v>
+      </c>
+      <c r="AD32">
+        <v>0.283167704874703</v>
+      </c>
+      <c r="AE32">
+        <v>0.3454915028125275</v>
+      </c>
+      <c r="AF32">
+        <v>-0.5897480079501004</v>
+      </c>
+      <c r="AG32">
+        <v>-0.5156868403289712</v>
+      </c>
+      <c r="AH32">
+        <v>-0.4334929831794682</v>
+      </c>
+      <c r="AI32">
+        <v>-0.344462682729068</v>
+      </c>
+      <c r="AJ32">
+        <v>-0.2499999999999997</v>
+      </c>
+      <c r="AK32">
+        <v>-0.151594667928169</v>
+      </c>
+      <c r="AL32">
+        <v>-0.05079859738484571</v>
+      </c>
+      <c r="AM32">
+        <v>0.05079859738484671</v>
+      </c>
+      <c r="AN32">
+        <v>0.1515946679281697</v>
+      </c>
+      <c r="AO32">
+        <v>0.2500000000000003</v>
+      </c>
+      <c r="AP32">
+        <v>0.3444626827290695</v>
+      </c>
+      <c r="AQ32">
+        <v>0.4334929831794688</v>
+      </c>
+      <c r="AR32">
+        <v>0.5156868403289721</v>
+      </c>
+      <c r="AS32">
+        <v>0.5897480079501011</v>
+      </c>
+      <c r="AT32">
+        <v>0.6545084971874735</v>
+      </c>
+      <c r="AU32">
+        <v>0.708946996439774</v>
+      </c>
+      <c r="AV32">
+        <v>0.7522049780538131</v>
+      </c>
+      <c r="AW32">
+        <v>0.78360023781847</v>
+      </c>
+      <c r="AX32">
+        <v>0.8026376537326365</v>
+      </c>
+      <c r="AY32">
+        <v>0.8090169943749467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51">
+      <c r="A33">
+        <v>-0.7289686274214116</v>
+      </c>
+      <c r="B33">
+        <v>-0.7232204920618186</v>
+      </c>
+      <c r="C33">
+        <v>-0.70606673751143</v>
+      </c>
+      <c r="D33">
+        <v>-0.6777778887266617</v>
+      </c>
+      <c r="E33">
+        <v>-0.6388000777517888</v>
+      </c>
+      <c r="F33">
+        <v>-0.589748007950101</v>
+      </c>
+      <c r="G33">
+        <v>-0.5313952597646565</v>
+      </c>
+      <c r="H33">
+        <v>-0.4646620908925818</v>
+      </c>
+      <c r="I33">
+        <v>-0.3906009232714528</v>
+      </c>
+      <c r="J33">
+        <v>-0.3103797457566517</v>
+      </c>
+      <c r="K33">
+        <v>-0.2252636942393947</v>
+      </c>
+      <c r="L33">
+        <v>-0.1365950996979755</v>
+      </c>
+      <c r="M33">
+        <v>-0.04577231883636007</v>
+      </c>
+      <c r="N33">
+        <v>0.04577231883636124</v>
+      </c>
+      <c r="O33">
+        <v>0.1365950996979766</v>
+      </c>
+      <c r="P33">
+        <v>0.2252636942393962</v>
+      </c>
+      <c r="Q33">
+        <v>0.3103797457566533</v>
+      </c>
+      <c r="R33">
+        <v>0.3906009232714535</v>
+      </c>
+      <c r="S33">
+        <v>0.4646620908925834</v>
+      </c>
+      <c r="T33">
+        <v>0.5313952597646572</v>
+      </c>
+      <c r="U33">
+        <v>-0.4023666933643756</v>
+      </c>
+      <c r="V33">
+        <v>-0.3297830833768413</v>
+      </c>
+      <c r="W33">
+        <v>-0.2519985971615885</v>
+      </c>
+      <c r="X33">
+        <v>-0.1702399425324332</v>
+      </c>
+      <c r="Y33">
+        <v>-0.0857965023131283</v>
+      </c>
+      <c r="Z33">
+        <v>8.881784197001252e-16</v>
+      </c>
+      <c r="AA33">
+        <v>0.08579650231312974</v>
+      </c>
+      <c r="AB33">
+        <v>0.1702399425324345</v>
+      </c>
+      <c r="AC33">
+        <v>0.2519985971615899</v>
+      </c>
+      <c r="AD33">
+        <v>0.3297830833768426</v>
+      </c>
+      <c r="AE33">
+        <v>0.4023666933643775</v>
+      </c>
+      <c r="AF33">
+        <v>0.4686047402353445</v>
+      </c>
+      <c r="AG33">
+        <v>-0.4646620908925814</v>
+      </c>
+      <c r="AH33">
+        <v>-0.3906009232714522</v>
+      </c>
+      <c r="AI33">
+        <v>-0.3103797457566512</v>
+      </c>
+      <c r="AJ33">
+        <v>-0.2252636942393943</v>
+      </c>
+      <c r="AK33">
+        <v>-0.1365950996979749</v>
+      </c>
+      <c r="AL33">
+        <v>-0.0457723188363609</v>
+      </c>
+      <c r="AM33">
+        <v>0.04577231883636168</v>
+      </c>
+      <c r="AN33">
+        <v>0.136595099697976</v>
+      </c>
+      <c r="AO33">
+        <v>0.2252636942393955</v>
+      </c>
+      <c r="AP33">
+        <v>0.3103797457566519</v>
+      </c>
+      <c r="AQ33">
+        <v>0.3906009232714532</v>
+      </c>
+      <c r="AR33">
+        <v>0.4646620908925821</v>
+      </c>
+      <c r="AS33">
+        <v>0.5313952597646565</v>
+      </c>
+      <c r="AT33">
+        <v>0.5897480079501006</v>
+      </c>
+      <c r="AU33">
+        <v>0.6388000777517886</v>
+      </c>
+      <c r="AV33">
+        <v>0.6777778887266616</v>
+      </c>
+      <c r="AW33">
+        <v>0.7060667375114289</v>
+      </c>
+      <c r="AX33">
+        <v>0.7232204920618178</v>
+      </c>
+      <c r="AY33">
+        <v>0.7289686274214102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51">
+      <c r="A34">
+        <v>-0.6374239897486896</v>
+      </c>
+      <c r="B34">
+        <v>-0.6323977112002039</v>
+      </c>
+      <c r="C34">
+        <v>-0.6173981429700098</v>
+      </c>
+      <c r="D34">
+        <v>-0.5926618372094052</v>
+      </c>
+      <c r="E34">
+        <v>-0.5585789002369878</v>
+      </c>
+      <c r="F34">
+        <v>-0.5156868403289721</v>
+      </c>
+      <c r="G34">
+        <v>-0.4646620908925817</v>
+      </c>
+      <c r="H34">
+        <v>-0.4063093427071375</v>
+      </c>
+      <c r="I34">
+        <v>-0.3415488534697648</v>
+      </c>
+      <c r="J34">
+        <v>-0.2714019347817788</v>
+      </c>
+      <c r="K34">
+        <v>-0.1969748454546275</v>
+      </c>
+      <c r="L34">
+        <v>-0.1194413451475865</v>
+      </c>
+      <c r="M34">
+        <v>-0.04002418347676795</v>
+      </c>
+      <c r="N34">
+        <v>0.04002418347676895</v>
+      </c>
+      <c r="O34">
+        <v>0.1194413451475875</v>
+      </c>
+      <c r="P34">
+        <v>0.1969748454546283</v>
+      </c>
+      <c r="Q34">
+        <v>0.2714019347817797</v>
+      </c>
+      <c r="R34">
+        <v>0.3415488534697664</v>
+      </c>
+      <c r="S34">
+        <v>0.4063093427071378</v>
+      </c>
+      <c r="T34">
+        <v>-0.5274526104218945</v>
+      </c>
+      <c r="U34">
+        <v>-0.4528963207996581</v>
+      </c>
+      <c r="V34">
+        <v>-0.3711975856512625</v>
+      </c>
+      <c r="W34">
+        <v>-0.2836448428344579</v>
+      </c>
+      <c r="X34">
+        <v>-0.1916188514049365</v>
+      </c>
+      <c r="Y34">
+        <v>-0.09657091622120673</v>
+      </c>
+      <c r="Z34">
+        <v>6.661338147750939e-16</v>
+      </c>
+      <c r="AA34">
+        <v>0.09657091622120817</v>
+      </c>
+      <c r="AB34">
+        <v>0.1916188514049382</v>
+      </c>
+      <c r="AC34">
+        <v>0.2836448428344591</v>
+      </c>
+      <c r="AD34">
+        <v>0.3711975856512644</v>
+      </c>
+      <c r="AE34">
+        <v>0.4528963207996596</v>
+      </c>
+      <c r="AF34">
+        <v>0.5274526104218965</v>
+      </c>
+      <c r="AG34">
+        <v>0.5936906572928634</v>
+      </c>
+      <c r="AH34">
+        <v>-0.3415488534697644</v>
+      </c>
+      <c r="AI34">
+        <v>-0.2714019347817785</v>
+      </c>
+      <c r="AJ34">
+        <v>-0.1969748454546264</v>
+      </c>
+      <c r="AK34">
+        <v>-0.1194413451475862</v>
+      </c>
+      <c r="AL34">
+        <v>-0.04002418347676751</v>
+      </c>
+      <c r="AM34">
+        <v>0.04002418347676839</v>
+      </c>
+      <c r="AN34">
+        <v>0.1194413451475875</v>
+      </c>
+      <c r="AO34">
+        <v>0.1969748454546276</v>
+      </c>
+      <c r="AP34">
+        <v>0.2714019347817792</v>
+      </c>
+      <c r="AQ34">
+        <v>0.3415488534697653</v>
+      </c>
+      <c r="AR34">
+        <v>0.4063093427071377</v>
+      </c>
+      <c r="AS34">
+        <v>0.4646620908925818</v>
+      </c>
+      <c r="AT34">
+        <v>0.5156868403289717</v>
+      </c>
+      <c r="AU34">
+        <v>0.5585789002369881</v>
+      </c>
+      <c r="AV34">
+        <v>0.5926618372094042</v>
+      </c>
+      <c r="AW34">
+        <v>0.6173981429700095</v>
+      </c>
+      <c r="AX34">
+        <v>0.6323977112002027</v>
+      </c>
+      <c r="AY34">
+        <v>0.6374239897486886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51">
+      <c r="A35">
+        <v>-0.5358267949789964</v>
+      </c>
+      <c r="B35">
+        <v>-0.531601640656881</v>
+      </c>
+      <c r="C35">
+        <v>-0.5189928108981793</v>
+      </c>
+      <c r="D35">
+        <v>-0.498199154480336</v>
+      </c>
+      <c r="E35">
+        <v>-0.4695485997865884</v>
+      </c>
+      <c r="F35">
+        <v>-0.4334929831794686</v>
+      </c>
+      <c r="G35">
+        <v>-0.390600923271453</v>
+      </c>
+      <c r="H35">
+        <v>-0.3415488534697647</v>
+      </c>
+      <c r="I35">
+        <v>-0.2871103542174634</v>
+      </c>
+      <c r="J35">
+        <v>-0.2281439531677406</v>
+      </c>
+      <c r="K35">
+        <v>-0.1655795856899705</v>
+      </c>
+      <c r="L35">
+        <v>-0.10040392923342</v>
+      </c>
+      <c r="M35">
+        <v>-0.03364484283445746</v>
+      </c>
+      <c r="N35">
+        <v>0.03364484283445832</v>
+      </c>
+      <c r="O35">
+        <v>0.1004039292334207</v>
+      </c>
+      <c r="P35">
+        <v>0.165579585689971</v>
+      </c>
+      <c r="Q35">
+        <v>0.2281439531677414</v>
+      </c>
+      <c r="R35">
+        <v>0.287110354217464</v>
+      </c>
+      <c r="S35">
+        <v>-0.6505658478447115</v>
+      </c>
+      <c r="T35">
+        <v>-0.5779822378571775</v>
+      </c>
+      <c r="U35">
+        <v>-0.4962835027087814</v>
+      </c>
+      <c r="V35">
+        <v>-0.4067580802572748</v>
+      </c>
+      <c r="W35">
+        <v>-0.3108178398946105</v>
+      </c>
+      <c r="X35">
+        <v>-0.2099758165232314</v>
+      </c>
+      <c r="Y35">
+        <v>-0.1058223490918075</v>
+      </c>
+      <c r="Z35">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="AA35">
+        <v>0.1058223490918091</v>
+      </c>
+      <c r="AB35">
+        <v>0.2099758165232328</v>
+      </c>
+      <c r="AC35">
+        <v>0.3108178398946126</v>
+      </c>
+      <c r="AD35">
+        <v>0.4067580802572761</v>
+      </c>
+      <c r="AE35">
+        <v>0.4962835027087834</v>
+      </c>
+      <c r="AF35">
+        <v>0.5779822378571786</v>
+      </c>
+      <c r="AG35">
+        <v>0.6505658478447135</v>
+      </c>
+      <c r="AH35">
+        <v>0.7128896457825371</v>
+      </c>
+      <c r="AI35">
+        <v>-0.2281439531677396</v>
+      </c>
+      <c r="AJ35">
+        <v>-0.1655795856899704</v>
+      </c>
+      <c r="AK35">
+        <v>-0.100403929233419</v>
+      </c>
+      <c r="AL35">
+        <v>-0.0336448428344569</v>
+      </c>
+      <c r="AM35">
+        <v>0.03364484283445834</v>
+      </c>
+      <c r="AN35">
+        <v>0.10040392923342</v>
+      </c>
+      <c r="AO35">
+        <v>0.1655795856899712</v>
+      </c>
+      <c r="AP35">
+        <v>0.2281439531677409</v>
+      </c>
+      <c r="AQ35">
+        <v>0.2871103542174637</v>
+      </c>
+      <c r="AR35">
+        <v>0.3415488534697649</v>
+      </c>
+      <c r="AS35">
+        <v>0.3906009232714529</v>
+      </c>
+      <c r="AT35">
+        <v>0.4334929831794693</v>
+      </c>
+      <c r="AU35">
+        <v>0.4695485997865875</v>
+      </c>
+      <c r="AV35">
+        <v>0.4981991544803361</v>
+      </c>
+      <c r="AW35">
+        <v>0.5189928108981779</v>
+      </c>
+      <c r="AX35">
+        <v>0.5316016406568802</v>
+      </c>
+      <c r="AY35">
+        <v>0.5358267949789951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51">
+      <c r="A36">
+        <v>-0.4257792915650724</v>
+      </c>
+      <c r="B36">
+        <v>-0.4224218946769717</v>
+      </c>
+      <c r="C36">
+        <v>-0.4124026521672071</v>
+      </c>
+      <c r="D36">
+        <v>-0.3958795734753625</v>
+      </c>
+      <c r="E36">
+        <v>-0.3731132374228169</v>
+      </c>
+      <c r="F36">
+        <v>-0.3444626827290693</v>
+      </c>
+      <c r="G36">
+        <v>-0.3103797457566516</v>
+      </c>
+      <c r="H36">
+        <v>-0.2714019347817789</v>
+      </c>
+      <c r="I36">
+        <v>-0.2281439531677404</v>
+      </c>
+      <c r="J36">
+        <v>-0.1812880051256552</v>
+      </c>
+      <c r="K36">
+        <v>-0.1315730369465331</v>
+      </c>
+      <c r="L36">
+        <v>-0.07978308337684148</v>
+      </c>
+      <c r="M36">
+        <v>-0.02673490292219374</v>
+      </c>
+      <c r="N36">
+        <v>0.0267349029221943</v>
+      </c>
+      <c r="O36">
+        <v>0.07978308337684185</v>
+      </c>
+      <c r="P36">
+        <v>0.1315730369465338</v>
+      </c>
+      <c r="Q36">
+        <v>0.1812880051256554</v>
+      </c>
+      <c r="R36">
+        <v>-0.7639707481467365</v>
+      </c>
+      <c r="S36">
+        <v>-0.6971812263468513</v>
+      </c>
+      <c r="T36">
+        <v>-0.6193967401315984</v>
+      </c>
+      <c r="U36">
+        <v>-0.5318439973147941</v>
+      </c>
+      <c r="V36">
+        <v>-0.4359037569521295</v>
+      </c>
+      <c r="W36">
+        <v>-0.3330890539460483</v>
+      </c>
+      <c r="X36">
+        <v>-0.2250213375814816</v>
+      </c>
+      <c r="Y36">
+        <v>-0.1134049003020241</v>
+      </c>
+      <c r="Z36">
+        <v>8.881784197001252e-16</v>
+      </c>
+      <c r="AA36">
+        <v>0.1134049003020252</v>
+      </c>
+      <c r="AB36">
+        <v>0.2250213375814836</v>
+      </c>
+      <c r="AC36">
+        <v>0.3330890539460498</v>
+      </c>
+      <c r="AD36">
+        <v>0.4359037569521317</v>
+      </c>
+      <c r="AE36">
+        <v>0.5318439973147951</v>
+      </c>
+      <c r="AF36">
+        <v>0.6193967401316004</v>
+      </c>
+      <c r="AG36">
+        <v>0.6971812263468523</v>
+      </c>
+      <c r="AH36">
+        <v>0.7639707481467383</v>
+      </c>
+      <c r="AI36">
+        <v>0.8187119948743452</v>
+      </c>
+      <c r="AJ36">
+        <v>-0.1315730369465322</v>
+      </c>
+      <c r="AK36">
+        <v>-0.07978308337684115</v>
+      </c>
+      <c r="AL36">
+        <v>-0.02673490292219316</v>
+      </c>
+      <c r="AM36">
+        <v>0.02673490292219471</v>
+      </c>
+      <c r="AN36">
+        <v>0.07978308337684203</v>
+      </c>
+      <c r="AO36">
+        <v>0.1315730369465333</v>
+      </c>
+      <c r="AP36">
+        <v>0.1812880051256557</v>
+      </c>
+      <c r="AQ36">
+        <v>0.2281439531677406</v>
+      </c>
+      <c r="AR36">
+        <v>0.2714019347817789</v>
+      </c>
+      <c r="AS36">
+        <v>0.3103797457566524</v>
+      </c>
+      <c r="AT36">
+        <v>0.3444626827290687</v>
+      </c>
+      <c r="AU36">
+        <v>0.3731132374228173</v>
+      </c>
+      <c r="AV36">
+        <v>0.3958795734753612</v>
+      </c>
+      <c r="AW36">
+        <v>0.4124026521672067</v>
+      </c>
+      <c r="AX36">
+        <v>0.4224218946769703</v>
+      </c>
+      <c r="AY36">
+        <v>0.4257792915650718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51">
+      <c r="A37">
+        <v>-0.309016994374947</v>
+      </c>
+      <c r="B37">
+        <v>-0.3065803030753986</v>
+      </c>
+      <c r="C37">
+        <v>-0.2993086572541549</v>
+      </c>
+      <c r="D37">
+        <v>-0.287316735109688</v>
+      </c>
+      <c r="E37">
+        <v>-0.2707936564178434</v>
+      </c>
+      <c r="F37">
+        <v>-0.2499999999999998</v>
+      </c>
+      <c r="G37">
+        <v>-0.2252636942393952</v>
+      </c>
+      <c r="H37">
+        <v>-0.1969748454546272</v>
+      </c>
+      <c r="I37">
+        <v>-0.1655795856899707</v>
+      </c>
+      <c r="J37">
+        <v>-0.1315730369465329</v>
+      </c>
+      <c r="K37">
+        <v>-0.09549150281252616</v>
+      </c>
+      <c r="L37">
+        <v>-0.05790401063530684</v>
+      </c>
+      <c r="M37">
+        <v>-0.01940333762018973</v>
+      </c>
+      <c r="N37">
+        <v>0.0194033376201898</v>
+      </c>
+      <c r="O37">
+        <v>0.05790401063530736</v>
+      </c>
+      <c r="P37">
+        <v>0.09549150281252623</v>
+      </c>
+      <c r="Q37">
+        <v>-0.8605416643679441</v>
+      </c>
+      <c r="R37">
+        <v>-0.80300357543866</v>
+      </c>
+      <c r="S37">
+        <v>-0.7328016404336234</v>
+      </c>
+      <c r="T37">
+        <v>-0.651042985804468</v>
+      </c>
+      <c r="U37">
+        <v>-0.5590169943749465</v>
+      </c>
+      <c r="V37">
+        <v>-0.4581749710035676</v>
+      </c>
+      <c r="W37">
+        <v>-0.3501072546390005</v>
+      </c>
+      <c r="X37">
+        <v>-0.236518137724841</v>
+      </c>
+      <c r="Y37">
+        <v>-0.1191989884896731</v>
+      </c>
+      <c r="Z37">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="AA37">
+        <v>0.1191989884896754</v>
+      </c>
+      <c r="AB37">
+        <v>0.2365181377248422</v>
+      </c>
+      <c r="AC37">
+        <v>0.3501072546390026</v>
+      </c>
+      <c r="AD37">
+        <v>0.4581749710035689</v>
+      </c>
+      <c r="AE37">
+        <v>0.5590169943749487</v>
+      </c>
+      <c r="AF37">
+        <v>0.651042985804469</v>
+      </c>
+      <c r="AG37">
+        <v>0.7328016404336252</v>
+      </c>
+      <c r="AH37">
+        <v>0.8030035754386603</v>
+      </c>
+      <c r="AI37">
+        <v>0.8605416643679457</v>
+      </c>
+      <c r="AJ37">
+        <v>0.9045084971874745</v>
+      </c>
+      <c r="AK37">
+        <v>-0.05790401063530637</v>
+      </c>
+      <c r="AL37">
+        <v>-0.01940333762018953</v>
+      </c>
+      <c r="AM37">
+        <v>0.01940333762019053</v>
+      </c>
+      <c r="AN37">
+        <v>0.05790401063530803</v>
+      </c>
+      <c r="AO37">
+        <v>0.0954915028125265</v>
+      </c>
+      <c r="AP37">
+        <v>0.131573036946533</v>
+      </c>
+      <c r="AQ37">
+        <v>0.1655795856899709</v>
+      </c>
+      <c r="AR37">
+        <v>0.1969748454546281</v>
+      </c>
+      <c r="AS37">
+        <v>0.2252636942393946</v>
+      </c>
+      <c r="AT37">
+        <v>0.2500000000000004</v>
+      </c>
+      <c r="AU37">
+        <v>0.2707936564178424</v>
+      </c>
+      <c r="AV37">
+        <v>0.2873167351096879</v>
+      </c>
+      <c r="AW37">
+        <v>0.2993086572541536</v>
+      </c>
+      <c r="AX37">
+        <v>0.3065803030753983</v>
+      </c>
+      <c r="AY37">
+        <v>0.3090169943749451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51">
+      <c r="A38">
+        <v>-0.1873813145857248</v>
+      </c>
+      <c r="B38">
+        <v>-0.1859037569521302</v>
+      </c>
+      <c r="C38">
+        <v>-0.1814943860178795</v>
+      </c>
+      <c r="D38">
+        <v>-0.1742227401966358</v>
+      </c>
+      <c r="E38">
+        <v>-0.1642034976868708</v>
+      </c>
+      <c r="F38">
+        <v>-0.1515946679281693</v>
+      </c>
+      <c r="G38">
+        <v>-0.1365950996979755</v>
+      </c>
+      <c r="H38">
+        <v>-0.1194413451475869</v>
+      </c>
+      <c r="I38">
+        <v>-0.1004039292334198</v>
+      </c>
+      <c r="J38">
+        <v>-0.07978308337684167</v>
+      </c>
+      <c r="K38">
+        <v>-0.05790401063530667</v>
+      </c>
+      <c r="L38">
+        <v>-0.03511175705587441</v>
+      </c>
+      <c r="M38">
+        <v>-0.0117657700929233</v>
+      </c>
+      <c r="N38">
+        <v>0.01176577009292334</v>
+      </c>
+      <c r="O38">
+        <v>0.03511175705587417</v>
+      </c>
+      <c r="P38">
+        <v>-0.9342106906791705</v>
+      </c>
+      <c r="Q38">
+        <v>-0.8888000777517892</v>
+      </c>
+      <c r="R38">
+        <v>-0.8293725566548309</v>
+      </c>
+      <c r="S38">
+        <v>-0.7568653348962765</v>
+      </c>
+      <c r="T38">
+        <v>-0.6724218946769716</v>
+      </c>
+      <c r="U38">
+        <v>-0.5773739594932413</v>
+      </c>
+      <c r="V38">
+        <v>-0.4732204920618175</v>
+      </c>
+      <c r="W38">
+        <v>-0.3616040547823604</v>
+      </c>
+      <c r="X38">
+        <v>-0.2442849055471921</v>
+      </c>
+      <c r="Y38">
+        <v>-0.1231132374228163</v>
+      </c>
+      <c r="Z38">
+        <v>1.332267629550188e-15</v>
+      </c>
+      <c r="AA38">
+        <v>0.1231132374228175</v>
+      </c>
+      <c r="AB38">
+        <v>0.2442849055471944</v>
+      </c>
+      <c r="AC38">
+        <v>0.3616040547823612</v>
+      </c>
+      <c r="AD38">
+        <v>0.4732204920618196</v>
+      </c>
+      <c r="AE38">
+        <v>0.5773739594932426</v>
+      </c>
+      <c r="AF38">
+        <v>0.6724218946769734</v>
+      </c>
+      <c r="AG38">
+        <v>0.7568653348962771</v>
+      </c>
+      <c r="AH38">
+        <v>0.8293725566548326</v>
+      </c>
+      <c r="AI38">
+        <v>0.8888000777517895</v>
+      </c>
+      <c r="AJ38">
+        <v>0.9342106906791715</v>
+      </c>
+      <c r="AK38">
+        <v>0.9648882429441261</v>
+      </c>
+      <c r="AL38">
+        <v>-0.01176577009292268</v>
+      </c>
+      <c r="AM38">
+        <v>0.01176577009292379</v>
+      </c>
+      <c r="AN38">
+        <v>0.03511175705587499</v>
+      </c>
+      <c r="AO38">
+        <v>0.0579040106353077</v>
+      </c>
+      <c r="AP38">
+        <v>0.0797830833768417</v>
+      </c>
+      <c r="AQ38">
+        <v>0.1004039292334205</v>
+      </c>
+      <c r="AR38">
+        <v>0.1194413451475866</v>
+      </c>
+      <c r="AS38">
+        <v>0.1365950996979761</v>
+      </c>
+      <c r="AT38">
+        <v>0.1515946679281683</v>
+      </c>
+      <c r="AU38">
+        <v>0.164203497686871</v>
+      </c>
+      <c r="AV38">
+        <v>0.1742227401966348</v>
+      </c>
+      <c r="AW38">
+        <v>0.1814943860178795</v>
+      </c>
+      <c r="AX38">
+        <v>0.1859037569521284</v>
+      </c>
+      <c r="AY38">
+        <v>0.1873813145857247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51">
+      <c r="A39">
+        <v>-0.06279051952931343</v>
+      </c>
+      <c r="B39">
+        <v>-0.06229539752820568</v>
+      </c>
+      <c r="C39">
+        <v>-0.06081783989461111</v>
+      </c>
+      <c r="D39">
+        <v>-0.05838114859506233</v>
+      </c>
+      <c r="E39">
+        <v>-0.05502375170696168</v>
+      </c>
+      <c r="F39">
+        <v>-0.0507985973848465</v>
+      </c>
+      <c r="G39">
+        <v>-0.04577231883636097</v>
+      </c>
+      <c r="H39">
+        <v>-0.04002418347676801</v>
+      </c>
+      <c r="I39">
+        <v>-0.03364484283445791</v>
+      </c>
+      <c r="J39">
+        <v>-0.0267349029221935</v>
+      </c>
+      <c r="K39">
+        <v>-0.01940333762018993</v>
+      </c>
+      <c r="L39">
+        <v>-0.01176577009292314</v>
+      </c>
+      <c r="M39">
+        <v>-0.003942649342761347</v>
+      </c>
+      <c r="N39">
+        <v>0.003942649342761069</v>
+      </c>
+      <c r="O39">
+        <v>-0.9803489312215545</v>
+      </c>
+      <c r="P39">
+        <v>-0.9491798235084412</v>
+      </c>
+      <c r="Q39">
+        <v>-0.9030415829660572</v>
+      </c>
+      <c r="R39">
+        <v>-0.8426618372094057</v>
+      </c>
+      <c r="S39">
+        <v>-0.7689928108981792</v>
+      </c>
+      <c r="T39">
+        <v>-0.6831963085850499</v>
+      </c>
+      <c r="U39">
+        <v>-0.5866253923638427</v>
+      </c>
+      <c r="V39">
+        <v>-0.480803043272034</v>
+      </c>
+      <c r="W39">
+        <v>-0.3673981429700091</v>
+      </c>
+      <c r="X39">
+        <v>-0.2481991544803357</v>
+      </c>
+      <c r="Y39">
+        <v>-0.1250859170575176</v>
+      </c>
+      <c r="Z39">
+        <v>6.661338147750939e-16</v>
+      </c>
+      <c r="AA39">
+        <v>0.1250859170575204</v>
+      </c>
+      <c r="AB39">
+        <v>0.2481991544803366</v>
+      </c>
+      <c r="AC39">
+        <v>0.3673981429700114</v>
+      </c>
+      <c r="AD39">
+        <v>0.4808030432720349</v>
+      </c>
+      <c r="AE39">
+        <v>0.5866253923638443</v>
+      </c>
+      <c r="AF39">
+        <v>0.6831963085850508</v>
+      </c>
+      <c r="AG39">
+        <v>0.7689928108981809</v>
+      </c>
+      <c r="AH39">
+        <v>0.8426618372094061</v>
+      </c>
+      <c r="AI39">
+        <v>0.9030415829660585</v>
+      </c>
+      <c r="AJ39">
+        <v>0.9491798235084412</v>
+      </c>
+      <c r="AK39">
+        <v>0.9803489312215552</v>
+      </c>
+      <c r="AL39">
+        <v>0.9960573506572394</v>
+      </c>
+      <c r="AM39">
+        <v>0.003942649342761784</v>
+      </c>
+      <c r="AN39">
+        <v>0.01176577009292346</v>
+      </c>
+      <c r="AO39">
+        <v>0.0194033376201902</v>
+      </c>
+      <c r="AP39">
+        <v>0.02673490292219516</v>
+      </c>
+      <c r="AQ39">
+        <v>0.03364484283445746</v>
+      </c>
+      <c r="AR39">
+        <v>0.0400241834767685</v>
+      </c>
+      <c r="AS39">
+        <v>0.04577231883636035</v>
+      </c>
+      <c r="AT39">
+        <v>0.05079859738484671</v>
+      </c>
+      <c r="AU39">
+        <v>0.05502375170696072</v>
+      </c>
+      <c r="AV39">
+        <v>0.0583811485950626</v>
+      </c>
+      <c r="AW39">
+        <v>0.06081783989460954</v>
+      </c>
+      <c r="AX39">
+        <v>0.0622953975282059</v>
+      </c>
+      <c r="AY39">
+        <v>0.06279051952931147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51">
+      <c r="A40">
+        <v>0.06279051952931343</v>
+      </c>
+      <c r="B40">
+        <v>0.06229539752820568</v>
+      </c>
+      <c r="C40">
+        <v>0.06081783989461144</v>
+      </c>
+      <c r="D40">
+        <v>0.058381148595063</v>
+      </c>
+      <c r="E40">
+        <v>0.05502375170696201</v>
+      </c>
+      <c r="F40">
+        <v>0.05079859738484661</v>
+      </c>
+      <c r="G40">
+        <v>0.04577231883636097</v>
+      </c>
+      <c r="H40">
+        <v>0.04002418347676801</v>
+      </c>
+      <c r="I40">
+        <v>0.03364484283445825</v>
+      </c>
+      <c r="J40">
+        <v>0.02673490292219383</v>
+      </c>
+      <c r="K40">
+        <v>0.01940333762019004</v>
+      </c>
+      <c r="L40">
+        <v>0.01176577009292314</v>
+      </c>
+      <c r="M40">
+        <v>0.003942649342761236</v>
+      </c>
+      <c r="N40">
+        <v>-0.9960573506572392</v>
+      </c>
+      <c r="O40">
+        <v>-0.9803489312215543</v>
+      </c>
+      <c r="P40">
+        <v>-0.9491798235084412</v>
+      </c>
+      <c r="Q40">
+        <v>-0.9030415829660576</v>
+      </c>
+      <c r="R40">
+        <v>-0.8426618372094055</v>
+      </c>
+      <c r="S40">
+        <v>-0.7689928108981792</v>
+      </c>
+      <c r="T40">
+        <v>-0.6831963085850503</v>
+      </c>
+      <c r="U40">
+        <v>-0.5866253923638425</v>
+      </c>
+      <c r="V40">
+        <v>-0.4808030432720343</v>
+      </c>
+      <c r="W40">
+        <v>-0.3673981429700094</v>
+      </c>
+      <c r="X40">
+        <v>-0.2481991544803346</v>
+      </c>
+      <c r="Y40">
+        <v>-0.1250859170575187</v>
+      </c>
+      <c r="Z40">
+        <v>1.443289932012704e-15</v>
+      </c>
+      <c r="AA40">
+        <v>0.1250859170575197</v>
+      </c>
+      <c r="AB40">
+        <v>0.2481991544803374</v>
+      </c>
+      <c r="AC40">
+        <v>0.3673981429700103</v>
+      </c>
+      <c r="AD40">
+        <v>0.480803043272036</v>
+      </c>
+      <c r="AE40">
+        <v>0.5866253923638433</v>
+      </c>
+      <c r="AF40">
+        <v>0.6831963085850519</v>
+      </c>
+      <c r="AG40">
+        <v>0.7689928108981797</v>
+      </c>
+      <c r="AH40">
+        <v>0.8426618372094068</v>
+      </c>
+      <c r="AI40">
+        <v>0.903041582966058</v>
+      </c>
+      <c r="AJ40">
+        <v>0.9491798235084423</v>
+      </c>
+      <c r="AK40">
+        <v>0.9803489312215544</v>
+      </c>
+      <c r="AL40">
+        <v>0.9960573506572397</v>
+      </c>
+      <c r="AM40">
+        <v>0.9960573506572391</v>
+      </c>
+      <c r="AN40">
+        <v>-0.01176577009292301</v>
+      </c>
+      <c r="AO40">
+        <v>-0.01940333762018909</v>
+      </c>
+      <c r="AP40">
+        <v>-0.02673490292219405</v>
+      </c>
+      <c r="AQ40">
+        <v>-0.03364484283445679</v>
+      </c>
+      <c r="AR40">
+        <v>-0.04002418347676884</v>
+      </c>
+      <c r="AS40">
+        <v>-0.0457723188363609</v>
+      </c>
+      <c r="AT40">
+        <v>-0.05079859738484727</v>
+      </c>
+      <c r="AU40">
+        <v>-0.05502375170696172</v>
+      </c>
+      <c r="AV40">
+        <v>-0.05838114859506449</v>
+      </c>
+      <c r="AW40">
+        <v>-0.06081783989461098</v>
+      </c>
+      <c r="AX40">
+        <v>-0.06229539752820734</v>
+      </c>
+      <c r="AY40">
+        <v>-0.06279051952931347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51">
+      <c r="A41">
+        <v>0.1873813145857248</v>
+      </c>
+      <c r="B41">
+        <v>0.1859037569521305</v>
+      </c>
+      <c r="C41">
+        <v>0.1814943860178798</v>
+      </c>
+      <c r="D41">
+        <v>0.1742227401966358</v>
+      </c>
+      <c r="E41">
+        <v>0.1642034976868713</v>
+      </c>
+      <c r="F41">
+        <v>0.1515946679281695</v>
+      </c>
+      <c r="G41">
+        <v>0.1365950996979756</v>
+      </c>
+      <c r="H41">
+        <v>0.1194413451475872</v>
+      </c>
+      <c r="I41">
+        <v>0.1004039292334198</v>
+      </c>
+      <c r="J41">
+        <v>0.07978308337684178</v>
+      </c>
+      <c r="K41">
+        <v>0.0579040106353069</v>
+      </c>
+      <c r="L41">
+        <v>0.03511175705587441</v>
+      </c>
+      <c r="M41">
+        <v>-0.9803489312215548</v>
+      </c>
+      <c r="N41">
+        <v>-0.9803489312215542</v>
+      </c>
+      <c r="O41">
+        <v>-0.9648882429441259</v>
+      </c>
+      <c r="P41">
+        <v>-0.9342106906791706</v>
+      </c>
+      <c r="Q41">
+        <v>-0.8888000777517895</v>
+      </c>
+      <c r="R41">
+        <v>-0.8293725566548312</v>
+      </c>
+      <c r="S41">
+        <v>-0.7568653348962766</v>
+      </c>
+      <c r="T41">
+        <v>-0.6724218946769717</v>
+      </c>
+      <c r="U41">
+        <v>-0.5773739594932419</v>
+      </c>
+      <c r="V41">
+        <v>-0.4732204920618178</v>
+      </c>
+      <c r="W41">
+        <v>-0.3616040547823598</v>
+      </c>
+      <c r="X41">
+        <v>-0.2442849055471924</v>
+      </c>
+      <c r="Y41">
+        <v>-0.1231132374228155</v>
+      </c>
+      <c r="Z41">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="AA41">
+        <v>0.1231132374228184</v>
+      </c>
+      <c r="AB41">
+        <v>0.2442849055471934</v>
+      </c>
+      <c r="AC41">
+        <v>0.361604054782362</v>
+      </c>
+      <c r="AD41">
+        <v>0.4732204920618186</v>
+      </c>
+      <c r="AE41">
+        <v>0.5773739594932438</v>
+      </c>
+      <c r="AF41">
+        <v>0.6724218946769722</v>
+      </c>
+      <c r="AG41">
+        <v>0.7568653348962776</v>
+      </c>
+      <c r="AH41">
+        <v>0.8293725566548316</v>
+      </c>
+      <c r="AI41">
+        <v>0.8888000777517907</v>
+      </c>
+      <c r="AJ41">
+        <v>0.9342106906791712</v>
+      </c>
+      <c r="AK41">
+        <v>0.9648882429441267</v>
+      </c>
+      <c r="AL41">
+        <v>0.9803489312215541</v>
+      </c>
+      <c r="AM41">
+        <v>0.9803489312215549</v>
+      </c>
+      <c r="AN41">
+        <v>0.9648882429441266</v>
+      </c>
+      <c r="AO41">
+        <v>-0.05790401063530726</v>
+      </c>
+      <c r="AP41">
+        <v>-0.07978308337684104</v>
+      </c>
+      <c r="AQ41">
+        <v>-0.1004039292334203</v>
+      </c>
+      <c r="AR41">
+        <v>-0.1194413451475862</v>
+      </c>
+      <c r="AS41">
+        <v>-0.1365950996979765</v>
+      </c>
+      <c r="AT41">
+        <v>-0.1515946679281693</v>
+      </c>
+      <c r="AU41">
+        <v>-0.1642034976868725</v>
+      </c>
+      <c r="AV41">
+        <v>-0.1742227401966353</v>
+      </c>
+      <c r="AW41">
+        <v>-0.1814943860178814</v>
+      </c>
+      <c r="AX41">
+        <v>-0.1859037569521304</v>
+      </c>
+      <c r="AY41">
+        <v>-0.1873813145857262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51">
+      <c r="A42">
+        <v>0.3090169943749477</v>
+      </c>
+      <c r="B42">
+        <v>0.3065803030753989</v>
+      </c>
+      <c r="C42">
+        <v>0.2993086572541549</v>
+      </c>
+      <c r="D42">
+        <v>0.2873167351096881</v>
+      </c>
+      <c r="E42">
+        <v>0.2707936564178433</v>
+      </c>
+      <c r="F42">
+        <v>0.2500000000000003</v>
+      </c>
+      <c r="G42">
+        <v>0.2252636942393957</v>
+      </c>
+      <c r="H42">
+        <v>0.1969748454546273</v>
+      </c>
+      <c r="I42">
+        <v>0.1655795856899708</v>
+      </c>
+      <c r="J42">
+        <v>0.1315730369465328</v>
+      </c>
+      <c r="K42">
+        <v>0.09549150281252616</v>
+      </c>
+      <c r="L42">
+        <v>-0.934210690679171</v>
+      </c>
+      <c r="M42">
+        <v>-0.949179823508441</v>
+      </c>
+      <c r="N42">
+        <v>-0.9491798235084414</v>
+      </c>
+      <c r="O42">
+        <v>-0.9342106906791705</v>
+      </c>
+      <c r="P42">
+        <v>-0.9045084971874742</v>
+      </c>
+      <c r="Q42">
+        <v>-0.8605416643679442</v>
+      </c>
+      <c r="R42">
+        <v>-0.8030035754386606</v>
+      </c>
+      <c r="S42">
+        <v>-0.7328016404336237</v>
+      </c>
+      <c r="T42">
+        <v>-0.6510429858044682</v>
+      </c>
+      <c r="U42">
+        <v>-0.559016994374947</v>
+      </c>
+      <c r="V42">
+        <v>-0.4581749710035674</v>
+      </c>
+      <c r="W42">
+        <v>-0.3501072546390008</v>
+      </c>
+      <c r="X42">
+        <v>-0.2365181377248408</v>
+      </c>
+      <c r="Y42">
+        <v>-0.1191989884896734</v>
+      </c>
+      <c r="Z42">
+        <v>1.443289932012704e-15</v>
+      </c>
+      <c r="AA42">
+        <v>0.119198988489674</v>
+      </c>
+      <c r="AB42">
+        <v>0.2365181377248431</v>
+      </c>
+      <c r="AC42">
+        <v>0.3501072546390017</v>
+      </c>
+      <c r="AD42">
+        <v>0.4581749710035697</v>
+      </c>
+      <c r="AE42">
+        <v>0.5590169943749475</v>
+      </c>
+      <c r="AF42">
+        <v>0.6510429858044696</v>
+      </c>
+      <c r="AG42">
+        <v>0.7328016404336242</v>
+      </c>
+      <c r="AH42">
+        <v>0.8030035754386614</v>
+      </c>
+      <c r="AI42">
+        <v>0.8605416643679447</v>
+      </c>
+      <c r="AJ42">
+        <v>0.9045084971874752</v>
+      </c>
+      <c r="AK42">
+        <v>0.934210690679171</v>
+      </c>
+      <c r="AL42">
+        <v>0.949179823508442</v>
+      </c>
+      <c r="AM42">
+        <v>0.9491798235084414</v>
+      </c>
+      <c r="AN42">
+        <v>0.9342106906791706</v>
+      </c>
+      <c r="AO42">
+        <v>0.9045084971874746</v>
+      </c>
+      <c r="AP42">
+        <v>-0.1315730369465336</v>
+      </c>
+      <c r="AQ42">
+        <v>-0.1655795856899704</v>
+      </c>
+      <c r="AR42">
+        <v>-0.196974845454628</v>
+      </c>
+      <c r="AS42">
+        <v>-0.2252636942393946</v>
+      </c>
+      <c r="AT42">
+        <v>-0.2500000000000017</v>
+      </c>
+      <c r="AU42">
+        <v>-0.2707936564178429</v>
+      </c>
+      <c r="AV42">
+        <v>-0.2873167351096894</v>
+      </c>
+      <c r="AW42">
+        <v>-0.2993086572541547</v>
+      </c>
+      <c r="AX42">
+        <v>-0.3065803030754002</v>
+      </c>
+      <c r="AY42">
+        <v>-0.3090169943749473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51">
+      <c r="A43">
+        <v>0.425779291565073</v>
+      </c>
+      <c r="B43">
+        <v>0.4224218946769721</v>
+      </c>
+      <c r="C43">
+        <v>0.4124026521672072</v>
+      </c>
+      <c r="D43">
+        <v>0.3958795734753623</v>
+      </c>
+      <c r="E43">
+        <v>0.3731132374228171</v>
+      </c>
+      <c r="F43">
+        <v>0.3444626827290695</v>
+      </c>
+      <c r="G43">
+        <v>0.3103797457566521</v>
+      </c>
+      <c r="H43">
+        <v>0.2714019347817793</v>
+      </c>
+      <c r="I43">
+        <v>0.2281439531677404</v>
+      </c>
+      <c r="J43">
+        <v>0.1812880051256552</v>
+      </c>
+      <c r="K43">
+        <v>-0.860541664367945</v>
+      </c>
+      <c r="L43">
+        <v>-0.8888000777517893</v>
+      </c>
+      <c r="M43">
+        <v>-0.9030415829660577</v>
+      </c>
+      <c r="N43">
+        <v>-0.9030415829660572</v>
+      </c>
+      <c r="O43">
+        <v>-0.8888000777517896</v>
+      </c>
+      <c r="P43">
+        <v>-0.8605416643679442</v>
+      </c>
+      <c r="Q43">
+        <v>-0.8187119948743452</v>
+      </c>
+      <c r="R43">
+        <v>-0.7639707481467366</v>
+      </c>
+      <c r="S43">
+        <v>-0.6971812263468523</v>
+      </c>
+      <c r="T43">
+        <v>-0.6193967401315992</v>
+      </c>
+      <c r="U43">
+        <v>-0.5318439973147938</v>
+      </c>
+      <c r="V43">
+        <v>-0.43590375695213</v>
+      </c>
+      <c r="W43">
+        <v>-0.3330890539460484</v>
+      </c>
+      <c r="X43">
+        <v>-0.2250213375814818</v>
+      </c>
+      <c r="Y43">
+        <v>-0.1134049003020238</v>
+      </c>
+      <c r="Z43">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="AA43">
+        <v>0.1134049003020261</v>
+      </c>
+      <c r="AB43">
+        <v>0.2250213375814824</v>
+      </c>
+      <c r="AC43">
+        <v>0.3330890539460508</v>
+      </c>
+      <c r="AD43">
+        <v>0.4359037569521306</v>
+      </c>
+      <c r="AE43">
+        <v>0.5318439973147956</v>
+      </c>
+      <c r="AF43">
+        <v>0.6193967401315995</v>
+      </c>
+      <c r="AG43">
+        <v>0.6971812263468534</v>
+      </c>
+      <c r="AH43">
+        <v>0.7639707481467372</v>
+      </c>
+      <c r="AI43">
+        <v>0.8187119948743459</v>
+      </c>
+      <c r="AJ43">
+        <v>0.8605416643679445</v>
+      </c>
+      <c r="AK43">
+        <v>0.8888000777517905</v>
+      </c>
+      <c r="AL43">
+        <v>0.9030415829660582</v>
+      </c>
+      <c r="AM43">
+        <v>0.9030415829660577</v>
+      </c>
+      <c r="AN43">
+        <v>0.8888000777517896</v>
+      </c>
+      <c r="AO43">
+        <v>0.8605416643679443</v>
+      </c>
+      <c r="AP43">
+        <v>0.8187119948743452</v>
+      </c>
+      <c r="AQ43">
+        <v>-0.2281439531677412</v>
+      </c>
+      <c r="AR43">
+        <v>-0.2714019347817789</v>
+      </c>
+      <c r="AS43">
+        <v>-0.3103797457566532</v>
+      </c>
+      <c r="AT43">
+        <v>-0.3444626827290682</v>
+      </c>
+      <c r="AU43">
+        <v>-0.3731132374228185</v>
+      </c>
+      <c r="AV43">
+        <v>-0.3958795734753623</v>
+      </c>
+      <c r="AW43">
+        <v>-0.4124026521672082</v>
+      </c>
+      <c r="AX43">
+        <v>-0.4224218946769717</v>
+      </c>
+      <c r="AY43">
+        <v>-0.4257792915650741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51">
+      <c r="A44">
+        <v>0.5358267949789964</v>
+      </c>
+      <c r="B44">
+        <v>0.5316016406568813</v>
+      </c>
+      <c r="C44">
+        <v>0.5189928108981795</v>
+      </c>
+      <c r="D44">
+        <v>0.4981991544803361</v>
+      </c>
+      <c r="E44">
+        <v>0.4695485997865886</v>
+      </c>
+      <c r="F44">
+        <v>0.4334929831794689</v>
+      </c>
+      <c r="G44">
+        <v>0.390600923271453</v>
+      </c>
+      <c r="H44">
+        <v>0.341548853469765</v>
+      </c>
+      <c r="I44">
+        <v>0.2871103542174637</v>
+      </c>
+      <c r="J44">
+        <v>-0.7639707481467374</v>
+      </c>
+      <c r="K44">
+        <v>-0.8030035754386603</v>
+      </c>
+      <c r="L44">
+        <v>-0.8293725566548319</v>
+      </c>
+      <c r="M44">
+        <v>-0.8426618372094054</v>
+      </c>
+      <c r="N44">
+        <v>-0.8426618372094058</v>
+      </c>
+      <c r="O44">
+        <v>-0.829372556654831</v>
+      </c>
+      <c r="P44">
+        <v>-0.8030035754386607</v>
+      </c>
+      <c r="Q44">
+        <v>-0.7639707481467365</v>
+      </c>
+      <c r="R44">
+        <v>-0.7128896457825368</v>
+      </c>
+      <c r="S44">
+        <v>-0.6505658478447122</v>
+      </c>
+      <c r="T44">
+        <v>-0.5779822378571781</v>
+      </c>
+      <c r="U44">
+        <v>-0.4962835027087821</v>
+      </c>
+      <c r="V44">
+        <v>-0.4067580802572748</v>
+      </c>
+      <c r="W44">
+        <v>-0.310817839894611</v>
+      </c>
+      <c r="X44">
+        <v>-0.2099758165232314</v>
+      </c>
+      <c r="Y44">
+        <v>-0.1058223490918081</v>
+      </c>
+      <c r="Z44">
+        <v>8.881784197001252e-16</v>
+      </c>
+      <c r="AA44">
+        <v>0.1058223490918087</v>
+      </c>
+      <c r="AB44">
+        <v>0.2099758165232338</v>
+      </c>
+      <c r="AC44">
+        <v>0.3108178398946112</v>
+      </c>
+      <c r="AD44">
+        <v>0.4067580802572767</v>
+      </c>
+      <c r="AE44">
+        <v>0.4962835027087825</v>
+      </c>
+      <c r="AF44">
+        <v>0.5779822378571794</v>
+      </c>
+      <c r="AG44">
+        <v>0.6505658478447126</v>
+      </c>
+      <c r="AH44">
+        <v>0.7128896457825379</v>
+      </c>
+      <c r="AI44">
+        <v>0.7639707481467372</v>
+      </c>
+      <c r="AJ44">
+        <v>0.8030035754386612</v>
+      </c>
+      <c r="AK44">
+        <v>0.8293725566548317</v>
+      </c>
+      <c r="AL44">
+        <v>0.8426618372094062</v>
+      </c>
+      <c r="AM44">
+        <v>0.8426618372094062</v>
+      </c>
+      <c r="AN44">
+        <v>0.8293725566548314</v>
+      </c>
+      <c r="AO44">
+        <v>0.8030035754386603</v>
+      </c>
+      <c r="AP44">
+        <v>0.7639707481467367</v>
+      </c>
+      <c r="AQ44">
+        <v>0.7128896457825368</v>
+      </c>
+      <c r="AR44">
+        <v>-0.3415488534697664</v>
+      </c>
+      <c r="AS44">
+        <v>-0.3906009232714525</v>
+      </c>
+      <c r="AT44">
+        <v>-0.43349298317947</v>
+      </c>
+      <c r="AU44">
+        <v>-0.4695485997865876</v>
+      </c>
+      <c r="AV44">
+        <v>-0.4981991544803374</v>
+      </c>
+      <c r="AW44">
+        <v>-0.5189928108981793</v>
+      </c>
+      <c r="AX44">
+        <v>-0.5316016406568821</v>
+      </c>
+      <c r="AY44">
+        <v>-0.535826794978996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51">
+      <c r="A45">
+        <v>0.6374239897486896</v>
+      </c>
+      <c r="B45">
+        <v>0.6323977112002039</v>
+      </c>
+      <c r="C45">
+        <v>0.6173981429700103</v>
+      </c>
+      <c r="D45">
+        <v>0.5926618372094057</v>
+      </c>
+      <c r="E45">
+        <v>0.558578900236988</v>
+      </c>
+      <c r="F45">
+        <v>0.5156868403289721</v>
+      </c>
+      <c r="G45">
+        <v>0.4646620908925819</v>
+      </c>
+      <c r="H45">
+        <v>0.4063093427071375</v>
+      </c>
+      <c r="I45">
+        <v>-0.6505658478447127</v>
+      </c>
+      <c r="J45">
+        <v>-0.6971812263468519</v>
+      </c>
+      <c r="K45">
+        <v>-0.7328016404336244</v>
+      </c>
+      <c r="L45">
+        <v>-0.7568653348962765</v>
+      </c>
+      <c r="M45">
+        <v>-0.7689928108981798</v>
+      </c>
+      <c r="N45">
+        <v>-0.7689928108981791</v>
+      </c>
+      <c r="O45">
+        <v>-0.7568653348962771</v>
+      </c>
+      <c r="P45">
+        <v>-0.7328016404336234</v>
+      </c>
+      <c r="Q45">
+        <v>-0.6971812263468522</v>
+      </c>
+      <c r="R45">
+        <v>-0.6505658478447122</v>
+      </c>
+      <c r="S45">
+        <v>-0.5936906572928626</v>
+      </c>
+      <c r="T45">
+        <v>-0.527452610421895</v>
+      </c>
+      <c r="U45">
+        <v>-0.452896320799659</v>
+      </c>
+      <c r="V45">
+        <v>-0.371197585651263</v>
+      </c>
+      <c r="W45">
+        <v>-0.2836448428344578</v>
+      </c>
+      <c r="X45">
+        <v>-0.1916188514049373</v>
+      </c>
+      <c r="Y45">
+        <v>-0.09657091622120673</v>
+      </c>
+      <c r="Z45">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="AA45">
+        <v>0.09657091622120861</v>
+      </c>
+      <c r="AB45">
+        <v>0.1916188514049375</v>
+      </c>
+      <c r="AC45">
+        <v>0.2836448428344597</v>
+      </c>
+      <c r="AD45">
+        <v>0.3711975856512632</v>
+      </c>
+      <c r="AE45">
+        <v>0.4528963207996605</v>
+      </c>
+      <c r="AF45">
+        <v>0.5274526104218956</v>
+      </c>
+      <c r="AG45">
+        <v>0.5936906572928639</v>
+      </c>
+      <c r="AH45">
+        <v>0.6505658478447126</v>
+      </c>
+      <c r="AI45">
+        <v>0.6971812263468532</v>
+      </c>
+      <c r="AJ45">
+        <v>0.7328016404336243</v>
+      </c>
+      <c r="AK45">
+        <v>0.7568653348962769</v>
+      </c>
+      <c r="AL45">
+        <v>0.7689928108981797</v>
+      </c>
+      <c r="AM45">
+        <v>0.7689928108981799</v>
+      </c>
+      <c r="AN45">
+        <v>0.7568653348962769</v>
+      </c>
+      <c r="AO45">
+        <v>0.7328016404336238</v>
+      </c>
+      <c r="AP45">
+        <v>0.6971812263468519</v>
+      </c>
+      <c r="AQ45">
+        <v>0.6505658478447115</v>
+      </c>
+      <c r="AR45">
+        <v>0.5936906572928632</v>
+      </c>
+      <c r="AS45">
+        <v>-0.4646620908925833</v>
+      </c>
+      <c r="AT45">
+        <v>-0.5156868403289718</v>
+      </c>
+      <c r="AU45">
+        <v>-0.5585789002369889</v>
+      </c>
+      <c r="AV45">
+        <v>-0.5926618372094046</v>
+      </c>
+      <c r="AW45">
+        <v>-0.6173981429700114</v>
+      </c>
+      <c r="AX45">
+        <v>-0.6323977112002037</v>
+      </c>
+      <c r="AY45">
+        <v>-0.6374239897486899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51">
+      <c r="A46">
+        <v>0.7289686274214116</v>
+      </c>
+      <c r="B46">
+        <v>0.7232204920618186</v>
+      </c>
+      <c r="C46">
+        <v>0.70606673751143</v>
+      </c>
+      <c r="D46">
+        <v>0.6777778887266621</v>
+      </c>
+      <c r="E46">
+        <v>0.6388000777517893</v>
+      </c>
+      <c r="F46">
+        <v>0.589748007950101</v>
+      </c>
+      <c r="G46">
+        <v>0.5313952597646565</v>
+      </c>
+      <c r="H46">
+        <v>-0.5274526104218958</v>
+      </c>
+      <c r="I46">
+        <v>-0.5779822378571781</v>
+      </c>
+      <c r="J46">
+        <v>-0.6193967401315997</v>
+      </c>
+      <c r="K46">
+        <v>-0.6510429858044681</v>
+      </c>
+      <c r="L46">
+        <v>-0.6724218946769723</v>
+      </c>
+      <c r="M46">
+        <v>-0.6831963085850502</v>
+      </c>
+      <c r="N46">
+        <v>-0.6831963085850511</v>
+      </c>
+      <c r="O46">
+        <v>-0.6724218946769714</v>
+      </c>
+      <c r="P46">
+        <v>-0.6510429858044685</v>
+      </c>
+      <c r="Q46">
+        <v>-0.6193967401315991</v>
+      </c>
+      <c r="R46">
+        <v>-0.5779822378571781</v>
+      </c>
+      <c r="S46">
+        <v>-0.527452610421895</v>
+      </c>
+      <c r="T46">
+        <v>-0.4686047402353436</v>
+      </c>
+      <c r="U46">
+        <v>-0.4023666933643759</v>
+      </c>
+      <c r="V46">
+        <v>-0.329783083376842</v>
+      </c>
+      <c r="W46">
+        <v>-0.2519985971615893</v>
+      </c>
+      <c r="X46">
+        <v>-0.1702399425324331</v>
+      </c>
+      <c r="Y46">
+        <v>-0.08579650231312896</v>
+      </c>
+      <c r="Z46">
+        <v>9.992007221626409e-16</v>
+      </c>
+      <c r="AA46">
+        <v>0.08579650231312907</v>
+      </c>
+      <c r="AB46">
+        <v>0.1702399425324345</v>
+      </c>
+      <c r="AC46">
+        <v>0.2519985971615895</v>
+      </c>
+      <c r="AD46">
+        <v>0.3297830833768435</v>
+      </c>
+      <c r="AE46">
+        <v>0.4023666933643762</v>
+      </c>
+      <c r="AF46">
+        <v>0.468604740235345</v>
+      </c>
+      <c r="AG46">
+        <v>0.5274526104218956</v>
+      </c>
+      <c r="AH46">
+        <v>0.5779822378571793</v>
+      </c>
+      <c r="AI46">
+        <v>0.6193967401315997</v>
+      </c>
+      <c r="AJ46">
+        <v>0.6510429858044691</v>
+      </c>
+      <c r="AK46">
+        <v>0.6724218946769723</v>
+      </c>
+      <c r="AL46">
+        <v>0.6831963085850505</v>
+      </c>
+      <c r="AM46">
+        <v>0.6831963085850504</v>
+      </c>
+      <c r="AN46">
+        <v>0.6724218946769724</v>
+      </c>
+      <c r="AO46">
+        <v>0.6510429858044685</v>
+      </c>
+      <c r="AP46">
+        <v>0.6193967401315987</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5779822378571783</v>
+      </c>
+      <c r="AR46">
+        <v>0.5274526104218946</v>
+      </c>
+      <c r="AS46">
+        <v>0.4686047402353438</v>
+      </c>
+      <c r="AT46">
+        <v>-0.5897480079501021</v>
+      </c>
+      <c r="AU46">
+        <v>-0.6388000777517889</v>
+      </c>
+      <c r="AV46">
+        <v>-0.677777888726663</v>
+      </c>
+      <c r="AW46">
+        <v>-0.706066737511429</v>
+      </c>
+      <c r="AX46">
+        <v>-0.7232204920618193</v>
+      </c>
+      <c r="AY46">
+        <v>-0.728968627421411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51">
+      <c r="A47">
+        <v>0.8090169943749475</v>
+      </c>
+      <c r="B47">
+        <v>0.8026376537326376</v>
+      </c>
+      <c r="C47">
+        <v>0.7836002378184705</v>
+      </c>
+      <c r="D47">
+        <v>0.7522049780538136</v>
+      </c>
+      <c r="E47">
+        <v>0.7089469964397752</v>
+      </c>
+      <c r="F47">
+        <v>0.6545084971874737</v>
+      </c>
+      <c r="G47">
+        <v>-0.4023666933643768</v>
+      </c>
+      <c r="H47">
+        <v>-0.452896320799659</v>
+      </c>
+      <c r="I47">
+        <v>-0.4962835027087827</v>
+      </c>
+      <c r="J47">
+        <v>-0.5318439973147943</v>
+      </c>
+      <c r="K47">
+        <v>-0.5590169943749478</v>
+      </c>
+      <c r="L47">
+        <v>-0.5773739594932418</v>
+      </c>
+      <c r="M47">
+        <v>-0.5866253923638435</v>
+      </c>
+      <c r="N47">
+        <v>-0.5866253923638426</v>
+      </c>
+      <c r="O47">
+        <v>-0.5773739594932427</v>
+      </c>
+      <c r="P47">
+        <v>-0.5590169943749471</v>
+      </c>
+      <c r="Q47">
+        <v>-0.5318439973147943</v>
+      </c>
+      <c r="R47">
+        <v>-0.4962835027087819</v>
+      </c>
+      <c r="S47">
+        <v>-0.452896320799659</v>
+      </c>
+      <c r="T47">
+        <v>-0.4023666933643759</v>
+      </c>
+      <c r="U47">
+        <v>-0.3454915028125266</v>
+      </c>
+      <c r="V47">
+        <v>-0.2831677048747022</v>
+      </c>
+      <c r="W47">
+        <v>-0.2163781830748174</v>
+      </c>
+      <c r="X47">
+        <v>-0.146176248069781</v>
+      </c>
+      <c r="Y47">
+        <v>-0.07366902631122541</v>
+      </c>
+      <c r="Z47">
+        <v>-1.110223024625157e-16</v>
+      </c>
+      <c r="AA47">
+        <v>0.07366902631122685</v>
+      </c>
+      <c r="AB47">
+        <v>0.146176248069781</v>
+      </c>
+      <c r="AC47">
+        <v>0.2163781830748183</v>
+      </c>
+      <c r="AD47">
+        <v>0.2831677048747026</v>
+      </c>
+      <c r="AE47">
+        <v>0.3454915028125281</v>
+      </c>
+      <c r="AF47">
+        <v>0.4023666933643762</v>
+      </c>
+      <c r="AG47">
+        <v>0.4528963207996605</v>
+      </c>
+      <c r="AH47">
+        <v>0.4962835027087827</v>
+      </c>
+      <c r="AI47">
+        <v>0.531843997314795</v>
+      </c>
+      <c r="AJ47">
+        <v>0.5590169943749478</v>
+      </c>
+      <c r="AK47">
+        <v>0.5773739594932428</v>
+      </c>
+      <c r="AL47">
+        <v>0.586625392363843</v>
+      </c>
+      <c r="AM47">
+        <v>0.5866253923638429</v>
+      </c>
+      <c r="AN47">
+        <v>0.577373959493242</v>
+      </c>
+      <c r="AO47">
+        <v>0.5590169943749472</v>
+      </c>
+      <c r="AP47">
+        <v>0.5318439973147949</v>
+      </c>
+      <c r="AQ47">
+        <v>0.4962835027087817</v>
+      </c>
+      <c r="AR47">
+        <v>0.4528963207996589</v>
+      </c>
+      <c r="AS47">
+        <v>0.4023666933643758</v>
+      </c>
+      <c r="AT47">
+        <v>0.3454915028125267</v>
+      </c>
+      <c r="AU47">
+        <v>-0.7089469964397762</v>
+      </c>
+      <c r="AV47">
+        <v>-0.7522049780538134</v>
+      </c>
+      <c r="AW47">
+        <v>-0.7836002378184709</v>
+      </c>
+      <c r="AX47">
+        <v>-0.8026376537326363</v>
+      </c>
+      <c r="AY47">
+        <v>-0.8090169943749489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51">
+      <c r="A48">
+        <v>0.8763066800438637</v>
+      </c>
+      <c r="B48">
+        <v>0.8693967401315995</v>
+      </c>
+      <c r="C48">
+        <v>0.8487758942750212</v>
+      </c>
+      <c r="D48">
+        <v>0.8147693455315838</v>
+      </c>
+      <c r="E48">
+        <v>0.7679133974894981</v>
+      </c>
+      <c r="F48">
+        <v>-0.2831677048747026</v>
+      </c>
+      <c r="G48">
+        <v>-0.3297830833768418</v>
+      </c>
+      <c r="H48">
+        <v>-0.3711975856512637</v>
+      </c>
+      <c r="I48">
+        <v>-0.4067580802572752</v>
+      </c>
+      <c r="J48">
+        <v>-0.4359037569521308</v>
+      </c>
+      <c r="K48">
+        <v>-0.4581749710035681</v>
+      </c>
+      <c r="L48">
+        <v>-0.4732204920618188</v>
+      </c>
+      <c r="M48">
+        <v>-0.4808030432720343</v>
+      </c>
+      <c r="N48">
+        <v>-0.4808030432720349</v>
+      </c>
+      <c r="O48">
+        <v>-0.4732204920618183</v>
+      </c>
+      <c r="P48">
+        <v>-0.4581749710035684</v>
+      </c>
+      <c r="Q48">
+        <v>-0.4359037569521299</v>
+      </c>
+      <c r="R48">
+        <v>-0.4067580802572752</v>
+      </c>
+      <c r="S48">
+        <v>-0.3711975856512628</v>
+      </c>
+      <c r="T48">
+        <v>-0.329783083376842</v>
+      </c>
+      <c r="U48">
+        <v>-0.2831677048747022</v>
+      </c>
+      <c r="V48">
+        <v>-0.2320866025105019</v>
+      </c>
+      <c r="W48">
+        <v>-0.1773453557828939</v>
+      </c>
+      <c r="X48">
+        <v>-0.1198072668536097</v>
+      </c>
+      <c r="Y48">
+        <v>-0.06037974575665217</v>
+      </c>
+      <c r="Z48">
+        <v>4.440892098500626e-16</v>
+      </c>
+      <c r="AA48">
+        <v>0.06037974575665184</v>
+      </c>
+      <c r="AB48">
+        <v>0.1198072668536106</v>
+      </c>
+      <c r="AC48">
+        <v>0.1773453557828941</v>
+      </c>
+      <c r="AD48">
+        <v>0.2320866025105028</v>
+      </c>
+      <c r="AE48">
+        <v>0.2831677048747026</v>
+      </c>
+      <c r="AF48">
+        <v>0.3297830833768435</v>
+      </c>
+      <c r="AG48">
+        <v>0.3711975856512634</v>
+      </c>
+      <c r="AH48">
+        <v>0.4067580802572762</v>
+      </c>
+      <c r="AI48">
+        <v>0.4359037569521307</v>
+      </c>
+      <c r="AJ48">
+        <v>0.4581749710035686</v>
+      </c>
+      <c r="AK48">
+        <v>0.4732204920618186</v>
+      </c>
+      <c r="AL48">
+        <v>0.4808030432720352</v>
+      </c>
+      <c r="AM48">
+        <v>0.4808030432720346</v>
+      </c>
+      <c r="AN48">
+        <v>0.4732204920618177</v>
+      </c>
+      <c r="AO48">
+        <v>0.4581749710035683</v>
+      </c>
+      <c r="AP48">
+        <v>0.4359037569521302</v>
+      </c>
+      <c r="AQ48">
+        <v>0.4067580802572756</v>
+      </c>
+      <c r="AR48">
+        <v>0.3711975856512629</v>
+      </c>
+      <c r="AS48">
+        <v>0.3297830833768418</v>
+      </c>
+      <c r="AT48">
+        <v>0.2831677048747017</v>
+      </c>
+      <c r="AU48">
+        <v>0.2320866025105023</v>
+      </c>
+      <c r="AV48">
+        <v>-0.814769345531584</v>
+      </c>
+      <c r="AW48">
+        <v>-0.8487758942750208</v>
+      </c>
+      <c r="AX48">
+        <v>-0.8693967401316004</v>
+      </c>
+      <c r="AY48">
+        <v>-0.8763066800438628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51">
+      <c r="A49">
+        <v>0.9297764858882516</v>
+      </c>
+      <c r="B49">
+        <v>0.9224449205862474</v>
+      </c>
+      <c r="C49">
+        <v>0.9005658478447127</v>
+      </c>
+      <c r="D49">
+        <v>0.8644843137107056</v>
+      </c>
+      <c r="E49">
+        <v>-0.177345355782894</v>
+      </c>
+      <c r="F49">
+        <v>-0.2163781830748175</v>
+      </c>
+      <c r="G49">
+        <v>-0.2519985971615895</v>
+      </c>
+      <c r="H49">
+        <v>-0.283644842834458</v>
+      </c>
+      <c r="I49">
+        <v>-0.3108178398946118</v>
+      </c>
+      <c r="J49">
+        <v>-0.333089053946049</v>
+      </c>
+      <c r="K49">
+        <v>-0.3501072546390018</v>
+      </c>
+      <c r="L49">
+        <v>-0.3616040547823606</v>
+      </c>
+      <c r="M49">
+        <v>-0.3673981429700103</v>
+      </c>
+      <c r="N49">
+        <v>-0.3673981429700099</v>
+      </c>
+      <c r="O49">
+        <v>-0.3616040547823607</v>
+      </c>
+      <c r="P49">
+        <v>-0.3501072546390011</v>
+      </c>
+      <c r="Q49">
+        <v>-0.3330890539460494</v>
+      </c>
+      <c r="R49">
+        <v>-0.3108178398946109</v>
+      </c>
+      <c r="S49">
+        <v>-0.2836448428344582</v>
+      </c>
+      <c r="T49">
+        <v>-0.2519985971615891</v>
+      </c>
+      <c r="U49">
+        <v>-0.2163781830748174</v>
+      </c>
+      <c r="V49">
+        <v>-0.1773453557828939</v>
+      </c>
+      <c r="W49">
+        <v>-0.1355156862892942</v>
+      </c>
+      <c r="X49">
+        <v>-0.09154885346976505</v>
+      </c>
+      <c r="Y49">
+        <v>-0.0461382405423838</v>
+      </c>
+      <c r="Z49">
+        <v>-2.220446049250313e-16</v>
+      </c>
+      <c r="AA49">
+        <v>0.04613824054238425</v>
+      </c>
+      <c r="AB49">
+        <v>0.09154885346976493</v>
+      </c>
+      <c r="AC49">
+        <v>0.1355156862892952</v>
+      </c>
+      <c r="AD49">
+        <v>0.1773453557828941</v>
+      </c>
+      <c r="AE49">
+        <v>0.2163781830748183</v>
+      </c>
+      <c r="AF49">
+        <v>0.2519985971615897</v>
+      </c>
+      <c r="AG49">
+        <v>0.2836448428344592</v>
+      </c>
+      <c r="AH49">
+        <v>0.3108178398946113</v>
+      </c>
+      <c r="AI49">
+        <v>0.3330890539460498</v>
+      </c>
+      <c r="AJ49">
+        <v>0.3501072546390015</v>
+      </c>
+      <c r="AK49">
+        <v>0.361604054782361</v>
+      </c>
+      <c r="AL49">
+        <v>0.3673981429700102</v>
+      </c>
+      <c r="AM49">
+        <v>0.3673981429700099</v>
+      </c>
+      <c r="AN49">
+        <v>0.3616040547823609</v>
+      </c>
+      <c r="AO49">
+        <v>0.3501072546390007</v>
+      </c>
+      <c r="AP49">
+        <v>0.3330890539460489</v>
+      </c>
+      <c r="AQ49">
+        <v>0.3108178398946114</v>
+      </c>
+      <c r="AR49">
+        <v>0.2836448428344585</v>
+      </c>
+      <c r="AS49">
+        <v>0.2519985971615888</v>
+      </c>
+      <c r="AT49">
+        <v>0.2163781830748174</v>
+      </c>
+      <c r="AU49">
+        <v>0.1773453557828939</v>
+      </c>
+      <c r="AV49">
+        <v>0.1355156862892949</v>
+      </c>
+      <c r="AW49">
+        <v>-0.9005658478447135</v>
+      </c>
+      <c r="AX49">
+        <v>-0.9224449205862474</v>
+      </c>
+      <c r="AY49">
+        <v>-0.9297764858882519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51">
+      <c r="A50">
+        <v>0.9685831611286311</v>
+      </c>
+      <c r="B50">
+        <v>0.9609455936013647</v>
+      </c>
+      <c r="C50">
+        <v>0.9381533400219317</v>
+      </c>
+      <c r="D50">
+        <v>-0.09154885346976505</v>
+      </c>
+      <c r="E50">
+        <v>-0.11980726685361</v>
+      </c>
+      <c r="F50">
+        <v>-0.1461762480697809</v>
+      </c>
+      <c r="G50">
+        <v>-0.1702399425324337</v>
+      </c>
+      <c r="H50">
+        <v>-0.1916188514049375</v>
+      </c>
+      <c r="I50">
+        <v>-0.2099758165232318</v>
+      </c>
+      <c r="J50">
+        <v>-0.2250213375814828</v>
+      </c>
+      <c r="K50">
+        <v>-0.2365181377248415</v>
+      </c>
+      <c r="L50">
+        <v>-0.2442849055471933</v>
+      </c>
+      <c r="M50">
+        <v>-0.2481991544803362</v>
+      </c>
+      <c r="N50">
+        <v>-0.248199154480336</v>
+      </c>
+      <c r="O50">
+        <v>-0.2442849055471927</v>
+      </c>
+      <c r="P50">
+        <v>-0.2365181377248416</v>
+      </c>
+      <c r="Q50">
+        <v>-0.225021337581482</v>
+      </c>
+      <c r="R50">
+        <v>-0.2099758165232324</v>
+      </c>
+      <c r="S50">
+        <v>-0.1916188514049372</v>
+      </c>
+      <c r="T50">
+        <v>-0.1702399425324336</v>
+      </c>
+      <c r="U50">
+        <v>-0.1461762480697808</v>
+      </c>
+      <c r="V50">
+        <v>-0.1198072668536097</v>
+      </c>
+      <c r="W50">
+        <v>-0.09154885346976505</v>
+      </c>
+      <c r="X50">
+        <v>-0.06184665997806837</v>
+      </c>
+      <c r="Y50">
+        <v>-0.0311691077131131</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0.03116910771311288</v>
+      </c>
+      <c r="AB50">
+        <v>0.06184665997806882</v>
+      </c>
+      <c r="AC50">
+        <v>0.09154885346976493</v>
+      </c>
+      <c r="AD50">
+        <v>0.1198072668536106</v>
+      </c>
+      <c r="AE50">
+        <v>0.1461762480697812</v>
+      </c>
+      <c r="AF50">
+        <v>0.170239942532434</v>
+      </c>
+      <c r="AG50">
+        <v>0.1916188514049376</v>
+      </c>
+      <c r="AH50">
+        <v>0.2099758165232328</v>
+      </c>
+      <c r="AI50">
+        <v>0.2250213375814821</v>
+      </c>
+      <c r="AJ50">
+        <v>0.2365181377248422</v>
+      </c>
+      <c r="AK50">
+        <v>0.2442849055471931</v>
+      </c>
+      <c r="AL50">
+        <v>0.2481991544803358</v>
+      </c>
+      <c r="AM50">
+        <v>0.2481991544803365</v>
+      </c>
+      <c r="AN50">
+        <v>0.244284905547193</v>
+      </c>
+      <c r="AO50">
+        <v>0.2365181377248415</v>
+      </c>
+      <c r="AP50">
+        <v>0.2250213375814819</v>
+      </c>
+      <c r="AQ50">
+        <v>0.2099758165232318</v>
+      </c>
+      <c r="AR50">
+        <v>0.1916188514049373</v>
+      </c>
+      <c r="AS50">
+        <v>0.170239942532434</v>
+      </c>
+      <c r="AT50">
+        <v>0.146176248069781</v>
+      </c>
+      <c r="AU50">
+        <v>0.11980726685361</v>
+      </c>
+      <c r="AV50">
+        <v>0.09154885346976438</v>
+      </c>
+      <c r="AW50">
+        <v>0.06184665997806826</v>
+      </c>
+      <c r="AX50">
+        <v>-0.960945593601365</v>
+      </c>
+      <c r="AY50">
+        <v>-0.9685831611286307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51">
+      <c r="A51">
+        <v>0.9921147013144778</v>
+      </c>
+      <c r="B51">
+        <v>0.9842915805643155</v>
+      </c>
+      <c r="C51">
+        <v>-0.0311691077131131</v>
+      </c>
+      <c r="D51">
+        <v>-0.0461382405423838</v>
+      </c>
+      <c r="E51">
+        <v>-0.06037974575665195</v>
+      </c>
+      <c r="F51">
+        <v>-0.07366902631122618</v>
+      </c>
+      <c r="G51">
+        <v>-0.08579650231312896</v>
+      </c>
+      <c r="H51">
+        <v>-0.0965709162212075</v>
+      </c>
+      <c r="I51">
+        <v>-0.1058223490918085</v>
+      </c>
+      <c r="J51">
+        <v>-0.1134049003020243</v>
+      </c>
+      <c r="K51">
+        <v>-0.1191989884896743</v>
+      </c>
+      <c r="L51">
+        <v>-0.1231132374228172</v>
+      </c>
+      <c r="M51">
+        <v>-0.125085917057519</v>
+      </c>
+      <c r="N51">
+        <v>-0.125085917057519</v>
+      </c>
+      <c r="O51">
+        <v>-0.123113237422817</v>
+      </c>
+      <c r="P51">
+        <v>-0.1191989884896737</v>
+      </c>
+      <c r="Q51">
+        <v>-0.1134049003020247</v>
+      </c>
+      <c r="R51">
+        <v>-0.1058223490918083</v>
+      </c>
+      <c r="S51">
+        <v>-0.09657091622120773</v>
+      </c>
+      <c r="T51">
+        <v>-0.08579650231312885</v>
+      </c>
+      <c r="U51">
+        <v>-0.07366902631122585</v>
+      </c>
+      <c r="V51">
+        <v>-0.06037974575665195</v>
+      </c>
+      <c r="W51">
+        <v>-0.0461382405423838</v>
+      </c>
+      <c r="X51">
+        <v>-0.0311691077131131</v>
+      </c>
+      <c r="Y51">
+        <v>-0.01570841943568457</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0.01570841943568457</v>
+      </c>
+      <c r="AB51">
+        <v>0.03116910771311288</v>
+      </c>
+      <c r="AC51">
+        <v>0.04613824054238425</v>
+      </c>
+      <c r="AD51">
+        <v>0.06037974575665206</v>
+      </c>
+      <c r="AE51">
+        <v>0.0736690263112264</v>
+      </c>
+      <c r="AF51">
+        <v>0.08579650231312919</v>
+      </c>
+      <c r="AG51">
+        <v>0.09657091622120761</v>
+      </c>
+      <c r="AH51">
+        <v>0.1058223490918084</v>
+      </c>
+      <c r="AI51">
+        <v>0.1134049003020252</v>
+      </c>
+      <c r="AJ51">
+        <v>0.1191989884896737</v>
+      </c>
+      <c r="AK51">
+        <v>0.123113237422817</v>
+      </c>
+      <c r="AL51">
+        <v>0.1250859170575194</v>
+      </c>
+      <c r="AM51">
+        <v>0.1250859170575188</v>
+      </c>
+      <c r="AN51">
+        <v>0.1231132374228171</v>
+      </c>
+      <c r="AO51">
+        <v>0.1191989884896741</v>
+      </c>
+      <c r="AP51">
+        <v>0.1134049003020244</v>
+      </c>
+      <c r="AQ51">
+        <v>0.1058223490918078</v>
+      </c>
+      <c r="AR51">
+        <v>0.09657091622120739</v>
+      </c>
+      <c r="AS51">
+        <v>0.08579650231312952</v>
+      </c>
+      <c r="AT51">
+        <v>0.07366902631122663</v>
+      </c>
+      <c r="AU51">
+        <v>0.0603797457566515</v>
+      </c>
+      <c r="AV51">
+        <v>0.04613824054238336</v>
+      </c>
+      <c r="AW51">
+        <v>0.03116910771311288</v>
+      </c>
+      <c r="AX51">
+        <v>0.01570841943568491</v>
+      </c>
+      <c r="AY51">
+        <v>-0.9921147013144779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
         <v>0</v>
       </c>
     </row>
